--- a/results/F1_charts.xlsx
+++ b/results/F1_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\majikthise\MLP_Group_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1242074-26A1-4D86-85F7-F05FF6A18A8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD88BC7E-485F-4FD8-9851-FE8D2550114D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="11310" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="1650" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>precision</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>COLA</t>
+  </si>
+  <si>
+    <t>TWITTER</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,11 +353,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2594,6 +2604,746 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COLA - test set f1_score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9F15-4796-BE7F-52AE86F2D946}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$39:$B$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Majority vote</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Straight avg</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Constituent models</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Baseline Ensembles</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Interpretability Ensembles (modal vote)</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Interpretability Ensembles (wtd avg)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$39:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.82367400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82795700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83678799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86406499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87225799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86419800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87714700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81379299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81379299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85606099999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85931599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84331199999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82509999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82526900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83937799999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.853904</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87206300000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84955800000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.860792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-9F15-4796-BE7F-52AE86F2D946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521015392"/>
+        <c:axId val="521013752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521015392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521013752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521013752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.92"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521015392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2714,6 +3464,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3721,6 +4511,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4264,15 +5557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:colOff>128587</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4302,15 +5595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>566739</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4332,6 +5625,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>209553</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607211E4-82B4-45CE-B244-6FA24FAB9259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4637,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA924837-D6A1-46A1-96BD-520CDE0C3667}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,7 +5987,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -5427,7 +6758,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -5488,13 +6819,21 @@
       <c r="F39" s="6">
         <v>0.77039800000000003</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="G39" s="5">
+        <v>0.73085299999999997</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.94350299999999998</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.82367400000000002</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.72286799999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
@@ -5510,13 +6849,21 @@
       <c r="F40" s="10">
         <v>0.79696400000000001</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
+      <c r="G40" s="9">
+        <v>0.789744</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.87005600000000005</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.82795700000000005</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.751938</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
@@ -5532,13 +6879,21 @@
       <c r="F41" s="10">
         <v>0.81024700000000005</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
+      <c r="G41" s="9">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.91242900000000005</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0.83678799999999998</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.75581399999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
@@ -5554,13 +6909,21 @@
       <c r="F42" s="10">
         <v>0.82542700000000002</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
+      <c r="G42" s="9">
+        <v>0.82519299999999995</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.86406499999999997</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0.80426399999999998</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="7" t="s">
         <v>5</v>
       </c>
@@ -5576,13 +6939,21 @@
       <c r="F43" s="10">
         <v>0.85958299999999999</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
+      <c r="G43" s="9">
+        <v>0.80284999999999995</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.95480200000000004</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.87225799999999998</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0.80813999999999997</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
@@ -5598,13 +6969,21 @@
       <c r="F44" s="10">
         <v>0.87476299999999996</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
+      <c r="G44" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.88983100000000004</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.86419800000000002</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0.80813999999999997</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
@@ -5620,13 +6999,21 @@
       <c r="F45" s="10">
         <v>0.86907000000000001</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
+      <c r="G45" s="9">
+        <v>0.82382100000000003</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.87714700000000001</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0.81976700000000002</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
@@ -5642,13 +7029,21 @@
       <c r="F46" s="10">
         <v>0.69259999999999999</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
+      <c r="G46" s="9">
+        <v>0.68604699999999996</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.81379299999999999</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0.68604699999999996</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
@@ -5664,10 +7059,18 @@
       <c r="F47" s="10">
         <v>0.69259999999999999</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
+      <c r="G47" s="9">
+        <v>0.68604699999999996</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.81379299999999999</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0.68604699999999996</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
@@ -5688,13 +7091,21 @@
       <c r="F48" s="6">
         <v>0.81973399999999996</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="G48" s="5">
+        <v>0.77397300000000002</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.85606099999999996</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.77907000000000004</v>
+      </c>
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="7" t="s">
         <v>20</v>
       </c>
@@ -5708,7 +7119,7 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
@@ -5724,16 +7135,24 @@
       <c r="F50" s="10">
         <v>0.83301700000000001</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
+      <c r="G50" s="9">
+        <v>0.77930999999999995</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.85931599999999997</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.78488400000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="4">
@@ -5748,14 +7167,22 @@
       <c r="F51" s="5">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
+      <c r="G51" s="4">
+        <v>0.76798100000000002</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.93502799999999997</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.84331199999999995</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.76162799999999997</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="8">
@@ -5770,14 +7197,22 @@
       <c r="F52" s="9">
         <v>0.79886100000000004</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
+      <c r="G52" s="8">
+        <v>0.78227800000000003</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.87288100000000002</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0.74612400000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="8">
@@ -5792,14 +7227,22 @@
       <c r="F53" s="9">
         <v>0.78747599999999995</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
+      <c r="G53" s="8">
+        <v>0.78717899999999996</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.867232</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.82526900000000003</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0.748062</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="8">
@@ -5814,14 +7257,22 @@
       <c r="F54" s="9">
         <v>0.81404200000000004</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
+      <c r="G54" s="8">
+        <v>0.79545500000000002</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.88983100000000004</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0.76744199999999996</v>
+      </c>
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="8">
@@ -5836,14 +7287,22 @@
       <c r="F55" s="9">
         <v>0.81214399999999998</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
+      <c r="G55" s="8">
+        <v>0.77990400000000004</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.92090399999999994</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.76744199999999996</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="8">
@@ -5858,16 +7317,24 @@
       <c r="F56" s="9">
         <v>0.81783700000000004</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
+      <c r="G56" s="8">
+        <v>0.77512000000000003</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.83937799999999996</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0.75968999999999998</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="8">
@@ -5882,14 +7349,22 @@
       <c r="F57" s="9">
         <v>0.82732399999999995</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
+      <c r="G57" s="8">
+        <v>0.770455</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.853904</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0.77519400000000005</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="8">
@@ -5904,14 +7379,22 @@
       <c r="F58" s="9">
         <v>0.85199199999999997</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="G58" s="8">
+        <v>0.81067999999999996</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0.94350299999999998</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.87206300000000003</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0.81007799999999996</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="8">
@@ -5926,14 +7409,22 @@
       <c r="F59" s="9">
         <v>0.83111999999999997</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="G59" s="8">
+        <v>0.77701100000000001</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.95480200000000004</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.85678100000000001</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0.78100800000000004</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="8">
@@ -5948,14 +7439,22 @@
       <c r="F60" s="9">
         <v>0.82542700000000002</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="G60" s="8">
+        <v>0.76887899999999998</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.94915300000000002</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0.84955800000000004</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0.76937999999999995</v>
+      </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="8">
@@ -5970,14 +7469,22 @@
       <c r="F61" s="9">
         <v>0.82542700000000002</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
+      <c r="G61" s="8">
+        <v>0.76993199999999995</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0.95480200000000004</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0.85245899999999997</v>
+      </c>
+      <c r="J61" s="10">
+        <v>0.77325600000000005</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="12">
@@ -5992,83 +7499,328 @@
       <c r="F62" s="13">
         <v>0.82922200000000001</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="26"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="26"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="26"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="26"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="26"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="26"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="26"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="26"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="26"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="26"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="26"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="26"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="26"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="26"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="26"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="26"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="26"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="26"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="26"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="26"/>
+      <c r="G62" s="12">
+        <v>0.78554800000000002</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0.95197699999999996</v>
+      </c>
+      <c r="I62" s="13">
+        <v>0.860792</v>
+      </c>
+      <c r="J62" s="14">
+        <v>0.78876000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="K79" s="28"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="K80" s="28"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14"/>
+      <c r="K81" s="28"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+      <c r="K82" s="28"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="K83" s="28"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="K84" s="28"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="K85" s="28"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="K86" s="28"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="K88" s="28"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="K89" s="28"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="K90" s="28"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="K91" s="28"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="K92" s="28"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14"/>
+      <c r="K93" s="28"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="28"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="28"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="28"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="28"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="28"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="28"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="28"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="C80:H91">
-    <sortCondition ref="H80"/>
+  <sortState ref="K90:P101">
+    <sortCondition ref="P90"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C37:F37"/>

--- a/results/F1_charts.xlsx
+++ b/results/F1_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\majikthise\MLP_Group_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD88BC7E-485F-4FD8-9851-FE8D2550114D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8CDCC6A4-7135-4FE0-991E-971E37E57EF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="1650" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>precision</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>TWITTER</t>
+  </si>
+  <si>
+    <t>STDs</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +368,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3344,6 +3350,746 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Twitter - out-of-domain test set f1_score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$70:$B$90</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Majority vote</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Straight avg</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Constituent models</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Baseline Ensembles</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Interpretability Ensembles (modal vote)</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Interpretability Ensembles (wtd avg)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$70:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.22764200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.287719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25806499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.244898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21598300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23194699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28651700000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24817500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25742599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29565200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29824600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.235566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26063799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23904400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28906199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26341500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25445299999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30395100000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33103399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30498500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-B9A4-4415-B7D3-144DEAE0D2E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521015392"/>
+        <c:axId val="521013752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521015392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521013752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521013752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521015392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3504,6 +4250,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5014,6 +5800,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5663,6 +6952,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161928</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6498DA0A-84E6-4C0C-BE90-5D85FCDFB977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5968,10 +7295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA924837-D6A1-46A1-96BD-520CDE0C3667}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7516,6 +8843,9 @@
       <c r="A68" s="29" t="s">
         <v>24</v>
       </c>
+      <c r="G68" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C69" s="27" t="s">
@@ -7538,90 +8868,270 @@
       <c r="B70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
+      <c r="C70" s="5">
+        <v>0.149733</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.474576</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.22764200000000001</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.68333299999999997</v>
+      </c>
+      <c r="G70" s="30">
+        <v>2.6384999999999999E-2</v>
+      </c>
+      <c r="H70" s="30">
+        <v>6.4813999999999997E-2</v>
+      </c>
+      <c r="I70" s="30">
+        <v>3.5793999999999999E-2</v>
+      </c>
+      <c r="J70" s="30">
+        <v>1.8849999999999999E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
+      <c r="C71" s="9">
+        <v>0.18141599999999999</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.69491499999999995</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.287719</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0.66166700000000001</v>
+      </c>
+      <c r="G71" s="30">
+        <v>2.5794999999999998E-2</v>
+      </c>
+      <c r="H71" s="30">
+        <v>5.9645999999999998E-2</v>
+      </c>
+      <c r="I71" s="30">
+        <v>3.5207000000000002E-2</v>
+      </c>
+      <c r="J71" s="30">
+        <v>1.9252999999999999E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
+      <c r="C72" s="9">
+        <v>0.17721500000000001</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.474576</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.25806499999999999</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.73166699999999996</v>
+      </c>
+      <c r="G72" s="30">
+        <v>3.0789E-2</v>
+      </c>
+      <c r="H72" s="30">
+        <v>6.5938999999999998E-2</v>
+      </c>
+      <c r="I72" s="30">
+        <v>3.9614999999999997E-2</v>
+      </c>
+      <c r="J72" s="30">
+        <v>1.7937000000000002E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10"/>
+      <c r="C73" s="9">
+        <v>0.14788699999999999</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.71186400000000005</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.244898</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.56833299999999998</v>
+      </c>
+      <c r="G73" s="30">
+        <v>2.1014999999999999E-2</v>
+      </c>
+      <c r="H73" s="30">
+        <v>5.9854999999999998E-2</v>
+      </c>
+      <c r="I73" s="30">
+        <v>3.0685E-2</v>
+      </c>
+      <c r="J73" s="30">
+        <v>2.0094000000000001E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10"/>
+      <c r="C74" s="9">
+        <v>0.123762</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0.21598300000000001</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G74" s="30">
+        <v>1.6376000000000002E-2</v>
+      </c>
+      <c r="H74" s="30">
+        <v>4.7974999999999997E-2</v>
+      </c>
+      <c r="I74" s="30">
+        <v>2.5561E-2</v>
+      </c>
+      <c r="J74" s="30">
+        <v>1.9841999999999999E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
+      <c r="C75" s="9">
+        <v>0.13316600000000001</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.23194699999999999</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G75" s="30">
+        <v>1.6969000000000001E-2</v>
+      </c>
+      <c r="H75" s="30">
+        <v>3.9542000000000001E-2</v>
+      </c>
+      <c r="I75" s="30">
+        <v>2.6162000000000001E-2</v>
+      </c>
+      <c r="J75" s="30">
+        <v>1.9931999999999998E-2</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
+      <c r="C76" s="9">
+        <v>0.17171700000000001</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0.28651700000000002</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0.57666700000000004</v>
+      </c>
+      <c r="G76" s="30">
+        <v>2.1953E-2</v>
+      </c>
+      <c r="H76" s="30">
+        <v>4.4741999999999997E-2</v>
+      </c>
+      <c r="I76" s="30">
+        <v>3.1444E-2</v>
+      </c>
+      <c r="J76" s="30">
+        <v>2.0406000000000001E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10"/>
+      <c r="C77" s="9">
+        <v>0.14488599999999999</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0.24817500000000001</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G77" s="30">
+        <v>1.8693999999999999E-2</v>
+      </c>
+      <c r="H77" s="30">
+        <v>4.5337000000000002E-2</v>
+      </c>
+      <c r="I77" s="30">
+        <v>2.8117E-2</v>
+      </c>
+      <c r="J77" s="30">
+        <v>2.0334999999999999E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14"/>
+      <c r="C78" s="13">
+        <v>0.150725</v>
+      </c>
+      <c r="D78" s="13">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0.25742599999999999</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="30">
+        <v>1.9276999999999999E-2</v>
+      </c>
+      <c r="H78" s="30">
+        <v>4.2209999999999998E-2</v>
+      </c>
+      <c r="I78" s="30">
+        <v>2.8739000000000001E-2</v>
+      </c>
+      <c r="J78" s="30">
+        <v>2.0643999999999999E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
@@ -7630,178 +9140,404 @@
       <c r="B79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="5">
+        <v>0.17832200000000001</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.29565200000000003</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G79" s="30">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="H79" s="30">
+        <v>4.5225000000000001E-2</v>
+      </c>
+      <c r="I79" s="30">
+        <v>3.2168000000000002E-2</v>
+      </c>
+      <c r="J79" s="30">
+        <v>2.0160999999999998E-2</v>
+      </c>
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="13">
+        <v>0.18021200000000001</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0.29824600000000001</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G80" s="30">
+        <v>2.2842999999999999E-2</v>
+      </c>
+      <c r="H80" s="30">
+        <v>4.5510000000000002E-2</v>
+      </c>
+      <c r="I80" s="30">
+        <v>3.2245000000000003E-2</v>
+      </c>
+      <c r="J80" s="30">
+        <v>2.0034E-2</v>
+      </c>
       <c r="K80" s="28"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14"/>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.13636400000000001</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.235566</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.44833299999999998</v>
+      </c>
+      <c r="G81" s="30">
+        <v>1.772E-2</v>
+      </c>
+      <c r="H81" s="30">
+        <v>4.4728999999999998E-2</v>
+      </c>
+      <c r="I81" s="30">
+        <v>2.7033000000000001E-2</v>
+      </c>
+      <c r="J81" s="30">
+        <v>2.0455999999999998E-2</v>
+      </c>
       <c r="K81" s="28"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="9">
+        <v>0.15457399999999999</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.83050800000000002</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0.26063799999999998</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0.53666700000000001</v>
+      </c>
+      <c r="G82" s="30">
+        <v>2.0319E-2</v>
+      </c>
+      <c r="H82" s="30">
+        <v>4.8729000000000001E-2</v>
+      </c>
+      <c r="I82" s="30">
+        <v>2.9863000000000001E-2</v>
+      </c>
+      <c r="J82" s="30">
+        <v>2.0728E-2</v>
+      </c>
       <c r="K82" s="28"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="C83" s="9">
+        <v>0.15625</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.50847500000000001</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0.23904400000000001</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0.68166700000000002</v>
+      </c>
+      <c r="G83" s="30">
+        <v>2.6415999999999999E-2</v>
+      </c>
+      <c r="H83" s="30">
+        <v>6.4271999999999996E-2</v>
+      </c>
+      <c r="I83" s="30">
+        <v>3.5777999999999997E-2</v>
+      </c>
+      <c r="J83" s="30">
+        <v>1.8921E-2</v>
+      </c>
       <c r="K83" s="28"/>
+      <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="9">
+        <v>0.18781700000000001</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0.28906199999999999</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0.69666700000000004</v>
+      </c>
+      <c r="G84" s="30">
+        <v>2.8059000000000001E-2</v>
+      </c>
+      <c r="H84" s="30">
+        <v>6.3483999999999999E-2</v>
+      </c>
+      <c r="I84" s="30">
+        <v>3.7304999999999998E-2</v>
+      </c>
+      <c r="J84" s="30">
+        <v>1.8681E-2</v>
+      </c>
+      <c r="K84" s="28"/>
+      <c r="P84" s="28"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0.16423399999999999</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0.76271199999999995</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0.27027000000000001</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G85" s="30">
+        <v>2.2565999999999999E-2</v>
+      </c>
+      <c r="H85" s="30">
+        <v>5.5472E-2</v>
+      </c>
+      <c r="I85" s="30">
+        <v>3.2246999999999998E-2</v>
+      </c>
+      <c r="J85" s="30">
+        <v>2.0168999999999999E-2</v>
+      </c>
+      <c r="K85" s="28"/>
+      <c r="P85" s="28"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.15384600000000001</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.26341500000000001</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.49666700000000003</v>
+      </c>
+      <c r="G86" s="30">
+        <v>1.9310999999999998E-2</v>
+      </c>
+      <c r="H86" s="30">
+        <v>3.6628000000000001E-2</v>
+      </c>
+      <c r="I86" s="30">
+        <v>2.8735E-2</v>
+      </c>
+      <c r="J86" s="30">
+        <v>2.0618999999999998E-2</v>
+      </c>
+      <c r="K86" s="28"/>
+      <c r="P86" s="28"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0.149701</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.25445299999999998</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0.51166699999999998</v>
+      </c>
+      <c r="G87" s="30">
+        <v>1.9564000000000002E-2</v>
+      </c>
+      <c r="H87" s="30">
+        <v>4.7343999999999997E-2</v>
+      </c>
+      <c r="I87" s="30">
+        <v>2.9083999999999999E-2</v>
+      </c>
+      <c r="J87" s="30">
+        <v>2.0688000000000002E-2</v>
+      </c>
+      <c r="K87" s="28"/>
+      <c r="P87" s="28"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
-      <c r="K84" s="28"/>
+      <c r="C88" s="9">
+        <v>0.18518499999999999</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0.30395100000000003</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0.61833300000000002</v>
+      </c>
+      <c r="G88" s="30">
+        <v>2.3713000000000001E-2</v>
+      </c>
+      <c r="H88" s="30">
+        <v>4.7701E-2</v>
+      </c>
+      <c r="I88" s="30">
+        <v>3.3107999999999999E-2</v>
+      </c>
+      <c r="J88" s="30">
+        <v>1.9883999999999999E-2</v>
+      </c>
+      <c r="K88" s="28"/>
+      <c r="P88" s="28"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10"/>
-      <c r="K85" s="28"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10"/>
-      <c r="K86" s="28"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="14"/>
-      <c r="K87" s="28"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-      <c r="K88" s="28"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="C89" s="9">
+        <v>0.207792</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.81355900000000003</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.33103399999999999</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0.67666700000000002</v>
+      </c>
+      <c r="G89" s="30">
+        <v>2.6905999999999999E-2</v>
+      </c>
+      <c r="H89" s="30">
+        <v>5.1390999999999999E-2</v>
+      </c>
+      <c r="I89" s="30">
+        <v>3.5951999999999998E-2</v>
+      </c>
+      <c r="J89" s="30">
+        <v>1.9095999999999998E-2</v>
+      </c>
       <c r="K89" s="28"/>
+      <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10"/>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="13">
+        <v>0.18439700000000001</v>
+      </c>
+      <c r="D90" s="13">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E90" s="13">
+        <v>0.30498500000000001</v>
+      </c>
+      <c r="F90" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G90" s="30">
+        <v>2.3144000000000001E-2</v>
+      </c>
+      <c r="H90" s="30">
+        <v>4.2494999999999998E-2</v>
+      </c>
+      <c r="I90" s="30">
+        <v>3.2527E-2</v>
+      </c>
+      <c r="J90" s="30">
+        <v>2.0008000000000001E-2</v>
+      </c>
       <c r="K90" s="28"/>
+      <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K91" s="28"/>
+      <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K92" s="28"/>
+      <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="14"/>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K93" s="28"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K94" s="28"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K95" s="28"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K96" s="28"/>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K96" s="15"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K97" s="28"/>
@@ -7809,18 +9545,9 @@
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K98" s="28"/>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" s="28"/>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100" s="28"/>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101" s="28"/>
-    </row>
   </sheetData>
-  <sortState ref="K90:P101">
-    <sortCondition ref="P90"/>
+  <sortState ref="C108:L117">
+    <sortCondition ref="L108"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C37:F37"/>

--- a/results/F1_charts.xlsx
+++ b/results/F1_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\majikthise\MLP_Group_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8CDCC6A4-7135-4FE0-991E-971E37E57EF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AEAFE02E-8587-4333-A03B-36C4755E2121}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="1650" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
   <si>
     <t>precision</t>
   </si>
@@ -78,9 +78,6 @@
     <t>IntGr</t>
   </si>
   <si>
-    <t>Lime + IntGr</t>
-  </si>
-  <si>
     <t>Lime + Shap + Attn + IntGr</t>
   </si>
   <si>
@@ -99,10 +96,124 @@
     <t>COLA</t>
   </si>
   <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_1_dev</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_2_dev</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_3_dev</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_1_dev</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_2_dev</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_3_dev</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_1_dev</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_2_dev</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_3_dev</t>
+  </si>
+  <si>
+    <t>majority_baseline</t>
+  </si>
+  <si>
+    <t>straight_avg_baseline</t>
+  </si>
+  <si>
+    <t>Lime_agreement_modal_vote</t>
+  </si>
+  <si>
+    <t>Lime_agreement_wtd_avg</t>
+  </si>
+  <si>
+    <t>Shap_agreement_modal_vote</t>
+  </si>
+  <si>
+    <t>Shap_agreement_wtd_avg</t>
+  </si>
+  <si>
+    <t>Attention_agreement_modal_vote</t>
+  </si>
+  <si>
+    <t>Attention_agreement_wtd_avg</t>
+  </si>
+  <si>
+    <t>Integrated_Grad_agreement_modal_vote</t>
+  </si>
+  <si>
+    <t>Integrated_Grad_agreement_wtd_avg</t>
+  </si>
+  <si>
+    <t>Lime_agreement_Shap_agreement_Attention_agreem...</t>
+  </si>
+  <si>
     <t>TWITTER</t>
   </si>
   <si>
-    <t>STDs</t>
+    <t>cola_bert_medium_rand_1_test</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_2_test</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_3_test</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_1_test</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_2_test</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_3_test</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_1_test</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_2_test</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_3_test</t>
+  </si>
+  <si>
+    <t>precision_std</t>
+  </si>
+  <si>
+    <t>recall_std</t>
+  </si>
+  <si>
+    <t>f1_score_std</t>
+  </si>
+  <si>
+    <t>accuracy_std</t>
+  </si>
+  <si>
+    <t>+/- 1 Std Dev</t>
+  </si>
+  <si>
+    <t>COLA DEV UPDATED</t>
+  </si>
+  <si>
+    <t>COLA TEST UPDATED</t>
+  </si>
+  <si>
+    <t>LIME FIXES:</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -150,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -290,12 +401,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,26 +482,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,7 +498,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +645,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,35 +695,12 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-1C5A-435F-944C-77AF7317BDA9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -663,10 +815,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -787,11 +936,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-5E0D-40A1-9F6C-B0C3CEA393ED}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$26</c:f>
+              <c:f>Sheet1!$A$4:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>B-medium</c:v>
@@ -824,36 +999,39 @@
                     <c:v>Majority vote</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>Weight avg NN</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Straight avg</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Lime</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Shap</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Attn</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Lime + Shap + Attn + IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Lime</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Shap</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Attn</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>Lime + Shap + Attn + IntGr</c:v>
                   </c:pt>
                 </c:lvl>
@@ -864,10 +1042,10 @@
                   <c:pt idx="9">
                     <c:v>Baseline Ensembles</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Interpretability Ensembles (modal vote)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Interpretability Ensembles (wtd avg)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -876,10 +1054,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$26</c:f>
+              <c:f>Sheet1!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.81745999999999996</c:v>
                 </c:pt>
@@ -911,36 +1089,39 @@
                   <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.55369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.82352899999999996</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.80620199999999997</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.81422899999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.81712099999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.81102399999999997</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.82442700000000002</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.82490300000000005</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.81745999999999996</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.82352899999999996</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.82213400000000003</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.82031200000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -1211,7 +1392,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1261,35 +1442,12 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A6F4-4F93-9776-4EC0A8CFA637}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -1404,10 +1562,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -1528,11 +1683,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-E9E4-4FB6-B5E7-58F0A7EEE79C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$26</c:f>
+              <c:f>Sheet1!$A$4:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>B-medium</c:v>
@@ -1565,36 +1746,39 @@
                     <c:v>Majority vote</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>Weight avg NN</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Straight avg</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Lime</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Shap</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Attn</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Lime + Shap + Attn + IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Lime</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Shap</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Attn</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>IntGr</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>Lime + Shap + Attn + IntGr</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1605,10 +1789,10 @@
                   <c:pt idx="9">
                     <c:v>Baseline Ensembles</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Interpretability Ensembles (modal vote)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Interpretability Ensembles (wtd avg)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1617,10 +1801,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$26</c:f>
+              <c:f>Sheet1!$I$4:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.79847900000000005</c:v>
                 </c:pt>
@@ -1652,36 +1836,39 @@
                   <c:v>0.81081099999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.82625499999999996</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.79411799999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.787879</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.78947400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.78947400000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.78947400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.78545500000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.80754700000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.82889699999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.82625499999999996</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.81538500000000003</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.81992299999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1951,7 +2138,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2270,7 +2457,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$39:$B$62</c:f>
+              <c:f>Sheet1!$A$38:$B$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -2357,7 +2544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$E$62</c:f>
+              <c:f>Sheet1!$E$38:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2691,7 +2878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3010,7 +3197,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$39:$B$62</c:f>
+              <c:f>Sheet1!$A$38:$B$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -3097,7 +3284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$39:$I$62</c:f>
+              <c:f>Sheet1!$I$38:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3431,7 +3618,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3750,7 +3937,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$70:$B$90</c:f>
+              <c:f>Sheet1!$A$66:$B$86</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -3837,7 +4024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$70:$E$90</c:f>
+              <c:f>Sheet1!$E$66:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6809,16 +6996,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552448</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304798</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6845,16 +7032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6883,16 +7070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>280986</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>490539</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6921,15 +7108,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>209553</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>533403</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6959,15 +7146,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161928</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314328</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7295,10 +7482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA924837-D6A1-46A1-96BD-520CDE0C3667}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:W181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,521 +7500,869 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>0.78030299999999997</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>0.85833300000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>0.81745999999999996</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>0.807531</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>0.72916700000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>0.88235300000000005</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>0.79847900000000005</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J4" s="6">
         <v>0.77824300000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.75177300000000002</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.81226100000000001</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.79497899999999999</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.68627499999999997</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.88235300000000005</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.77205900000000005</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.74058599999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="K4" s="4">
+        <v>3.6297000000000003E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3.2115999999999999E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2.6065999999999999E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.5628999999999999E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3.5368999999999998E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3.0511E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2.6731000000000001E-2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2.6508E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8">
+        <v>0.75177300000000002</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.81226100000000001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.79497899999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.68627499999999997</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.88235300000000005</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.77205900000000005</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.74058599999999997</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3.5942000000000002E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.9094999999999999E-2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2.5659000000000001E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2.5921E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>3.6051E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>3.0511E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.7907000000000001E-2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2.8211E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.78195499999999996</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>0.86666699999999997</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>0.82213400000000003</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>0.81171499999999996</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>0.732877</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="9">
         <v>0.89915999999999996</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="9">
         <v>0.80754700000000001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J6" s="10">
         <v>0.78661099999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.84615399999999996</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.83544300000000005</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.83682000000000001</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.77692300000000003</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.84873900000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.81124499999999999</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.80334700000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="K6" s="8">
+        <v>3.4701999999999997E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3.1866999999999999E-2</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2.545E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2.4868999999999999E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3.4723999999999998E-2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.8441000000000001E-2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>2.5985999999999999E-2</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2.5925E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8">
-        <v>0.83050800000000002</v>
+        <v>0.84615399999999996</v>
       </c>
       <c r="D7" s="9">
-        <v>0.81666700000000003</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E7" s="9">
-        <v>0.82352899999999996</v>
+        <v>0.83544300000000005</v>
       </c>
       <c r="F7" s="9">
-        <v>0.824268</v>
+        <v>0.83682000000000001</v>
       </c>
       <c r="G7" s="8">
-        <v>0.75</v>
+        <v>0.77692300000000003</v>
       </c>
       <c r="H7" s="9">
-        <v>0.83193300000000003</v>
+        <v>0.84873900000000002</v>
       </c>
       <c r="I7" s="9">
-        <v>0.78884500000000002</v>
+        <v>0.81124499999999999</v>
       </c>
       <c r="J7" s="10">
-        <v>0.77824300000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+        <v>0.80334700000000003</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.2187E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>3.5368999999999998E-2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2.6258E-2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2.3737999999999999E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3.5674999999999998E-2</v>
+      </c>
+      <c r="P7" s="9">
+        <v>3.347E-2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>2.7272999999999999E-2</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2.5914E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8">
-        <v>0.80952400000000002</v>
+        <v>0.83050800000000002</v>
       </c>
       <c r="D8" s="9">
-        <v>0.85</v>
+        <v>0.81666700000000003</v>
       </c>
       <c r="E8" s="9">
-        <v>0.82926800000000001</v>
+        <v>0.82352899999999996</v>
       </c>
       <c r="F8" s="9">
         <v>0.824268</v>
       </c>
       <c r="G8" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.83193300000000003</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.78884500000000002</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.77824300000000002</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3.3512E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3.6054000000000003E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2.6790999999999999E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.4527E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3.6330000000000001E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3.5622000000000001E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>2.8410999999999999E-2</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2.6575000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.80952400000000002</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.82926800000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.824268</v>
+      </c>
+      <c r="G9" s="8">
         <v>0.74285699999999999</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>0.87395</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>0.80308900000000005</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J9" s="10">
         <v>0.78661099999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.79166700000000001</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.77551000000000003</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.76987399999999995</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.717391</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.83193300000000003</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.770428</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.75313799999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="K9" s="8">
+        <v>3.4724999999999999E-2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>3.2336999999999998E-2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2.5968999999999999E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2.4778000000000001E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3.6313999999999999E-2</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3.1694E-2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2.7195E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2.6572999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.77551000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.76987399999999995</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.717391</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.83193300000000003</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.770428</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.75313799999999997</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3.7186999999999998E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>3.7406000000000002E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2.9177000000000002E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.6749999999999999E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>3.6924999999999999E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3.5547000000000002E-2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>2.9239000000000001E-2</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.8277E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
         <v>0.81081099999999995</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>0.75</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>0.77922100000000005</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>0.78661099999999995</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>0.69565200000000005</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>0.80672299999999997</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>0.74708200000000002</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J11" s="10">
         <v>0.72803300000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="11" t="s">
+      <c r="K11" s="8">
+        <v>3.6526999999999997E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <v>4.0600999999999998E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3.0509000000000001E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2.6419000000000002E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3.8529000000000001E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3.7898000000000001E-2</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>3.1036999999999999E-2</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2.9055999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C12" s="12">
         <v>0.77419400000000005</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>0.8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>0.78688499999999995</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>0.78242699999999998</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>0.71223000000000003</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>0.83193300000000003</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>0.76744199999999996</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>0.74895400000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="K12" s="12">
+        <v>3.6750999999999999E-2</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3.7309000000000002E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>2.9069999999999999E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2.7075999999999999E-2</v>
+      </c>
+      <c r="O12" s="12">
+        <v>3.6133999999999999E-2</v>
+      </c>
+      <c r="P12" s="13">
+        <v>3.6098999999999999E-2</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>2.8801E-2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>2.7651999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>0.80769199999999997</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>0.875</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>0.84</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>0.83263600000000004</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>0.75</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>0.88235300000000005</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>0.81081099999999995</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="10">
         <v>0.79497899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="K13" s="8">
+        <v>3.3951000000000002E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2.5044E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2.4527E-2</v>
+      </c>
+      <c r="O13" s="8">
+        <v>3.4916999999999997E-2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>3.0952E-2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>2.6811999999999999E-2</v>
+      </c>
+      <c r="R13" s="10">
+        <v>2.6325000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
         <v>0.85960000000000003</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>0.4083</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>0.55369999999999997</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>0.66949999999999998</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>0.86670000000000003</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>0.437</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>0.58099999999999996</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>0.68620000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="7" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>0.77777799999999997</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>0.875</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>0.82352899999999996</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>0.81171499999999996</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>0.76428600000000002</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>0.89915999999999996</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>0.82625499999999996</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J15" s="10">
         <v>0.81171499999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="K15" s="8">
+        <v>3.5455E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2.5895000000000001E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2.5566999999999999E-2</v>
+      </c>
+      <c r="O15" s="8">
+        <v>3.4907000000000001E-2</v>
+      </c>
+      <c r="P15" s="9">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>2.5928E-2</v>
+      </c>
+      <c r="R15" s="10">
+        <v>2.5812000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>0.75362300000000004</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>0.86666699999999997</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>0.80620199999999997</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>0.79079500000000003</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>0.70588200000000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <v>0.90756300000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <v>0.79411799999999999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>0.76568999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="7" t="s">
+      <c r="K16" s="4">
+        <v>3.6201999999999998E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>3.1022000000000001E-2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.6891999999999999E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2.6301000000000001E-2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3.5118000000000003E-2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2.7647000000000001E-2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2.6553E-2</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2.7033999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>0.77443600000000001</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>0.85833300000000001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>0.81422899999999998</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.80334700000000003</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.71724100000000002</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.87395</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.787879</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.76568999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.76642299999999997</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.81712099999999999</v>
       </c>
       <c r="F17" s="9">
         <v>0.80334700000000003</v>
       </c>
       <c r="G17" s="8">
-        <v>0.71428599999999998</v>
+        <v>0.71724100000000002</v>
       </c>
       <c r="H17" s="9">
-        <v>0.88235300000000005</v>
+        <v>0.87395</v>
       </c>
       <c r="I17" s="9">
-        <v>0.78947400000000001</v>
+        <v>0.787879</v>
       </c>
       <c r="J17" s="10">
         <v>0.76568999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="K17" s="8">
+        <v>3.6311999999999997E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <v>3.2538999999999998E-2</v>
+      </c>
+      <c r="M17" s="9">
+        <v>2.6582000000000001E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.5902000000000001E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>3.5271999999999998E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <v>3.1995999999999997E-2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>2.7293999999999999E-2</v>
+      </c>
+      <c r="R17" s="10">
+        <v>2.6856999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8">
-        <v>0.76865700000000003</v>
+        <v>0.76642299999999997</v>
       </c>
       <c r="D18" s="9">
-        <v>0.85833300000000001</v>
+        <v>0.875</v>
       </c>
       <c r="E18" s="9">
-        <v>0.81102399999999997</v>
+        <v>0.81712099999999999</v>
       </c>
       <c r="F18" s="9">
-        <v>0.79916299999999996</v>
+        <v>0.80334700000000003</v>
       </c>
       <c r="G18" s="8">
         <v>0.71428599999999998</v>
@@ -7841,69 +8376,141 @@
       <c r="J18" s="10">
         <v>0.76568999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="K18" s="8">
+        <v>3.5869999999999999E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3.0109E-2</v>
+      </c>
+      <c r="M18" s="9">
+        <v>2.5298000000000001E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2.5307E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>3.5726000000000001E-2</v>
+      </c>
+      <c r="P18" s="9">
+        <v>3.0511E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>2.7237000000000001E-2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2.7206000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
       <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.76865700000000003</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.85833300000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.81102399999999997</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.79916299999999996</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.88235300000000005</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.78947400000000001</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.76568999999999998</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3.4948E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>3.2558999999999998E-2</v>
+      </c>
+      <c r="M19" s="9">
+        <v>2.6037000000000001E-2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2.6109E-2</v>
+      </c>
+      <c r="O19" s="8">
+        <v>3.5846000000000003E-2</v>
+      </c>
+      <c r="P19" s="9">
+        <v>3.0988999999999999E-2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>2.7380999999999999E-2</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2.7005999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
-        <v>0.73943700000000001</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.80152699999999999</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.78242699999999998</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.69934600000000002</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.89915999999999996</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.78676500000000005</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.75732200000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="C20" s="12">
         <v>0.76056299999999999</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="13">
         <v>0.9</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="13">
         <v>0.82442700000000002</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>0.807531</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="12">
         <v>0.69230800000000003</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="13">
         <v>0.90756300000000001</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="13">
         <v>0.78545500000000001</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="14">
         <v>0.75313799999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="K20" s="12">
+        <v>3.5653999999999998E-2</v>
+      </c>
+      <c r="L20" s="13">
+        <v>2.7942999999999999E-2</v>
+      </c>
+      <c r="M20" s="13">
+        <v>2.5146000000000002E-2</v>
+      </c>
+      <c r="N20" s="13">
+        <v>2.5718000000000001E-2</v>
+      </c>
+      <c r="O20" s="12">
+        <v>3.5693999999999997E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <v>2.751E-2</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>2.6959E-2</v>
+      </c>
+      <c r="R20" s="14">
+        <v>2.7727000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -7933,9 +8540,33 @@
       <c r="J21" s="10">
         <v>0.78661099999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="K21" s="8">
+        <v>3.5411999999999999E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2.9596000000000001E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2.5725000000000001E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2.5569000000000001E-2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>3.4456000000000001E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>2.6086000000000002E-2</v>
+      </c>
+      <c r="R21" s="10">
+        <v>2.5895000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -7963,9 +8594,33 @@
       <c r="J22" s="10">
         <v>0.81171499999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="K22" s="8">
+        <v>3.5876999999999999E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>3.2558999999999998E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>2.6527999999999999E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.5846000000000001E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>3.3459000000000003E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2.6547999999999999E-2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>2.4483999999999999E-2</v>
+      </c>
+      <c r="R22" s="10">
+        <v>2.4805000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
@@ -7993,9 +8648,33 @@
       <c r="J23" s="10">
         <v>0.81171499999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="K23" s="8">
+        <v>3.5312000000000003E-2</v>
+      </c>
+      <c r="L23" s="9">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>2.5755E-2</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.5361000000000002E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <v>3.4907000000000001E-2</v>
+      </c>
+      <c r="P23" s="9">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>2.5928E-2</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2.5812000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -8023,324 +8702,712 @@
       <c r="J24" s="10">
         <v>0.79916299999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="7" t="s">
+      <c r="K24" s="8">
+        <v>3.5638000000000003E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3.1489999999999997E-2</v>
+      </c>
+      <c r="M24" s="9">
+        <v>2.6148999999999999E-2</v>
+      </c>
+      <c r="N24" s="9">
+        <v>2.5694000000000002E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>3.4636E-2</v>
+      </c>
+      <c r="P24" s="9">
+        <v>2.9770999999999999E-2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>2.5985999999999999E-2</v>
+      </c>
+      <c r="R24" s="10">
+        <v>2.5786E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8">
-        <v>0.776119</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.81889800000000001</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="C25" s="12">
+        <v>0.77205900000000005</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.82031200000000004</v>
+      </c>
+      <c r="F25" s="13">
         <v>0.807531</v>
       </c>
-      <c r="G25" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0.90756300000000001</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.82129300000000005</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="G25" s="12">
+        <v>0.753521</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.89915999999999996</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0.81992299999999996</v>
+      </c>
+      <c r="J25" s="14">
         <v>0.80334700000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="11" t="s">
+      <c r="K25" s="12">
+        <v>3.5612999999999999E-2</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2.6047000000000001E-2</v>
+      </c>
+      <c r="N25" s="13">
+        <v>2.5786E-2</v>
+      </c>
+      <c r="O25" s="12">
+        <v>3.4483E-2</v>
+      </c>
+      <c r="P25" s="13">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>2.5853000000000001E-2</v>
+      </c>
+      <c r="R25" s="14">
+        <v>2.5829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="12">
-        <v>0.77205900000000005</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0.82031200000000004</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.807531</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.753521</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.89915999999999996</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0.81992299999999996</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.80334700000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="K37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C38" s="5">
         <v>0.76521700000000004</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D38" s="5">
         <v>0.96438400000000002</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E38" s="5">
         <v>0.85333300000000001</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F38" s="6">
         <v>0.77039800000000003</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G38" s="5">
         <v>0.73085299999999997</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H38" s="5">
         <v>0.94350299999999998</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I38" s="5">
         <v>0.82367400000000002</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J38" s="6">
         <v>0.72286799999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="K38" s="5">
+        <v>1.9526999999999999E-2</v>
+      </c>
+      <c r="L38" s="5">
+        <v>9.698E-3</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1.2895E-2</v>
+      </c>
+      <c r="N38" s="6">
+        <v>1.8034999999999999E-2</v>
+      </c>
+      <c r="O38" s="5">
+        <v>2.0941999999999999E-2</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1.2024E-2</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>1.4669E-2</v>
+      </c>
+      <c r="R38" s="6">
+        <v>1.9812E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.82089599999999996</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.90410999999999997</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.86049500000000001</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.79696400000000001</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.789744</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.87005600000000005</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.82795700000000005</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.751938</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1.8762000000000001E-2</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1.5165E-2</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1.2935E-2</v>
+      </c>
+      <c r="N39" s="10">
+        <v>1.7035999999999999E-2</v>
+      </c>
+      <c r="O39" s="9">
+        <v>2.0500999999999998E-2</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1.8508E-2</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R39" s="10">
+        <v>1.8782E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="9">
-        <v>0.82089599999999996</v>
+        <v>0.81472699999999998</v>
       </c>
       <c r="D40" s="9">
-        <v>0.90410999999999997</v>
+        <v>0.93972599999999995</v>
       </c>
       <c r="E40" s="9">
-        <v>0.86049500000000001</v>
+        <v>0.87277400000000005</v>
       </c>
       <c r="F40" s="10">
-        <v>0.79696400000000001</v>
+        <v>0.81024700000000005</v>
       </c>
       <c r="G40" s="9">
-        <v>0.789744</v>
+        <v>0.77272700000000005</v>
       </c>
       <c r="H40" s="9">
-        <v>0.87005600000000005</v>
+        <v>0.91242900000000005</v>
       </c>
       <c r="I40" s="9">
-        <v>0.82795700000000005</v>
+        <v>0.83678799999999998</v>
       </c>
       <c r="J40" s="10">
-        <v>0.751938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+        <v>0.75581399999999999</v>
+      </c>
+      <c r="K40" s="9">
+        <v>1.8440999999999999E-2</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1.2269E-2</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1.2231000000000001E-2</v>
+      </c>
+      <c r="N40" s="10">
+        <v>1.6563000000000001E-2</v>
+      </c>
+      <c r="O40" s="9">
+        <v>2.0566999999999998E-2</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1.5426E-2</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>1.444E-2</v>
+      </c>
+      <c r="R40" s="10">
+        <v>1.8862E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="9">
-        <v>0.81472699999999998</v>
+        <v>0.84732799999999997</v>
       </c>
       <c r="D41" s="9">
-        <v>0.93972599999999995</v>
+        <v>0.91232899999999995</v>
       </c>
       <c r="E41" s="9">
-        <v>0.87277400000000005</v>
+        <v>0.87862799999999996</v>
       </c>
       <c r="F41" s="10">
-        <v>0.81024700000000005</v>
+        <v>0.82542700000000002</v>
       </c>
       <c r="G41" s="9">
-        <v>0.77272700000000005</v>
+        <v>0.82519299999999995</v>
       </c>
       <c r="H41" s="9">
-        <v>0.91242900000000005</v>
+        <v>0.90678000000000003</v>
       </c>
       <c r="I41" s="9">
-        <v>0.83678799999999998</v>
+        <v>0.86406499999999997</v>
       </c>
       <c r="J41" s="10">
-        <v>0.75581399999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+        <v>0.80426399999999998</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1.7676000000000001E-2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1.4754E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1.2088E-2</v>
+      </c>
+      <c r="N41" s="10">
+        <v>1.5987000000000001E-2</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1.9195E-2</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1.5093000000000001E-2</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1.3531E-2</v>
+      </c>
+      <c r="R41" s="10">
+        <v>1.7541999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="9">
-        <v>0.84732799999999997</v>
+        <v>0.84892100000000004</v>
       </c>
       <c r="D42" s="9">
-        <v>0.91232899999999995</v>
+        <v>0.96986300000000003</v>
       </c>
       <c r="E42" s="9">
-        <v>0.87862799999999996</v>
+        <v>0.90537100000000004</v>
       </c>
       <c r="F42" s="10">
-        <v>0.82542700000000002</v>
+        <v>0.85958299999999999</v>
       </c>
       <c r="G42" s="9">
-        <v>0.82519299999999995</v>
+        <v>0.80284999999999995</v>
       </c>
       <c r="H42" s="9">
-        <v>0.90678000000000003</v>
+        <v>0.95480200000000004</v>
       </c>
       <c r="I42" s="9">
-        <v>0.86406499999999997</v>
+        <v>0.87225799999999998</v>
       </c>
       <c r="J42" s="10">
-        <v>0.80426399999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+        <v>0.80813999999999997</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1.7892999999999999E-2</v>
+      </c>
+      <c r="L42" s="9">
+        <v>8.7229999999999999E-3</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1.0961E-2</v>
+      </c>
+      <c r="N42" s="10">
+        <v>1.5285E-2</v>
+      </c>
+      <c r="O42" s="9">
+        <v>1.9130999999999999E-2</v>
+      </c>
+      <c r="P42" s="9">
+        <v>1.1013E-2</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>1.2787E-2</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1.7297E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="9">
-        <v>0.84892100000000004</v>
+        <v>0.88040700000000005</v>
       </c>
       <c r="D43" s="9">
-        <v>0.96986300000000003</v>
+        <v>0.94794500000000004</v>
       </c>
       <c r="E43" s="9">
-        <v>0.90537100000000004</v>
+        <v>0.91292899999999999</v>
       </c>
       <c r="F43" s="10">
-        <v>0.85958299999999999</v>
+        <v>0.87476299999999996</v>
       </c>
       <c r="G43" s="9">
-        <v>0.80284999999999995</v>
+        <v>0.84</v>
       </c>
       <c r="H43" s="9">
-        <v>0.95480200000000004</v>
+        <v>0.88983100000000004</v>
       </c>
       <c r="I43" s="9">
-        <v>0.87225799999999998</v>
+        <v>0.86419800000000002</v>
       </c>
       <c r="J43" s="10">
         <v>0.80813999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="K43" s="9">
+        <v>1.6677999999999998E-2</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1.1419E-2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1.0782E-2</v>
+      </c>
+      <c r="N43" s="10">
+        <v>1.4569E-2</v>
+      </c>
+      <c r="O43" s="9">
+        <v>1.8702E-2</v>
+      </c>
+      <c r="P43" s="9">
+        <v>1.6843E-2</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>1.3646999999999999E-2</v>
+      </c>
+      <c r="R43" s="10">
+        <v>1.7448000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="9">
-        <v>0.88040700000000005</v>
+        <v>0.85406700000000002</v>
       </c>
       <c r="D44" s="9">
-        <v>0.94794500000000004</v>
+        <v>0.97808200000000001</v>
       </c>
       <c r="E44" s="9">
-        <v>0.91292899999999999</v>
+        <v>0.91187700000000005</v>
       </c>
       <c r="F44" s="10">
-        <v>0.87476299999999996</v>
+        <v>0.86907000000000001</v>
       </c>
       <c r="G44" s="9">
-        <v>0.84</v>
+        <v>0.82382100000000003</v>
       </c>
       <c r="H44" s="9">
-        <v>0.88983100000000004</v>
+        <v>0.93785300000000005</v>
       </c>
       <c r="I44" s="9">
-        <v>0.86419800000000002</v>
+        <v>0.87714700000000001</v>
       </c>
       <c r="J44" s="10">
-        <v>0.80813999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+        <v>0.81976700000000002</v>
+      </c>
+      <c r="K44" s="9">
+        <v>1.7148E-2</v>
+      </c>
+      <c r="L44" s="9">
+        <v>7.6239999999999997E-3</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1.04E-2</v>
+      </c>
+      <c r="N44" s="10">
+        <v>1.4586999999999999E-2</v>
+      </c>
+      <c r="O44" s="9">
+        <v>1.8634999999999999E-2</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1.2437E-2</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>1.2481000000000001E-2</v>
+      </c>
+      <c r="R44" s="10">
+        <v>1.6500999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="9">
-        <v>0.85406700000000002</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="D45" s="9">
-        <v>0.97808200000000001</v>
+        <v>1</v>
       </c>
       <c r="E45" s="9">
-        <v>0.91187700000000005</v>
+        <v>0.81838599999999995</v>
       </c>
       <c r="F45" s="10">
-        <v>0.86907000000000001</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="G45" s="9">
-        <v>0.82382100000000003</v>
+        <v>0.68604699999999996</v>
       </c>
       <c r="H45" s="9">
-        <v>0.93785300000000005</v>
+        <v>1</v>
       </c>
       <c r="I45" s="9">
-        <v>0.87714700000000001</v>
+        <v>0.81379299999999999</v>
       </c>
       <c r="J45" s="10">
-        <v>0.81976700000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+        <v>0.68604699999999996</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1.3687E-2</v>
+      </c>
+      <c r="N45" s="10">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="O45" s="9">
+        <v>2.0544E-2</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>1.4482999999999999E-2</v>
+      </c>
+      <c r="R45" s="10">
+        <v>2.0544E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
@@ -8368,1196 +9435,2933 @@
       <c r="J46" s="10">
         <v>0.68604699999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="7" t="s">
+      <c r="K46" s="9">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1.3687E-2</v>
+      </c>
+      <c r="N46" s="10">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="O46" s="9">
+        <v>2.0544E-2</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>1.4482999999999999E-2</v>
+      </c>
+      <c r="R46" s="10">
+        <v>2.0544E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.80405400000000005</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.88257099999999999</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.81973399999999996</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.77397300000000002</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.85606099999999996</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.77907000000000004</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1.8896E-2</v>
+      </c>
+      <c r="L47" s="5">
+        <v>7.7450000000000001E-3</v>
+      </c>
+      <c r="M47" s="5">
+        <v>1.1920999999999999E-2</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1.6754000000000002E-2</v>
+      </c>
+      <c r="O47" s="5">
+        <v>1.9833E-2</v>
+      </c>
+      <c r="P47" s="5">
+        <v>1.1106E-2</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="R47" s="6">
+        <v>1.8155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.81693400000000005</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.89027400000000001</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.83301700000000001</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.77930999999999995</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0.85931599999999997</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.78488400000000003</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1.8579999999999999E-2</v>
+      </c>
+      <c r="L48" s="9">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1.1611E-2</v>
+      </c>
+      <c r="N48" s="10">
+        <v>1.6322E-2</v>
+      </c>
+      <c r="O48" s="9">
+        <v>1.9637999999999999E-2</v>
+      </c>
+      <c r="P48" s="9">
+        <v>1.1047E-2</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>1.3309E-2</v>
+      </c>
+      <c r="R48" s="10">
+        <v>1.7911E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.96712299999999995</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.87376200000000004</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.80645199999999995</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.76798100000000002</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.93502799999999997</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.84331199999999995</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.76162799999999997</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.9352000000000001E-2</v>
+      </c>
+      <c r="L49" s="5">
+        <v>9.0209999999999995E-3</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1.2638999999999999E-2</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1.7696E-2</v>
+      </c>
+      <c r="O49" s="4">
+        <v>2.0042000000000001E-2</v>
+      </c>
+      <c r="P49" s="5">
+        <v>1.307E-2</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>1.3849999999999999E-2</v>
+      </c>
+      <c r="R49" s="6">
+        <v>1.8405000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.81975299999999995</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.90958899999999998</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.86233800000000005</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.79886100000000004</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.78227800000000003</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.87288100000000002</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.74612400000000001</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1.8719E-2</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1.4583E-2</v>
+      </c>
+      <c r="M50" s="9">
+        <v>1.2845000000000001E-2</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.7003999999999998E-2</v>
+      </c>
+      <c r="O50" s="8">
+        <v>2.0864000000000001E-2</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1.8238000000000001E-2</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>1.506E-2</v>
+      </c>
+      <c r="R50" s="10">
+        <v>1.8973E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.80481899999999995</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.91506799999999999</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.85641</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.78747599999999995</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.78717899999999996</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.867232</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.82526900000000003</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0.748062</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1.9047000000000001E-2</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1.4428E-2</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1.2961E-2</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1.7257000000000002E-2</v>
+      </c>
+      <c r="O51" s="8">
+        <v>2.0539999999999999E-2</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1.8696000000000001E-2</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>1.5096E-2</v>
+      </c>
+      <c r="R51" s="10">
+        <v>1.8862E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.82640599999999997</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.92602700000000004</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.87338499999999997</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.81404200000000004</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.79545500000000002</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.88983100000000004</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0.76744199999999996</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1.8457000000000001E-2</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1.3977E-2</v>
+      </c>
+      <c r="M52" s="9">
+        <v>1.2739E-2</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1.7058E-2</v>
+      </c>
+      <c r="O52" s="8">
+        <v>2.0038E-2</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1.5984000000000002E-2</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>1.4017E-2</v>
+      </c>
+      <c r="R52" s="10">
+        <v>1.8141999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0.817967</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.94794500000000004</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.87817299999999998</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.81783700000000004</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.77512000000000003</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.83937799999999996</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0.75968999999999998</v>
+      </c>
+      <c r="K53" s="12">
+        <v>1.8751E-2</v>
+      </c>
+      <c r="L53" s="13">
+        <v>1.1336000000000001E-2</v>
+      </c>
+      <c r="M53" s="13">
+        <v>1.2371E-2</v>
+      </c>
+      <c r="N53" s="13">
+        <v>1.6903000000000001E-2</v>
+      </c>
+      <c r="O53" s="12">
+        <v>2.0240999999999999E-2</v>
+      </c>
+      <c r="P53" s="13">
+        <v>1.5179E-2</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>1.4246999999999999E-2</v>
+      </c>
+      <c r="R53" s="14">
+        <v>1.8547000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.80855900000000003</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.98356200000000005</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.88751500000000005</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0.82732399999999995</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.770455</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.853904</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0.77519400000000005</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1.8742000000000002E-2</v>
+      </c>
+      <c r="L54" s="9">
+        <v>6.411E-3</v>
+      </c>
+      <c r="M54" s="9">
+        <v>1.1783E-2</v>
+      </c>
+      <c r="N54" s="9">
+        <v>1.6617E-2</v>
+      </c>
+      <c r="O54" s="8">
+        <v>1.9828999999999999E-2</v>
+      </c>
+      <c r="P54" s="9">
+        <v>1.0697E-2</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>1.3422999999999999E-2</v>
+      </c>
+      <c r="R54" s="10">
+        <v>1.8096999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.84412500000000001</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.96438400000000002</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.90025599999999995</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.85199199999999997</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.81067999999999996</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.94350299999999998</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.87206300000000003</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.81007799999999996</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1.7943000000000001E-2</v>
+      </c>
+      <c r="L55" s="9">
+        <v>9.5060000000000006E-3</v>
+      </c>
+      <c r="M55" s="9">
+        <v>1.1183E-2</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1.5491E-2</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1.883E-2</v>
+      </c>
+      <c r="P55" s="9">
+        <v>1.2348E-2</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>1.2671999999999999E-2</v>
+      </c>
+      <c r="R55" s="10">
+        <v>1.6840999999999998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.81506800000000001</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.88916600000000001</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0.83111999999999997</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.77701100000000001</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.95480200000000004</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.85678100000000001</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0.78100800000000004</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1.8676000000000002E-2</v>
+      </c>
+      <c r="L56" s="9">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="M56" s="9">
+        <v>1.1688E-2</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1.6442999999999999E-2</v>
+      </c>
+      <c r="O56" s="8">
+        <v>1.9709999999999998E-2</v>
+      </c>
+      <c r="P56" s="9">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>1.3445E-2</v>
+      </c>
+      <c r="R56" s="10">
+        <v>1.8061000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.81093400000000004</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.97534200000000004</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.88557200000000003</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.82542700000000002</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.76887899999999998</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.94915300000000002</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.84955800000000004</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0.76937999999999995</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1.8513000000000002E-2</v>
+      </c>
+      <c r="L57" s="9">
+        <v>7.9729999999999992E-3</v>
+      </c>
+      <c r="M57" s="9">
+        <v>1.1714E-2</v>
+      </c>
+      <c r="N57" s="9">
+        <v>1.6428000000000002E-2</v>
+      </c>
+      <c r="O57" s="8">
+        <v>1.9848999999999999E-2</v>
+      </c>
+      <c r="P57" s="9">
+        <v>1.1915E-2</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>1.3611E-2</v>
+      </c>
+      <c r="R57" s="10">
+        <v>1.8245000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0.81609200000000004</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0.972603</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0.82922200000000001</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.78554800000000002</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0.95197699999999996</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0.860792</v>
+      </c>
+      <c r="J58" s="14">
+        <v>0.78876000000000002</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1.8603999999999999E-2</v>
+      </c>
+      <c r="L58" s="13">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="M58" s="13">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="N58" s="13">
+        <v>1.6407000000000001E-2</v>
+      </c>
+      <c r="O58" s="12">
+        <v>1.9536000000000001E-2</v>
+      </c>
+      <c r="P58" s="13">
+        <v>1.1631000000000001E-2</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>1.3228E-2</v>
+      </c>
+      <c r="R58" s="14">
+        <v>1.7784000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.149733</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.474576</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.22764200000000001</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.68333299999999997</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2.6384999999999999E-2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>6.4813999999999997E-2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3.5793999999999999E-2</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1.8849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.18141599999999999</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.69491499999999995</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0.287719</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.66166700000000001</v>
+      </c>
+      <c r="G67" s="8">
+        <v>2.5794999999999998E-2</v>
+      </c>
+      <c r="H67" s="9">
+        <v>5.9645999999999998E-2</v>
+      </c>
+      <c r="I67" s="9">
+        <v>3.5207000000000002E-2</v>
+      </c>
+      <c r="J67" s="10">
+        <v>1.9252999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0.17721500000000001</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.474576</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.25806499999999999</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.73166699999999996</v>
+      </c>
+      <c r="G68" s="8">
+        <v>3.0789E-2</v>
+      </c>
+      <c r="H68" s="9">
+        <v>6.5938999999999998E-2</v>
+      </c>
+      <c r="I68" s="9">
+        <v>3.9614999999999997E-2</v>
+      </c>
+      <c r="J68" s="10">
+        <v>1.7937000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0.14788699999999999</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.71186400000000005</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.244898</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0.56833299999999998</v>
+      </c>
+      <c r="G69" s="8">
+        <v>2.1014999999999999E-2</v>
+      </c>
+      <c r="H69" s="9">
+        <v>5.9854999999999998E-2</v>
+      </c>
+      <c r="I69" s="9">
+        <v>3.0685E-2</v>
+      </c>
+      <c r="J69" s="10">
+        <v>2.0094000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0.123762</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0.21598300000000001</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1.6376000000000002E-2</v>
+      </c>
+      <c r="H70" s="9">
+        <v>4.7974999999999997E-2</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2.5561E-2</v>
+      </c>
+      <c r="J70" s="10">
+        <v>1.9841999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.13316600000000001</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.23194699999999999</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1.6969000000000001E-2</v>
+      </c>
+      <c r="H71" s="9">
+        <v>3.9542000000000001E-2</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2.6162000000000001E-2</v>
+      </c>
+      <c r="J71" s="10">
+        <v>1.9931999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C72" s="9">
+        <v>0.17171700000000001</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.28651700000000002</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.57666700000000004</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2.1953E-2</v>
+      </c>
+      <c r="H72" s="9">
+        <v>4.4741999999999997E-2</v>
+      </c>
+      <c r="I72" s="9">
+        <v>3.1444E-2</v>
+      </c>
+      <c r="J72" s="10">
+        <v>2.0406000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0.14488599999999999</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.24817500000000001</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1.8693999999999999E-2</v>
+      </c>
+      <c r="H73" s="9">
+        <v>4.5337000000000002E-2</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2.8117E-2</v>
+      </c>
+      <c r="J73" s="10">
+        <v>2.0334999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0.150725</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0.25742599999999999</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1.9276999999999999E-2</v>
+      </c>
+      <c r="H74" s="9">
+        <v>4.2209999999999998E-2</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2.8739000000000001E-2</v>
+      </c>
+      <c r="J74" s="10">
+        <v>2.0643999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.17832200000000001</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.29565200000000003</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="H75" s="5">
+        <v>4.5225000000000001E-2</v>
+      </c>
+      <c r="I75" s="5">
+        <v>3.2168000000000002E-2</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2.0160999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0.18021200000000001</v>
+      </c>
+      <c r="D76" s="13">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0.29824600000000001</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G76" s="12">
+        <v>2.2842999999999999E-2</v>
+      </c>
+      <c r="H76" s="13">
+        <v>4.5510000000000002E-2</v>
+      </c>
+      <c r="I76" s="13">
+        <v>3.2245000000000003E-2</v>
+      </c>
+      <c r="J76" s="14">
+        <v>2.0034E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.13636400000000001</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.235566</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.44833299999999998</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1.772E-2</v>
+      </c>
+      <c r="H77" s="9">
+        <v>4.4728999999999998E-2</v>
+      </c>
+      <c r="I77" s="9">
+        <v>2.7033000000000001E-2</v>
+      </c>
+      <c r="J77" s="10">
+        <v>2.0455999999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="9">
+        <v>0.15457399999999999</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.83050800000000002</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0.26063799999999998</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0.53666700000000001</v>
+      </c>
+      <c r="G78" s="8">
+        <v>2.0319E-2</v>
+      </c>
+      <c r="H78" s="9">
+        <v>4.8729000000000001E-2</v>
+      </c>
+      <c r="I78" s="9">
+        <v>2.9863000000000001E-2</v>
+      </c>
+      <c r="J78" s="10">
+        <v>2.0728E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="9">
+        <v>0.15625</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.50847500000000001</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0.23904400000000001</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0.68166700000000002</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2.6415999999999999E-2</v>
+      </c>
+      <c r="H79" s="9">
+        <v>6.4271999999999996E-2</v>
+      </c>
+      <c r="I79" s="9">
+        <v>3.5777999999999997E-2</v>
+      </c>
+      <c r="J79" s="10">
+        <v>1.8921E-2</v>
+      </c>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="9">
+        <v>0.18781700000000001</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0.28906199999999999</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0.69666700000000004</v>
+      </c>
+      <c r="G80" s="8">
+        <v>2.8059000000000001E-2</v>
+      </c>
+      <c r="H80" s="9">
+        <v>6.3483999999999999E-2</v>
+      </c>
+      <c r="I80" s="9">
+        <v>3.7304999999999998E-2</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1.8681E-2</v>
+      </c>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0.16423399999999999</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0.76271199999999995</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0.27027000000000001</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G81" s="8">
+        <v>2.2565999999999999E-2</v>
+      </c>
+      <c r="H81" s="9">
+        <v>5.5472E-2</v>
+      </c>
+      <c r="I81" s="9">
+        <v>3.2246999999999998E-2</v>
+      </c>
+      <c r="J81" s="10">
+        <v>2.0168999999999999E-2</v>
+      </c>
+      <c r="P81" s="22"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.15384600000000001</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.26341500000000001</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.49666700000000003</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1.9310999999999998E-2</v>
+      </c>
+      <c r="H82" s="5">
+        <v>3.6628000000000001E-2</v>
+      </c>
+      <c r="I82" s="5">
+        <v>2.8735E-2</v>
+      </c>
+      <c r="J82" s="6">
+        <v>2.0618999999999998E-2</v>
+      </c>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="9">
+        <v>0.149701</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0.25445299999999998</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0.51166699999999998</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1.9564000000000002E-2</v>
+      </c>
+      <c r="H83" s="9">
+        <v>4.7343999999999997E-2</v>
+      </c>
+      <c r="I83" s="9">
+        <v>2.9083999999999999E-2</v>
+      </c>
+      <c r="J83" s="10">
+        <v>2.0688000000000002E-2</v>
+      </c>
+      <c r="P83" s="22"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="9">
+        <v>0.18518499999999999</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0.30395100000000003</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0.61833300000000002</v>
+      </c>
+      <c r="G84" s="8">
+        <v>2.3713000000000001E-2</v>
+      </c>
+      <c r="H84" s="9">
+        <v>4.7701E-2</v>
+      </c>
+      <c r="I84" s="9">
+        <v>3.3107999999999999E-2</v>
+      </c>
+      <c r="J84" s="10">
+        <v>1.9883999999999999E-2</v>
+      </c>
+      <c r="P84" s="22"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="9">
+        <v>0.207792</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.81355900000000003</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0.33103399999999999</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0.67666700000000002</v>
+      </c>
+      <c r="G85" s="8">
+        <v>2.6905999999999999E-2</v>
+      </c>
+      <c r="H85" s="9">
+        <v>5.1390999999999999E-2</v>
+      </c>
+      <c r="I85" s="9">
+        <v>3.5951999999999998E-2</v>
+      </c>
+      <c r="J85" s="10">
+        <v>1.9095999999999998E-2</v>
+      </c>
+      <c r="P85" s="22"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.18439700000000001</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E86" s="13">
+        <v>0.30498500000000001</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G86" s="12">
+        <v>2.3144000000000001E-2</v>
+      </c>
+      <c r="H86" s="13">
+        <v>4.2494999999999998E-2</v>
+      </c>
+      <c r="I86" s="13">
+        <v>3.2527E-2</v>
+      </c>
+      <c r="J86" s="14">
+        <v>2.0008000000000001E-2</v>
+      </c>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K87" s="22"/>
+      <c r="P87" s="22"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K88" s="22"/>
+      <c r="P88" s="22"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K89" s="22"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K90" s="22"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K91" s="22"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="36"/>
+      <c r="K93" s="22"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="36"/>
+      <c r="K94" s="22"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C96" s="36"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W103" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C104" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.76521700000000004</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.96438400000000002</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0.85333300000000001</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0.77039800000000003</v>
+      </c>
+      <c r="H104" s="15">
+        <v>1.9526999999999999E-2</v>
+      </c>
+      <c r="I104" s="15">
+        <v>9.698E-3</v>
+      </c>
+      <c r="J104" s="15">
+        <v>1.2895E-2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1.8034999999999999E-2</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0.73085299999999997</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0.94350299999999998</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0.82367400000000002</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0.72286799999999996</v>
+      </c>
+      <c r="T104" s="1">
+        <v>2.0941999999999999E-2</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1.2024E-2</v>
+      </c>
+      <c r="V104" s="1">
+        <v>1.4669E-2</v>
+      </c>
+      <c r="W104" s="1">
+        <v>1.9812E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C105" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.82089599999999996</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0.90410999999999997</v>
+      </c>
+      <c r="F105" s="15">
+        <v>0.86049500000000001</v>
+      </c>
+      <c r="G105" s="15">
+        <v>0.79696400000000001</v>
+      </c>
+      <c r="H105" s="15">
+        <v>1.8762000000000001E-2</v>
+      </c>
+      <c r="I105" s="15">
+        <v>1.5165E-2</v>
+      </c>
+      <c r="J105" s="15">
+        <v>1.2935E-2</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1.7035999999999999E-2</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0.789744</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0.87005600000000005</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0.82795700000000005</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0.751938</v>
+      </c>
+      <c r="T105" s="1">
+        <v>2.0500999999999998E-2</v>
+      </c>
+      <c r="U105" s="1">
+        <v>1.8508E-2</v>
+      </c>
+      <c r="V105" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W105" s="1">
+        <v>1.8782E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C106" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.81472699999999998</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0.93972599999999995</v>
+      </c>
+      <c r="F106" s="15">
+        <v>0.87277400000000005</v>
+      </c>
+      <c r="G106" s="15">
+        <v>0.81024700000000005</v>
+      </c>
+      <c r="H106" s="15">
+        <v>1.8440999999999999E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <v>1.2269E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <v>1.2231000000000001E-2</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1.6563000000000001E-2</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0.77272700000000005</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0.91242900000000005</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0.83678799999999998</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0.75581399999999999</v>
+      </c>
+      <c r="T106" s="1">
+        <v>2.0566999999999998E-2</v>
+      </c>
+      <c r="U106" s="1">
+        <v>1.5426E-2</v>
+      </c>
+      <c r="V106" s="1">
+        <v>1.444E-2</v>
+      </c>
+      <c r="W106" s="1">
+        <v>1.8862E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C107" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.84732799999999997</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.91232899999999995</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0.87862799999999996</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0.82542700000000002</v>
+      </c>
+      <c r="H107" s="15">
+        <v>1.7676000000000001E-2</v>
+      </c>
+      <c r="I107" s="15">
+        <v>1.4754E-2</v>
+      </c>
+      <c r="J107" s="15">
+        <v>1.2088E-2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1.5987000000000001E-2</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0.82519299999999995</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0.86406499999999997</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0.80426399999999998</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1.9195E-2</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1.5093000000000001E-2</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1.3531E-2</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1.7541999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.84892100000000004</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0.96986300000000003</v>
+      </c>
+      <c r="F108" s="15">
+        <v>0.90537100000000004</v>
+      </c>
+      <c r="G108" s="15">
+        <v>0.85958299999999999</v>
+      </c>
+      <c r="H108" s="15">
+        <v>1.7892999999999999E-2</v>
+      </c>
+      <c r="I108" s="15">
+        <v>8.7229999999999999E-3</v>
+      </c>
+      <c r="J108" s="15">
+        <v>1.0961E-2</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1.5285E-2</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0.80284999999999995</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0.95480200000000004</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0.87225799999999998</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0.80813999999999997</v>
+      </c>
+      <c r="T108" s="1">
+        <v>1.9130999999999999E-2</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1.1013E-2</v>
+      </c>
+      <c r="V108" s="1">
+        <v>1.2787E-2</v>
+      </c>
+      <c r="W108" s="1">
+        <v>1.7297E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C109" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.88040700000000005</v>
+      </c>
+      <c r="E109" s="15">
+        <v>0.94794500000000004</v>
+      </c>
+      <c r="F109" s="15">
+        <v>0.91292899999999999</v>
+      </c>
+      <c r="G109" s="15">
+        <v>0.87476299999999996</v>
+      </c>
+      <c r="H109" s="15">
+        <v>1.6677999999999998E-2</v>
+      </c>
+      <c r="I109" s="15">
+        <v>1.1419E-2</v>
+      </c>
+      <c r="J109" s="15">
+        <v>1.0782E-2</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1.4569E-2</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0.88983100000000004</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0.86419800000000002</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0.80813999999999997</v>
+      </c>
+      <c r="T109" s="1">
+        <v>1.8702E-2</v>
+      </c>
+      <c r="U109" s="1">
+        <v>1.6843E-2</v>
+      </c>
+      <c r="V109" s="1">
+        <v>1.3646999999999999E-2</v>
+      </c>
+      <c r="W109" s="1">
+        <v>1.7448000000000002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C110" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.85406700000000002</v>
+      </c>
+      <c r="E110" s="15">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="F110" s="15">
+        <v>0.91187700000000005</v>
+      </c>
+      <c r="G110" s="15">
+        <v>0.86907000000000001</v>
+      </c>
+      <c r="H110" s="15">
+        <v>1.7148E-2</v>
+      </c>
+      <c r="I110" s="15">
+        <v>7.6239999999999997E-3</v>
+      </c>
+      <c r="J110" s="15">
+        <v>1.04E-2</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1.4586999999999999E-2</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0.82382100000000003</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0.87714700000000001</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0.81976700000000002</v>
+      </c>
+      <c r="T110" s="1">
+        <v>1.8634999999999999E-2</v>
+      </c>
+      <c r="U110" s="1">
+        <v>1.2437E-2</v>
+      </c>
+      <c r="V110" s="1">
+        <v>1.2481000000000001E-2</v>
+      </c>
+      <c r="W110" s="1">
+        <v>1.6500999999999998E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C111" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="D47" s="9">
+      <c r="E111" s="15">
         <v>1</v>
       </c>
-      <c r="E47" s="9">
+      <c r="F111" s="15">
         <v>0.81838599999999995</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G111" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="G47" s="9">
+      <c r="H111" s="15">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="I111" s="15">
+        <v>0</v>
+      </c>
+      <c r="J111" s="15">
+        <v>1.3687E-2</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" s="1">
         <v>0.68604699999999996</v>
       </c>
-      <c r="H47" s="9">
+      <c r="Q111" s="1">
         <v>1</v>
       </c>
-      <c r="I47" s="9">
+      <c r="R111" s="1">
         <v>0.81379299999999999</v>
       </c>
-      <c r="J47" s="10">
+      <c r="S111" s="1">
         <v>0.68604699999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="T111" s="1">
+        <v>2.0544E-2</v>
+      </c>
+      <c r="U111" s="1">
+        <v>0</v>
+      </c>
+      <c r="V111" s="1">
+        <v>1.4482999999999999E-2</v>
+      </c>
+      <c r="W111" s="1">
+        <v>2.0544E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C112" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="E112" s="15">
+        <v>1</v>
+      </c>
+      <c r="F112" s="15">
+        <v>0.81838599999999995</v>
+      </c>
+      <c r="G112" s="15">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="H112" s="15">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="I112" s="15">
+        <v>0</v>
+      </c>
+      <c r="J112" s="15">
+        <v>1.3687E-2</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1.9567000000000001E-2</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0.68604699999999996</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>1</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0.81379299999999999</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0.68604699999999996</v>
+      </c>
+      <c r="T112" s="1">
+        <v>2.0544E-2</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1.4482999999999999E-2</v>
+      </c>
+      <c r="W112" s="1">
+        <v>2.0544E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C113" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="15">
         <v>0.80405400000000005</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E113" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F113" s="15">
         <v>0.88257099999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G113" s="15">
         <v>0.81973399999999996</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H113" s="15">
+        <v>1.8896E-2</v>
+      </c>
+      <c r="I113" s="15">
+        <v>7.7450000000000001E-3</v>
+      </c>
+      <c r="J113" s="15">
+        <v>1.1920999999999999E-2</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1.6754000000000002E-2</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" s="1">
         <v>0.77397300000000002</v>
       </c>
-      <c r="H48" s="5">
+      <c r="Q113" s="1">
         <v>0.95762700000000001</v>
       </c>
-      <c r="I48" s="5">
+      <c r="R113" s="1">
         <v>0.85606099999999996</v>
       </c>
-      <c r="J48" s="6">
+      <c r="S113" s="1">
         <v>0.77907000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="9">
+      <c r="T113" s="1">
+        <v>1.9833E-2</v>
+      </c>
+      <c r="U113" s="1">
+        <v>1.1106E-2</v>
+      </c>
+      <c r="V113" s="1">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="W113" s="1">
+        <v>1.8155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C114" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="15">
         <v>0.81693400000000005</v>
       </c>
-      <c r="D50" s="9">
+      <c r="E114" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="F114" s="15">
         <v>0.89027400000000001</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G114" s="15">
         <v>0.83301700000000001</v>
       </c>
-      <c r="G50" s="9">
+      <c r="H114" s="15">
+        <v>1.8579999999999999E-2</v>
+      </c>
+      <c r="I114" s="15">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="J114" s="15">
+        <v>1.1611E-2</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1.6322E-2</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P114" s="1">
         <v>0.77930999999999995</v>
       </c>
-      <c r="H50" s="9">
+      <c r="Q114" s="1">
         <v>0.95762700000000001</v>
       </c>
-      <c r="I50" s="9">
+      <c r="R114" s="1">
         <v>0.85931599999999997</v>
       </c>
-      <c r="J50" s="10">
+      <c r="S114" s="1">
         <v>0.78488400000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.79683999999999999</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0.96712299999999995</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0.87376200000000004</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="T114" s="1">
+        <v>1.9637999999999999E-2</v>
+      </c>
+      <c r="U114" s="1">
+        <v>1.1047E-2</v>
+      </c>
+      <c r="V114" s="1">
+        <v>1.3309E-2</v>
+      </c>
+      <c r="W114" s="1">
+        <v>1.7911E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C115" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0.81050199999999994</v>
+      </c>
+      <c r="E115" s="15">
+        <v>0.972603</v>
+      </c>
+      <c r="F115" s="15">
+        <v>0.88418399999999997</v>
+      </c>
+      <c r="G115" s="15">
+        <v>0.82352899999999996</v>
+      </c>
+      <c r="H115" s="15">
+        <v>1.8780999999999999E-2</v>
+      </c>
+      <c r="I115" s="15">
+        <v>8.2970000000000006E-3</v>
+      </c>
+      <c r="J115" s="15">
+        <v>1.1864E-2</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1.6632000000000001E-2</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.78688499999999995</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0.94915300000000002</v>
+      </c>
+      <c r="R115" s="1">
+        <v>0.86043499999999995</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0.78876000000000002</v>
+      </c>
+      <c r="T115" s="1">
+        <v>2.0232E-2</v>
+      </c>
+      <c r="U115" s="1">
+        <v>1.1311E-2</v>
+      </c>
+      <c r="V115" s="1">
+        <v>1.3434E-2</v>
+      </c>
+      <c r="W115" s="1">
+        <v>1.8173000000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C116" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.81975299999999995</v>
+      </c>
+      <c r="E116" s="15">
+        <v>0.90958899999999998</v>
+      </c>
+      <c r="F116" s="15">
+        <v>0.86233800000000005</v>
+      </c>
+      <c r="G116" s="15">
+        <v>0.79886100000000004</v>
+      </c>
+      <c r="H116" s="15">
+        <v>1.8719E-2</v>
+      </c>
+      <c r="I116" s="15">
+        <v>1.4583E-2</v>
+      </c>
+      <c r="J116" s="15">
+        <v>1.2845000000000001E-2</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1.7003999999999998E-2</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0.78227800000000003</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>0.87288100000000002</v>
+      </c>
+      <c r="R116" s="1">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0.74612400000000001</v>
+      </c>
+      <c r="T116" s="1">
+        <v>2.0864000000000001E-2</v>
+      </c>
+      <c r="U116" s="1">
+        <v>1.8238000000000001E-2</v>
+      </c>
+      <c r="V116" s="1">
+        <v>1.506E-2</v>
+      </c>
+      <c r="W116" s="1">
+        <v>1.8973E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C117" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.80481899999999995</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.91506799999999999</v>
+      </c>
+      <c r="F117" s="15">
+        <v>0.85641</v>
+      </c>
+      <c r="G117" s="15">
+        <v>0.78747599999999995</v>
+      </c>
+      <c r="H117" s="15">
+        <v>1.9047000000000001E-2</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1.4428E-2</v>
+      </c>
+      <c r="J117" s="15">
+        <v>1.2961E-2</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1.7257000000000002E-2</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0.78717899999999996</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0.867232</v>
+      </c>
+      <c r="R117" s="1">
+        <v>0.82526900000000003</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0.748062</v>
+      </c>
+      <c r="T117" s="1">
+        <v>2.0539999999999999E-2</v>
+      </c>
+      <c r="U117" s="1">
+        <v>1.8696000000000001E-2</v>
+      </c>
+      <c r="V117" s="1">
+        <v>1.5096E-2</v>
+      </c>
+      <c r="W117" s="1">
+        <v>1.8862E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C118" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0.82640599999999997</v>
+      </c>
+      <c r="E118" s="15">
+        <v>0.92602700000000004</v>
+      </c>
+      <c r="F118" s="15">
+        <v>0.87338499999999997</v>
+      </c>
+      <c r="G118" s="15">
+        <v>0.81404200000000004</v>
+      </c>
+      <c r="H118" s="15">
+        <v>1.8457000000000001E-2</v>
+      </c>
+      <c r="I118" s="15">
+        <v>1.3977E-2</v>
+      </c>
+      <c r="J118" s="15">
+        <v>1.2739E-2</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1.7058E-2</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0.79545500000000002</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0.88983100000000004</v>
+      </c>
+      <c r="R118" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0.76744199999999996</v>
+      </c>
+      <c r="T118" s="1">
+        <v>2.0038E-2</v>
+      </c>
+      <c r="U118" s="1">
+        <v>1.5984000000000002E-2</v>
+      </c>
+      <c r="V118" s="1">
+        <v>1.4017E-2</v>
+      </c>
+      <c r="W118" s="1">
+        <v>1.8141999999999998E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C119" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0.81384199999999995</v>
+      </c>
+      <c r="E119" s="15">
+        <v>0.93424700000000005</v>
+      </c>
+      <c r="F119" s="15">
+        <v>0.86989799999999995</v>
+      </c>
+      <c r="G119" s="15">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G51" s="4">
-        <v>0.76798100000000002</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0.93502799999999997</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0.84331199999999995</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0.76162799999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.81975299999999995</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0.90958899999999998</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.86233800000000005</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0.79886100000000004</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0.78227800000000003</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.87288100000000002</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.82509999999999994</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0.74612400000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0.80481899999999995</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0.91506799999999999</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0.85641</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0.78747599999999995</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0.78717899999999996</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.867232</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0.82526900000000003</v>
-      </c>
-      <c r="J53" s="10">
-        <v>0.748062</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0.82640599999999997</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0.92602700000000004</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0.87338499999999997</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0.81404200000000004</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0.79545500000000002</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.88983100000000004</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="J54" s="10">
+      <c r="H119" s="15">
+        <v>1.8950000000000002E-2</v>
+      </c>
+      <c r="I119" s="15">
+        <v>1.2536E-2</v>
+      </c>
+      <c r="J119" s="15">
+        <v>1.2623000000000001E-2</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1.7023E-2</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0.78817700000000002</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>0.90395499999999995</v>
+      </c>
+      <c r="R119" s="1">
+        <v>0.84210499999999999</v>
+      </c>
+      <c r="S119" s="1">
         <v>0.76744199999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0.80504600000000004</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0.96164400000000005</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0.87640399999999996</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0.81214399999999998</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0.77990400000000004</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.92090399999999994</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.84455999999999998</v>
-      </c>
-      <c r="J55" s="10">
-        <v>0.76744199999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0.817967</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0.94794500000000004</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0.87817299999999998</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0.81783700000000004</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0.77512000000000003</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.91525400000000001</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0.83937799999999996</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0.75968999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.80855900000000003</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0.98356200000000005</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0.88751500000000005</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0.82732399999999995</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0.770455</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.95762700000000001</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0.853904</v>
-      </c>
-      <c r="J57" s="10">
-        <v>0.77519400000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="T119" s="1">
+        <v>2.0122000000000001E-2</v>
+      </c>
+      <c r="U119" s="1">
+        <v>1.5790999999999999E-2</v>
+      </c>
+      <c r="V119" s="1">
+        <v>1.4341E-2</v>
+      </c>
+      <c r="W119" s="1">
+        <v>1.8558000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C120" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="15">
+        <v>0.81922200000000001</v>
+      </c>
+      <c r="E120" s="15">
+        <v>0.98082199999999997</v>
+      </c>
+      <c r="F120" s="15">
+        <v>0.89276800000000001</v>
+      </c>
+      <c r="G120" s="15">
+        <v>0.836812</v>
+      </c>
+      <c r="H120" s="15">
+        <v>1.8763999999999999E-2</v>
+      </c>
+      <c r="I120" s="15">
+        <v>7.0829999999999999E-3</v>
+      </c>
+      <c r="J120" s="15">
+        <v>1.1693E-2</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1.6494000000000002E-2</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P120" s="1">
+        <v>0.79196200000000005</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>0.94632799999999995</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0.86229100000000003</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0.79263600000000001</v>
+      </c>
+      <c r="T120" s="1">
+        <v>1.9883000000000001E-2</v>
+      </c>
+      <c r="U120" s="1">
+        <v>1.2087000000000001E-2</v>
+      </c>
+      <c r="V120" s="1">
+        <v>1.3417E-2</v>
+      </c>
+      <c r="W120" s="1">
+        <v>1.7977E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C121" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="15">
         <v>0.84412500000000001</v>
       </c>
-      <c r="D58" s="9">
+      <c r="E121" s="15">
         <v>0.96438400000000002</v>
       </c>
-      <c r="E58" s="9">
+      <c r="F121" s="15">
         <v>0.90025599999999995</v>
       </c>
-      <c r="F58" s="9">
+      <c r="G121" s="15">
         <v>0.85199199999999997</v>
       </c>
-      <c r="G58" s="8">
+      <c r="H121" s="15">
+        <v>1.7943000000000001E-2</v>
+      </c>
+      <c r="I121" s="15">
+        <v>9.5060000000000006E-3</v>
+      </c>
+      <c r="J121" s="15">
+        <v>1.1183E-2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1.5491E-2</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P121" s="1">
         <v>0.81067999999999996</v>
       </c>
-      <c r="H58" s="9">
+      <c r="Q121" s="1">
         <v>0.94350299999999998</v>
       </c>
-      <c r="I58" s="9">
+      <c r="R121" s="1">
         <v>0.87206300000000003</v>
       </c>
-      <c r="J58" s="10">
+      <c r="S121" s="1">
         <v>0.81007799999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="T121" s="1">
+        <v>1.883E-2</v>
+      </c>
+      <c r="U121" s="1">
+        <v>1.2348E-2</v>
+      </c>
+      <c r="V121" s="1">
+        <v>1.2671999999999999E-2</v>
+      </c>
+      <c r="W121" s="1">
+        <v>1.6840999999999998E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C122" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="15">
         <v>0.81506800000000001</v>
       </c>
-      <c r="D59" s="9">
+      <c r="E122" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="E59" s="9">
+      <c r="F122" s="15">
         <v>0.88916600000000001</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G122" s="15">
         <v>0.83111999999999997</v>
       </c>
-      <c r="G59" s="8">
+      <c r="H122" s="15">
+        <v>1.8676000000000002E-2</v>
+      </c>
+      <c r="I122" s="15">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="J122" s="15">
+        <v>1.1688E-2</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1.6442999999999999E-2</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P122" s="1">
         <v>0.77701100000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="Q122" s="1">
         <v>0.95480200000000004</v>
       </c>
-      <c r="I59" s="9">
+      <c r="R122" s="1">
         <v>0.85678100000000001</v>
       </c>
-      <c r="J59" s="10">
+      <c r="S122" s="1">
         <v>0.78100800000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="T122" s="1">
+        <v>1.9709999999999998E-2</v>
+      </c>
+      <c r="U122" s="1">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="V122" s="1">
+        <v>1.3445E-2</v>
+      </c>
+      <c r="W122" s="1">
+        <v>1.8061000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C123" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="15">
         <v>0.81093400000000004</v>
       </c>
-      <c r="D60" s="9">
+      <c r="E123" s="15">
         <v>0.97534200000000004</v>
       </c>
-      <c r="E60" s="9">
+      <c r="F123" s="15">
         <v>0.88557200000000003</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G123" s="15">
         <v>0.82542700000000002</v>
       </c>
-      <c r="G60" s="8">
+      <c r="H123" s="15">
+        <v>1.8513000000000002E-2</v>
+      </c>
+      <c r="I123" s="15">
+        <v>7.9729999999999992E-3</v>
+      </c>
+      <c r="J123" s="15">
+        <v>1.1714E-2</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1.6428000000000002E-2</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P123" s="1">
         <v>0.76887899999999998</v>
       </c>
-      <c r="H60" s="9">
+      <c r="Q123" s="1">
         <v>0.94915300000000002</v>
       </c>
-      <c r="I60" s="9">
+      <c r="R123" s="1">
         <v>0.84955800000000004</v>
       </c>
-      <c r="J60" s="10">
+      <c r="S123" s="1">
         <v>0.76937999999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.80952400000000002</v>
-      </c>
-      <c r="D61" s="9">
-        <v>0.97808200000000001</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0.88585599999999998</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0.82542700000000002</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0.76993199999999995</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0.95480200000000004</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.85245899999999997</v>
-      </c>
-      <c r="J61" s="10">
-        <v>0.77325600000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="12">
-        <v>0.81609200000000004</v>
-      </c>
-      <c r="D62" s="13">
+      <c r="T123" s="1">
+        <v>1.9848999999999999E-2</v>
+      </c>
+      <c r="U123" s="1">
+        <v>1.1915E-2</v>
+      </c>
+      <c r="V123" s="1">
+        <v>1.3611E-2</v>
+      </c>
+      <c r="W123" s="1">
+        <v>1.8245000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C124" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="15">
+        <v>0.81797200000000003</v>
+      </c>
+      <c r="E124" s="15">
         <v>0.972603</v>
       </c>
-      <c r="E62" s="13">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0.82922200000000001</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0.78554800000000002</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0.95197699999999996</v>
-      </c>
-      <c r="I62" s="13">
-        <v>0.860792</v>
-      </c>
-      <c r="J62" s="14">
-        <v>0.78876000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0.149733</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0.474576</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.22764200000000001</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0.68333299999999997</v>
-      </c>
-      <c r="G70" s="30">
-        <v>2.6384999999999999E-2</v>
-      </c>
-      <c r="H70" s="30">
-        <v>6.4813999999999997E-2</v>
-      </c>
-      <c r="I70" s="30">
-        <v>3.5793999999999999E-2</v>
-      </c>
-      <c r="J70" s="30">
-        <v>1.8849999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="9">
-        <v>0.18141599999999999</v>
-      </c>
-      <c r="D71" s="9">
-        <v>0.69491499999999995</v>
-      </c>
-      <c r="E71" s="9">
-        <v>0.287719</v>
-      </c>
-      <c r="F71" s="10">
-        <v>0.66166700000000001</v>
-      </c>
-      <c r="G71" s="30">
-        <v>2.5794999999999998E-2</v>
-      </c>
-      <c r="H71" s="30">
-        <v>5.9645999999999998E-2</v>
-      </c>
-      <c r="I71" s="30">
-        <v>3.5207000000000002E-2</v>
-      </c>
-      <c r="J71" s="30">
-        <v>1.9252999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="9">
-        <v>0.17721500000000001</v>
-      </c>
-      <c r="D72" s="9">
-        <v>0.474576</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0.25806499999999999</v>
-      </c>
-      <c r="F72" s="10">
-        <v>0.73166699999999996</v>
-      </c>
-      <c r="G72" s="30">
-        <v>3.0789E-2</v>
-      </c>
-      <c r="H72" s="30">
-        <v>6.5938999999999998E-2</v>
-      </c>
-      <c r="I72" s="30">
-        <v>3.9614999999999997E-2</v>
-      </c>
-      <c r="J72" s="30">
-        <v>1.7937000000000002E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="9">
-        <v>0.14788699999999999</v>
-      </c>
-      <c r="D73" s="9">
-        <v>0.71186400000000005</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0.244898</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0.56833299999999998</v>
-      </c>
-      <c r="G73" s="30">
-        <v>2.1014999999999999E-2</v>
-      </c>
-      <c r="H73" s="30">
-        <v>5.9854999999999998E-2</v>
-      </c>
-      <c r="I73" s="30">
-        <v>3.0685E-2</v>
-      </c>
-      <c r="J73" s="30">
-        <v>2.0094000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9">
-        <v>0.123762</v>
-      </c>
-      <c r="D74" s="9">
-        <v>0.84745800000000004</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0.21598300000000001</v>
-      </c>
-      <c r="F74" s="10">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="G74" s="30">
-        <v>1.6376000000000002E-2</v>
-      </c>
-      <c r="H74" s="30">
-        <v>4.7974999999999997E-2</v>
-      </c>
-      <c r="I74" s="30">
-        <v>2.5561E-2</v>
-      </c>
-      <c r="J74" s="30">
-        <v>1.9841999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9">
-        <v>0.13316600000000001</v>
-      </c>
-      <c r="D75" s="9">
-        <v>0.89830500000000002</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0.23194699999999999</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="G75" s="30">
-        <v>1.6969000000000001E-2</v>
-      </c>
-      <c r="H75" s="30">
-        <v>3.9542000000000001E-2</v>
-      </c>
-      <c r="I75" s="30">
-        <v>2.6162000000000001E-2</v>
-      </c>
-      <c r="J75" s="30">
-        <v>1.9931999999999998E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="9">
-        <v>0.17171700000000001</v>
-      </c>
-      <c r="D76" s="9">
-        <v>0.86440700000000004</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0.28651700000000002</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0.57666700000000004</v>
-      </c>
-      <c r="G76" s="30">
-        <v>2.1953E-2</v>
-      </c>
-      <c r="H76" s="30">
-        <v>4.4741999999999997E-2</v>
-      </c>
-      <c r="I76" s="30">
-        <v>3.1444E-2</v>
-      </c>
-      <c r="J76" s="30">
-        <v>2.0406000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="9">
-        <v>0.14488599999999999</v>
-      </c>
-      <c r="D77" s="9">
-        <v>0.86440700000000004</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0.24817500000000001</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G77" s="30">
-        <v>1.8693999999999999E-2</v>
-      </c>
-      <c r="H77" s="30">
-        <v>4.5337000000000002E-2</v>
-      </c>
-      <c r="I77" s="30">
-        <v>2.8117E-2</v>
-      </c>
-      <c r="J77" s="30">
-        <v>2.0334999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="13">
-        <v>0.150725</v>
-      </c>
-      <c r="D78" s="13">
-        <v>0.88135600000000003</v>
-      </c>
-      <c r="E78" s="13">
-        <v>0.25742599999999999</v>
-      </c>
-      <c r="F78" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="G78" s="30">
-        <v>1.9276999999999999E-2</v>
-      </c>
-      <c r="H78" s="30">
-        <v>4.2209999999999998E-2</v>
-      </c>
-      <c r="I78" s="30">
-        <v>2.8739000000000001E-2</v>
-      </c>
-      <c r="J78" s="30">
-        <v>2.0643999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0.17832200000000001</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0.86440700000000004</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0.29565200000000003</v>
-      </c>
-      <c r="F79" s="6">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G79" s="30">
-        <v>2.2710999999999999E-2</v>
-      </c>
-      <c r="H79" s="30">
-        <v>4.5225000000000001E-2</v>
-      </c>
-      <c r="I79" s="30">
-        <v>3.2168000000000002E-2</v>
-      </c>
-      <c r="J79" s="30">
-        <v>2.0160999999999998E-2</v>
-      </c>
-      <c r="K79" s="28"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="13">
-        <v>0.18021200000000001</v>
-      </c>
-      <c r="D80" s="13">
-        <v>0.86440700000000004</v>
-      </c>
-      <c r="E80" s="13">
-        <v>0.29824600000000001</v>
-      </c>
-      <c r="F80" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G80" s="30">
-        <v>2.2842999999999999E-2</v>
-      </c>
-      <c r="H80" s="30">
-        <v>4.5510000000000002E-2</v>
-      </c>
-      <c r="I80" s="30">
-        <v>3.2245000000000003E-2</v>
-      </c>
-      <c r="J80" s="30">
-        <v>2.0034E-2</v>
-      </c>
-      <c r="K80" s="28"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.13636400000000001</v>
-      </c>
-      <c r="D81" s="5">
-        <v>0.86440700000000004</v>
-      </c>
-      <c r="E81" s="5">
-        <v>0.235566</v>
-      </c>
-      <c r="F81" s="6">
-        <v>0.44833299999999998</v>
-      </c>
-      <c r="G81" s="30">
-        <v>1.772E-2</v>
-      </c>
-      <c r="H81" s="30">
-        <v>4.4728999999999998E-2</v>
-      </c>
-      <c r="I81" s="30">
-        <v>2.7033000000000001E-2</v>
-      </c>
-      <c r="J81" s="30">
-        <v>2.0455999999999998E-2</v>
-      </c>
-      <c r="K81" s="28"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="9">
-        <v>0.15457399999999999</v>
-      </c>
-      <c r="D82" s="9">
-        <v>0.83050800000000002</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0.26063799999999998</v>
-      </c>
-      <c r="F82" s="10">
-        <v>0.53666700000000001</v>
-      </c>
-      <c r="G82" s="30">
-        <v>2.0319E-2</v>
-      </c>
-      <c r="H82" s="30">
-        <v>4.8729000000000001E-2</v>
-      </c>
-      <c r="I82" s="30">
-        <v>2.9863000000000001E-2</v>
-      </c>
-      <c r="J82" s="30">
-        <v>2.0728E-2</v>
-      </c>
-      <c r="K82" s="28"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="9">
-        <v>0.15625</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0.50847500000000001</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0.23904400000000001</v>
-      </c>
-      <c r="F83" s="10">
-        <v>0.68166700000000002</v>
-      </c>
-      <c r="G83" s="30">
-        <v>2.6415999999999999E-2</v>
-      </c>
-      <c r="H83" s="30">
-        <v>6.4271999999999996E-2</v>
-      </c>
-      <c r="I83" s="30">
-        <v>3.5777999999999997E-2</v>
-      </c>
-      <c r="J83" s="30">
-        <v>1.8921E-2</v>
-      </c>
-      <c r="K83" s="28"/>
-      <c r="P83" s="28"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="9">
-        <v>0.18781700000000001</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0.62711899999999998</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0.28906199999999999</v>
-      </c>
-      <c r="F84" s="10">
-        <v>0.69666700000000004</v>
-      </c>
-      <c r="G84" s="30">
-        <v>2.8059000000000001E-2</v>
-      </c>
-      <c r="H84" s="30">
-        <v>6.3483999999999999E-2</v>
-      </c>
-      <c r="I84" s="30">
-        <v>3.7304999999999998E-2</v>
-      </c>
-      <c r="J84" s="30">
-        <v>1.8681E-2</v>
-      </c>
-      <c r="K84" s="28"/>
-      <c r="P84" s="28"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="13">
-        <v>0.16423399999999999</v>
-      </c>
-      <c r="D85" s="13">
-        <v>0.76271199999999995</v>
-      </c>
-      <c r="E85" s="13">
-        <v>0.27027000000000001</v>
-      </c>
-      <c r="F85" s="14">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G85" s="30">
-        <v>2.2565999999999999E-2</v>
-      </c>
-      <c r="H85" s="30">
-        <v>5.5472E-2</v>
-      </c>
-      <c r="I85" s="30">
-        <v>3.2246999999999998E-2</v>
-      </c>
-      <c r="J85" s="30">
-        <v>2.0168999999999999E-2</v>
-      </c>
-      <c r="K85" s="28"/>
-      <c r="P85" s="28"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="5">
-        <v>0.15384600000000001</v>
-      </c>
-      <c r="D86" s="5">
-        <v>0.91525400000000001</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0.26341500000000001</v>
-      </c>
-      <c r="F86" s="6">
-        <v>0.49666700000000003</v>
-      </c>
-      <c r="G86" s="30">
-        <v>1.9310999999999998E-2</v>
-      </c>
-      <c r="H86" s="30">
-        <v>3.6628000000000001E-2</v>
-      </c>
-      <c r="I86" s="30">
-        <v>2.8735E-2</v>
-      </c>
-      <c r="J86" s="30">
-        <v>2.0618999999999998E-2</v>
-      </c>
-      <c r="K86" s="28"/>
-      <c r="P86" s="28"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="9">
-        <v>0.149701</v>
-      </c>
-      <c r="D87" s="9">
-        <v>0.84745800000000004</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0.25445299999999998</v>
-      </c>
-      <c r="F87" s="10">
-        <v>0.51166699999999998</v>
-      </c>
-      <c r="G87" s="30">
-        <v>1.9564000000000002E-2</v>
-      </c>
-      <c r="H87" s="30">
-        <v>4.7343999999999997E-2</v>
-      </c>
-      <c r="I87" s="30">
-        <v>2.9083999999999999E-2</v>
-      </c>
-      <c r="J87" s="30">
-        <v>2.0688000000000002E-2</v>
-      </c>
-      <c r="K87" s="28"/>
-      <c r="P87" s="28"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0.18518499999999999</v>
-      </c>
-      <c r="D88" s="9">
-        <v>0.84745800000000004</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0.30395100000000003</v>
-      </c>
-      <c r="F88" s="10">
-        <v>0.61833300000000002</v>
-      </c>
-      <c r="G88" s="30">
-        <v>2.3713000000000001E-2</v>
-      </c>
-      <c r="H88" s="30">
-        <v>4.7701E-2</v>
-      </c>
-      <c r="I88" s="30">
-        <v>3.3107999999999999E-2</v>
-      </c>
-      <c r="J88" s="30">
-        <v>1.9883999999999999E-2</v>
-      </c>
-      <c r="K88" s="28"/>
-      <c r="P88" s="28"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="9">
-        <v>0.207792</v>
-      </c>
-      <c r="D89" s="9">
-        <v>0.81355900000000003</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0.33103399999999999</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0.67666700000000002</v>
-      </c>
-      <c r="G89" s="30">
-        <v>2.6905999999999999E-2</v>
-      </c>
-      <c r="H89" s="30">
-        <v>5.1390999999999999E-2</v>
-      </c>
-      <c r="I89" s="30">
-        <v>3.5951999999999998E-2</v>
-      </c>
-      <c r="J89" s="30">
-        <v>1.9095999999999998E-2</v>
-      </c>
-      <c r="K89" s="28"/>
-      <c r="P89" s="28"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="13">
-        <v>0.18439700000000001</v>
-      </c>
-      <c r="D90" s="13">
-        <v>0.88135600000000003</v>
-      </c>
-      <c r="E90" s="13">
-        <v>0.30498500000000001</v>
-      </c>
-      <c r="F90" s="14">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="G90" s="30">
-        <v>2.3144000000000001E-2</v>
-      </c>
-      <c r="H90" s="30">
-        <v>4.2494999999999998E-2</v>
-      </c>
-      <c r="I90" s="30">
-        <v>3.2527E-2</v>
-      </c>
-      <c r="J90" s="30">
-        <v>2.0008000000000001E-2</v>
-      </c>
-      <c r="K90" s="28"/>
-      <c r="P90" s="28"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K91" s="28"/>
-      <c r="P91" s="28"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K92" s="28"/>
-      <c r="P92" s="28"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K93" s="28"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K94" s="28"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K95" s="28"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97" s="28"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="28"/>
+      <c r="F124" s="15">
+        <v>0.88861100000000004</v>
+      </c>
+      <c r="G124" s="15">
+        <v>0.83111999999999997</v>
+      </c>
+      <c r="H124" s="15">
+        <v>1.8504E-2</v>
+      </c>
+      <c r="I124" s="15">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="J124" s="15">
+        <v>1.1642E-2</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1.6278999999999998E-2</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P124" s="1">
+        <v>0.78271000000000002</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>0.94632799999999995</v>
+      </c>
+      <c r="R124" s="1">
+        <v>0.85677700000000001</v>
+      </c>
+      <c r="S124" s="1">
+        <v>0.78294600000000003</v>
+      </c>
+      <c r="T124" s="1">
+        <v>1.9637000000000002E-2</v>
+      </c>
+      <c r="U124" s="1">
+        <v>1.2073E-2</v>
+      </c>
+      <c r="V124" s="1">
+        <v>1.338E-2</v>
+      </c>
+      <c r="W124" s="1">
+        <v>1.7850000000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="160" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="C108:L117">
-    <sortCondition ref="L108"/>
+  <sortState ref="C144:L153">
+    <sortCondition ref="L144"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A15:A20"/>
+  <mergeCells count="17">
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/F1_charts.xlsx
+++ b/results/F1_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\majikthise\MLP_Group_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AEAFE02E-8587-4333-A03B-36C4755E2121}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C81D5D79-3D80-48F0-9D20-AA1EE6A762F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
   <si>
     <t>precision</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>TWITTER (BALANCED)</t>
+  </si>
+  <si>
+    <t>Ensemble Inter (modal vote)</t>
+  </si>
+  <si>
+    <t>Ensemble Inter (wtd avg)</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Ensemble Baseline (majority vote)</t>
+  </si>
+  <si>
+    <t>Ensemble Baseline (straight avg)</t>
+  </si>
+  <si>
+    <t>Results (Aggregated)</t>
+  </si>
+  <si>
+    <t>Results (aggregated)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +510,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +577,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -962,6 +1038,168 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$4:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>2.6065999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5659000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.545E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6258E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6790999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.5968999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.9177000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0509000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.9069999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.5895000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.6891999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.6582000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.5298000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.6037000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.5146000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.5725000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.6527999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.5755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.6148999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.6047000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$4:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>2.6065999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5659000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.545E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6258E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6790999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.5968999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.9177000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0509000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.9069999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.5895000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.6891999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.6582000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.5298000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.6037000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.5146000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.5725000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.6527999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.5755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.6148999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.6047000000000001E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$A$4:$B$25</c:f>
@@ -1201,8 +1439,8 @@
         <c:axId val="521013752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8600000000000001"/>
-          <c:min val="0.76000000000000012"/>
+          <c:max val="0.9"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4277,6 +4515,1269 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Twitter Balanced - out-of-domain test set f1_score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-CF98-4B01-8619-05B64A0307EE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$94:$B$114</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B-medium</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BERT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Roberta</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Majority vote</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Straight avg</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Lime</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shap</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Attn</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>IntGr</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Lime + Shap + Attn + IntGr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Constituent models</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Baseline Ensembles</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Interpretability Ensembles (modal vote)</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Interpretability Ensembles (wtd avg)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$94:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.56565699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.706897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57142899999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66141700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68027199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73611099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72857099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72727299999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75555600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71523199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71014500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.594059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66071400000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73611099999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.724638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75187999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78048799999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77372300000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-CF98-4B01-8619-05B64A0307EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521015392"/>
+        <c:axId val="521013752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521015392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521013752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521013752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521015392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Shruti" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>95% CI for Twitter (balanced) Perf Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AI$103:$AI$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble Baseline (majority vote)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ensemble Baseline (straight avg)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ensemble Inter (modal vote)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ensemble Inter (wtd avg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$103:$AM$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67129167999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66432055999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61210735999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69275344000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B0D-4133-ACD1-B921C881ECD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AI$103:$AI$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble Baseline (majority vote)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ensemble Baseline (straight avg)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ensemble Inter (modal vote)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ensemble Inter (wtd avg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$103:$AN$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4264320000000059E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5679440000000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.189263999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0969559999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B0D-4133-ACD1-B921C881ECD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AI$103:$AI$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ensemble Baseline (majority vote)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ensemble Baseline (straight avg)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ensemble Inter (modal vote)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ensemble Inter (wtd avg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$103:$AO$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4264320000000059E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5679440000000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.189263999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0969559999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B0D-4133-ACD1-B921C881ECD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="600613072"/>
+        <c:axId val="600610448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="600613072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600610448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600610448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9467625054855345E-2"/>
+              <c:y val="0.43512186342020182"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600613072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4477,6 +5978,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6992,20 +8573,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304798</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>253998</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7032,16 +9621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>528638</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7070,16 +9659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>280986</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>766761</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>300039</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>595314</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:rowOff>57943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7146,16 +9735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>159203</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>314328</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>464006</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7177,6 +9766,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628197</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>329750</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>162378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BEFD0D-0C44-4851-984B-E7EF119AE6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>446768</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>163738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926995B-4673-4417-824C-B59F844D6FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7482,10 +10145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA924837-D6A1-46A1-96BD-520CDE0C3667}">
-  <dimension ref="A1:W181"/>
+  <dimension ref="A1:AO204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,61 +10160,86 @@
     <col min="6" max="7" width="9.7109375" style="15" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="15"/>
     <col min="10" max="10" width="9.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="14" width="12.42578125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="1"/>
+    <col min="19" max="26" width="12" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="27" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7600,9 +10288,33 @@
       <c r="R3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="S3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -7656,9 +10368,17 @@
       <c r="R4" s="6">
         <v>2.6508E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="44"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -7710,9 +10430,17 @@
       <c r="R5" s="10">
         <v>2.8211E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -7764,9 +10492,17 @@
       <c r="R6" s="10">
         <v>2.5925E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
@@ -7818,9 +10554,17 @@
       <c r="R7" s="10">
         <v>2.5914E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="49"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -7872,9 +10616,17 @@
       <c r="R8" s="10">
         <v>2.6575000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -7926,9 +10678,17 @@
       <c r="R9" s="10">
         <v>2.6572999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
@@ -7980,9 +10740,17 @@
       <c r="R10" s="10">
         <v>2.8277E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
@@ -8034,9 +10802,17 @@
       <c r="R11" s="10">
         <v>2.9055999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
@@ -8088,9 +10864,17 @@
       <c r="R12" s="14">
         <v>2.7651999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="57"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -8145,8 +10929,8 @@
         <v>2.6325000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -8183,8 +10967,8 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
@@ -8237,8 +11021,8 @@
         <v>2.5812000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -8294,7 +11078,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -8348,7 +11132,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
@@ -8402,7 +11186,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -8456,7 +11240,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
@@ -8510,7 +11294,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -8566,7 +11350,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -8620,7 +11404,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
@@ -8674,7 +11458,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -8728,7 +11512,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
@@ -8851,7 +11635,7 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -8861,7 +11645,7 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -8871,58 +11655,80 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="37" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C35" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="27" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="40"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="s">
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="s">
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -8971,9 +11777,33 @@
       <c r="R37" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="S37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -9027,9 +11857,17 @@
       <c r="R38" s="6">
         <v>1.9812E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="44"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
@@ -9081,9 +11919,17 @@
       <c r="R39" s="10">
         <v>1.8782E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="54"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
       <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
@@ -9135,9 +11981,17 @@
       <c r="R40" s="10">
         <v>1.8862E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="54"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
       <c r="B41" s="7" t="s">
         <v>5</v>
       </c>
@@ -9189,9 +12043,17 @@
       <c r="R41" s="10">
         <v>1.7541999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="49"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
@@ -9243,9 +12105,17 @@
       <c r="R42" s="10">
         <v>1.7297E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="54"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
       <c r="B43" s="7" t="s">
         <v>5</v>
       </c>
@@ -9297,9 +12167,17 @@
       <c r="R43" s="10">
         <v>1.7448000000000002E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="54"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
@@ -9351,9 +12229,17 @@
       <c r="R44" s="10">
         <v>1.6500999999999998E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="49"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
@@ -9405,9 +12291,17 @@
       <c r="R45" s="10">
         <v>2.0544E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="54"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
@@ -9459,9 +12353,17 @@
       <c r="R46" s="10">
         <v>2.0544E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="S46" s="55"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="57"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -9516,8 +12418,8 @@
         <v>1.8155000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
       <c r="B48" s="11" t="s">
         <v>8</v>
       </c>
@@ -9571,10 +12473,10 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="4">
@@ -9627,8 +12529,8 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="8">
@@ -9681,8 +12583,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="8">
@@ -9735,8 +12637,8 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="8">
@@ -9789,8 +12691,8 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="12">
@@ -9843,10 +12745,10 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="8">
@@ -9899,8 +12801,8 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="8">
@@ -9953,8 +12855,8 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="8">
@@ -10007,8 +12909,8 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="8">
@@ -10061,8 +12963,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="12">
@@ -10115,18 +13017,30 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="C64" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C65" s="21" t="s">
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="40"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C65" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -10135,10 +13049,10 @@
       <c r="E65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -10147,12 +13061,24 @@
       <c r="I65" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="K65" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -10182,9 +13108,17 @@
       <c r="J66" s="6">
         <v>1.8849999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
       <c r="B67" s="7" t="s">
         <v>4</v>
       </c>
@@ -10212,9 +13146,13 @@
       <c r="J67" s="10">
         <v>1.9252999999999999E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="46"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
       <c r="B68" s="7" t="s">
         <v>4</v>
       </c>
@@ -10242,9 +13180,13 @@
       <c r="J68" s="10">
         <v>1.7937000000000002E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="46"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
         <v>5</v>
       </c>
@@ -10272,9 +13214,13 @@
       <c r="J69" s="10">
         <v>2.0094000000000001E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="49"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
@@ -10302,9 +13248,13 @@
       <c r="J70" s="10">
         <v>1.9841999999999999E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="46"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
         <v>5</v>
       </c>
@@ -10332,9 +13282,13 @@
       <c r="J71" s="10">
         <v>1.9931999999999998E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="46"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
       <c r="B72" s="7" t="s">
         <v>6</v>
       </c>
@@ -10362,9 +13316,13 @@
       <c r="J72" s="10">
         <v>2.0406000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="49"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
@@ -10392,9 +13350,13 @@
       <c r="J73" s="10">
         <v>2.0334999999999999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="46"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
       <c r="B74" s="11" t="s">
         <v>6</v>
       </c>
@@ -10422,9 +13384,13 @@
       <c r="J74" s="10">
         <v>2.0643999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="K74" s="21"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="51"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -10455,8 +13421,8 @@
         <v>2.0160999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
@@ -10485,8 +13451,8 @@
         <v>2.0034E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -10517,8 +13483,8 @@
         <v>2.0455999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
       <c r="B78" s="7" t="s">
         <v>14</v>
       </c>
@@ -10547,8 +13513,8 @@
         <v>2.0728E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
       <c r="B79" s="7" t="s">
         <v>15</v>
       </c>
@@ -10576,10 +13542,10 @@
       <c r="J79" s="10">
         <v>1.8921E-2</v>
       </c>
-      <c r="P79" s="22"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="P79" s="23"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
       <c r="B80" s="7" t="s">
         <v>16</v>
       </c>
@@ -10607,10 +13573,10 @@
       <c r="J80" s="10">
         <v>1.8681E-2</v>
       </c>
-      <c r="P80" s="22"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="11" t="s">
         <v>17</v>
       </c>
@@ -10638,10 +13604,10 @@
       <c r="J81" s="10">
         <v>2.0168999999999999E-2</v>
       </c>
-      <c r="P81" s="22"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -10671,10 +13637,10 @@
       <c r="J82" s="6">
         <v>2.0618999999999998E-2</v>
       </c>
-      <c r="P82" s="22"/>
+      <c r="P82" s="23"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
         <v>14</v>
       </c>
@@ -10702,10 +13668,10 @@
       <c r="J83" s="10">
         <v>2.0688000000000002E-2</v>
       </c>
-      <c r="P83" s="22"/>
+      <c r="P83" s="23"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="7" t="s">
         <v>15</v>
       </c>
@@ -10733,10 +13699,10 @@
       <c r="J84" s="10">
         <v>1.9883999999999999E-2</v>
       </c>
-      <c r="P84" s="22"/>
+      <c r="P84" s="23"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="7" t="s">
         <v>16</v>
       </c>
@@ -10764,10 +13730,10 @@
       <c r="J85" s="10">
         <v>1.9095999999999998E-2</v>
       </c>
-      <c r="P85" s="22"/>
+      <c r="P85" s="23"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="11" t="s">
         <v>17</v>
       </c>
@@ -10795,1421 +13761,2163 @@
       <c r="J86" s="14">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="P86" s="22"/>
+      <c r="P86" s="23"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K87" s="22"/>
-      <c r="P87" s="22"/>
+      <c r="K87" s="23"/>
+      <c r="P87" s="23"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="22"/>
-      <c r="P88" s="22"/>
+      <c r="C88" s="37"/>
+      <c r="K88" s="23"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="22"/>
+      <c r="C89" s="37"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K90" s="22"/>
+      <c r="C90" s="37"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K91" s="22"/>
+      <c r="C91" s="37"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K92" s="15"/>
+      <c r="A92" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="40"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C93" s="36"/>
-      <c r="K93" s="22"/>
+      <c r="C93" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C94" s="36"/>
-      <c r="K94" s="22"/>
+      <c r="A94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.474576</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.56565699999999997</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.63559299999999996</v>
+      </c>
+      <c r="G94" s="4">
+        <v>7.4119000000000004E-2</v>
+      </c>
+      <c r="H94" s="5">
+        <v>6.6719000000000001E-2</v>
+      </c>
+      <c r="I94" s="5">
+        <v>6.1768000000000003E-2</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4.4773E-2</v>
+      </c>
+      <c r="K94" s="42"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="44"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C95" s="36"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="9">
+        <v>0.71929799999999999</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.69491499999999995</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.706897</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0.71186400000000005</v>
+      </c>
+      <c r="G95" s="8">
+        <v>6.1327E-2</v>
+      </c>
+      <c r="H95" s="9">
+        <v>6.0357000000000001E-2</v>
+      </c>
+      <c r="I95" s="9">
+        <v>4.9203999999999998E-2</v>
+      </c>
+      <c r="J95" s="10">
+        <v>4.2943000000000002E-2</v>
+      </c>
+      <c r="K95" s="20"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="46"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C96" s="36"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A96" s="20"/>
+      <c r="B96" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0.71794899999999995</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.474576</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0.64406799999999997</v>
+      </c>
+      <c r="G96" s="8">
+        <v>7.3757000000000003E-2</v>
+      </c>
+      <c r="H96" s="9">
+        <v>6.6086000000000006E-2</v>
+      </c>
+      <c r="I96" s="9">
+        <v>6.0687999999999999E-2</v>
+      </c>
+      <c r="J96" s="10">
+        <v>4.3406E-2</v>
+      </c>
+      <c r="K96" s="20"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="46"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="9">
+        <v>0.61764699999999995</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.71186400000000005</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.66141700000000003</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0.63559299999999996</v>
+      </c>
+      <c r="G97" s="8">
+        <v>6.0997999999999997E-2</v>
+      </c>
+      <c r="H97" s="9">
+        <v>6.0734000000000003E-2</v>
+      </c>
+      <c r="I97" s="9">
+        <v>5.0689999999999999E-2</v>
+      </c>
+      <c r="J97" s="10">
+        <v>4.5947000000000002E-2</v>
+      </c>
+      <c r="K97" s="47"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="49"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="9">
+        <v>0.56818199999999996</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0.68027199999999999</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0.60169499999999998</v>
+      </c>
+      <c r="G98" s="8">
+        <v>5.3754999999999997E-2</v>
+      </c>
+      <c r="H98" s="9">
+        <v>4.7537000000000003E-2</v>
+      </c>
+      <c r="I98" s="9">
+        <v>4.4777999999999998E-2</v>
+      </c>
+      <c r="J98" s="10">
+        <v>4.5707999999999999E-2</v>
+      </c>
+      <c r="K98" s="20"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="46"/>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="9">
+        <v>0.623529</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0.67796599999999996</v>
+      </c>
+      <c r="G99" s="8">
+        <v>5.2998999999999998E-2</v>
+      </c>
+      <c r="H99" s="9">
+        <v>3.9431000000000001E-2</v>
+      </c>
+      <c r="I99" s="9">
+        <v>4.1600999999999999E-2</v>
+      </c>
+      <c r="J99" s="10">
+        <v>4.3430999999999997E-2</v>
+      </c>
+      <c r="K99" s="20"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="46"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="9">
+        <v>0.62963000000000002</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0.72857099999999997</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0.67796599999999996</v>
+      </c>
+      <c r="G100" s="8">
+        <v>5.5622999999999999E-2</v>
+      </c>
+      <c r="H100" s="9">
+        <v>4.5947000000000002E-2</v>
+      </c>
+      <c r="I100" s="9">
+        <v>4.4488E-2</v>
+      </c>
+      <c r="J100" s="10">
+        <v>4.4863E-2</v>
+      </c>
+      <c r="K100" s="47"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="49"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="F101" s="10">
+        <v>0.64406799999999997</v>
+      </c>
+      <c r="G101" s="8">
+        <v>5.5335000000000002E-2</v>
+      </c>
+      <c r="H101" s="9">
+        <v>4.7010000000000003E-2</v>
+      </c>
+      <c r="I101" s="9">
+        <v>4.5808000000000001E-2</v>
+      </c>
+      <c r="J101" s="10">
+        <v>4.6602999999999999E-2</v>
+      </c>
+      <c r="K101" s="20"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="46"/>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="13">
+        <v>0.61904800000000004</v>
+      </c>
+      <c r="D102" s="13">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E102" s="13">
+        <v>0.72727299999999995</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0.66949199999999998</v>
+      </c>
+      <c r="G102" s="8">
+        <v>5.4401999999999999E-2</v>
+      </c>
+      <c r="H102" s="9">
+        <v>4.2286999999999998E-2</v>
+      </c>
+      <c r="I102" s="9">
+        <v>4.3256999999999997E-2</v>
+      </c>
+      <c r="J102" s="10">
+        <v>4.4172000000000003E-2</v>
+      </c>
+      <c r="K102" s="21"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="51"/>
+      <c r="AJ102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO102" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.67105300000000001</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.75555600000000001</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.72033899999999995</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5.6161000000000003E-2</v>
+      </c>
+      <c r="H103" s="5">
+        <v>4.5258E-2</v>
+      </c>
+      <c r="I103" s="5">
+        <v>4.2992000000000002E-2</v>
+      </c>
+      <c r="J103" s="6">
+        <v>4.2895000000000003E-2</v>
+      </c>
+      <c r="AI103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>0.67129167999999995</v>
+      </c>
+      <c r="AK103" s="1">
+        <v>0.75555600000000001</v>
+      </c>
+      <c r="AL103" s="1">
+        <v>0.83982032000000006</v>
+      </c>
+      <c r="AM103" s="1">
+        <v>0.67129167999999995</v>
+      </c>
+      <c r="AN103" s="1">
+        <f>AK103-AJ103</f>
+        <v>8.4264320000000059E-2</v>
+      </c>
+      <c r="AO103" s="1">
+        <f t="shared" ref="AO103:AO106" si="0">AL103-AK103</f>
+        <v>8.4264320000000059E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="13">
+        <v>0.66233799999999998</v>
+      </c>
+      <c r="D104" s="13">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E104" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F104" s="14">
+        <v>0.71186400000000005</v>
+      </c>
+      <c r="G104" s="12">
+        <v>5.6139000000000001E-2</v>
+      </c>
+      <c r="H104" s="13">
+        <v>4.5818999999999999E-2</v>
+      </c>
+      <c r="I104" s="13">
+        <v>4.3714000000000003E-2</v>
+      </c>
+      <c r="J104" s="14">
+        <v>4.3345000000000002E-2</v>
+      </c>
+      <c r="AI104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>0.66432055999999995</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>0.83567944000000005</v>
+      </c>
+      <c r="AM104" s="1">
+        <v>0.66432055999999995</v>
+      </c>
+      <c r="AN104" s="1">
+        <f t="shared" ref="AN104:AN106" si="1">AK104-AJ104</f>
+        <v>8.5679440000000051E-2</v>
+      </c>
+      <c r="AO104" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5679440000000051E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.58695699999999995</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0.71523199999999998</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.63559299999999996</v>
+      </c>
+      <c r="G105" s="8">
+        <v>5.2354999999999999E-2</v>
+      </c>
+      <c r="H105" s="9">
+        <v>3.6146999999999999E-2</v>
+      </c>
+      <c r="I105" s="9">
+        <v>4.2566E-2</v>
+      </c>
+      <c r="J105" s="10">
+        <v>4.5483999999999997E-2</v>
+      </c>
+      <c r="AI105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>0.61210735999999999</v>
+      </c>
+      <c r="AK105" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AL105" s="1">
+        <v>0.79589263999999993</v>
+      </c>
+      <c r="AM105" s="1">
+        <v>0.61210735999999999</v>
+      </c>
+      <c r="AN105" s="1">
+        <f t="shared" si="1"/>
+        <v>9.189263999999997E-2</v>
+      </c>
+      <c r="AO105" s="1">
+        <f t="shared" si="0"/>
+        <v>9.189263999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="9">
+        <v>0.62025300000000005</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0.83050800000000002</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0.71014500000000003</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0.66101699999999997</v>
+      </c>
+      <c r="G106" s="8">
+        <v>5.5773999999999997E-2</v>
+      </c>
+      <c r="H106" s="9">
+        <v>4.9235000000000001E-2</v>
+      </c>
+      <c r="I106" s="9">
+        <v>4.4757999999999999E-2</v>
+      </c>
+      <c r="J106" s="10">
+        <v>4.3711E-2</v>
+      </c>
+      <c r="AI106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>0.69275344000000005</v>
+      </c>
+      <c r="AK106" s="1">
+        <v>0.77372300000000005</v>
+      </c>
+      <c r="AL106" s="1">
+        <v>0.85469256000000005</v>
+      </c>
+      <c r="AM106" s="1">
+        <v>0.69275344000000005</v>
+      </c>
+      <c r="AN106" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0969559999999996E-2</v>
+      </c>
+      <c r="AO106" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0969559999999996E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="9">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0.50847500000000001</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.594059</v>
+      </c>
+      <c r="F107" s="10">
+        <v>0.65254199999999996</v>
+      </c>
+      <c r="G107" s="8">
+        <v>7.1492E-2</v>
+      </c>
+      <c r="H107" s="9">
+        <v>6.6741999999999996E-2</v>
+      </c>
+      <c r="I107" s="9">
+        <v>6.0068000000000003E-2</v>
+      </c>
+      <c r="J107" s="10">
+        <v>4.437E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+      <c r="B108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0.69811299999999998</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.66071400000000002</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0.67796599999999996</v>
+      </c>
+      <c r="G108" s="8">
+        <v>6.5587000000000006E-2</v>
+      </c>
+      <c r="H108" s="9">
+        <v>6.3266000000000003E-2</v>
+      </c>
+      <c r="I108" s="9">
+        <v>5.3355E-2</v>
+      </c>
+      <c r="J108" s="10">
+        <v>4.3577999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="D109" s="13">
+        <v>0.74576299999999995</v>
+      </c>
+      <c r="E109" s="13">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F109" s="14">
+        <v>0.68644099999999997</v>
+      </c>
+      <c r="G109" s="8">
+        <v>5.8584999999999998E-2</v>
+      </c>
+      <c r="H109" s="9">
+        <v>5.5921999999999999E-2</v>
+      </c>
+      <c r="I109" s="9">
+        <v>4.6884000000000002E-2</v>
+      </c>
+      <c r="J109" s="10">
+        <v>4.2641999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.623529</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.67796599999999996</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5.4386999999999998E-2</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4.0117E-2</v>
+      </c>
+      <c r="I110" s="5">
+        <v>4.3150000000000001E-2</v>
+      </c>
+      <c r="J110" s="6">
+        <v>4.4722999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="9">
+        <v>0.632911</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0.724638</v>
+      </c>
+      <c r="F111" s="10">
+        <v>0.67796599999999996</v>
+      </c>
+      <c r="G111" s="8">
+        <v>5.5910000000000001E-2</v>
+      </c>
+      <c r="H111" s="9">
+        <v>4.7308000000000003E-2</v>
+      </c>
+      <c r="I111" s="9">
+        <v>4.4206000000000002E-2</v>
+      </c>
+      <c r="J111" s="10">
+        <v>4.4386000000000002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+      <c r="B112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="9">
+        <v>0.67567600000000005</v>
+      </c>
+      <c r="D112" s="9">
+        <v>0.84745800000000004</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.75187999999999999</v>
+      </c>
+      <c r="F112" s="10">
+        <v>0.72033899999999995</v>
+      </c>
+      <c r="G112" s="8">
+        <v>5.7175999999999998E-2</v>
+      </c>
+      <c r="H112" s="9">
+        <v>4.7782999999999999E-2</v>
+      </c>
+      <c r="I112" s="9">
+        <v>4.4381999999999998E-2</v>
+      </c>
+      <c r="J112" s="10">
+        <v>4.3343E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="B113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0.81355900000000003</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0.78048799999999996</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0.77118600000000004</v>
+      </c>
+      <c r="G113" s="8">
+        <v>5.5826000000000001E-2</v>
+      </c>
+      <c r="H113" s="9">
+        <v>5.1346000000000003E-2</v>
+      </c>
+      <c r="I113" s="9">
+        <v>4.2359000000000001E-2</v>
+      </c>
+      <c r="J113" s="10">
+        <v>3.9345999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="13">
+        <v>0.67948699999999995</v>
+      </c>
+      <c r="D114" s="13">
+        <v>0.89830500000000002</v>
+      </c>
+      <c r="E114" s="13">
+        <v>0.77372300000000005</v>
+      </c>
+      <c r="F114" s="14">
+        <v>0.73728800000000005</v>
+      </c>
+      <c r="G114" s="12">
+        <v>5.5003000000000003E-2</v>
+      </c>
+      <c r="H114" s="13">
+        <v>3.9843999999999997E-2</v>
+      </c>
+      <c r="I114" s="13">
+        <v>4.1311E-2</v>
+      </c>
+      <c r="J114" s="14">
+        <v>4.2096000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C115" s="37"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C116" s="37"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C117" s="37"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C118" s="37"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C119" s="37"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C125" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O102" s="1" t="s">
+      <c r="O125" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D126" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E126" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G126" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H126" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I126" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J103" s="15" t="s">
+      <c r="J126" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K103" s="15" t="s">
+      <c r="K126" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O103" s="1" t="s">
+      <c r="O126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="P126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q103" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R103" s="1" t="s">
+      <c r="R126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S103" s="1" t="s">
+      <c r="S126" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="1" t="s">
+      <c r="T126" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="U103" s="1" t="s">
+      <c r="U126" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="V103" s="1" t="s">
+      <c r="V126" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W103" s="1" t="s">
+      <c r="W126" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C104" s="15" t="s">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C127" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D127" s="15">
         <v>0.76521700000000004</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E127" s="15">
         <v>0.96438400000000002</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F127" s="15">
         <v>0.85333300000000001</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G127" s="15">
         <v>0.77039800000000003</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H127" s="15">
         <v>1.9526999999999999E-2</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I127" s="15">
         <v>9.698E-3</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J127" s="15">
         <v>1.2895E-2</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K127" s="1">
         <v>1.8034999999999999E-2</v>
       </c>
-      <c r="O104" s="1" t="s">
+      <c r="O127" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P104" s="1">
+      <c r="P127" s="1">
         <v>0.73085299999999997</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="Q127" s="1">
         <v>0.94350299999999998</v>
       </c>
-      <c r="R104" s="1">
+      <c r="R127" s="1">
         <v>0.82367400000000002</v>
       </c>
-      <c r="S104" s="1">
+      <c r="S127" s="15">
         <v>0.72286799999999996</v>
       </c>
-      <c r="T104" s="1">
+      <c r="T127" s="15">
         <v>2.0941999999999999E-2</v>
       </c>
-      <c r="U104" s="1">
+      <c r="U127" s="15">
         <v>1.2024E-2</v>
       </c>
-      <c r="V104" s="1">
+      <c r="V127" s="15">
         <v>1.4669E-2</v>
       </c>
-      <c r="W104" s="1">
+      <c r="W127" s="15">
         <v>1.9812E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C105" s="15" t="s">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C128" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D128" s="15">
         <v>0.82089599999999996</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E128" s="15">
         <v>0.90410999999999997</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F128" s="15">
         <v>0.86049500000000001</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G128" s="15">
         <v>0.79696400000000001</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H128" s="15">
         <v>1.8762000000000001E-2</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I128" s="15">
         <v>1.5165E-2</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J128" s="15">
         <v>1.2935E-2</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K128" s="1">
         <v>1.7035999999999999E-2</v>
       </c>
-      <c r="O105" s="1" t="s">
+      <c r="O128" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P105" s="1">
+      <c r="P128" s="1">
         <v>0.789744</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="Q128" s="1">
         <v>0.87005600000000005</v>
       </c>
-      <c r="R105" s="1">
+      <c r="R128" s="1">
         <v>0.82795700000000005</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S128" s="15">
         <v>0.751938</v>
       </c>
-      <c r="T105" s="1">
+      <c r="T128" s="15">
         <v>2.0500999999999998E-2</v>
       </c>
-      <c r="U105" s="1">
+      <c r="U128" s="15">
         <v>1.8508E-2</v>
       </c>
-      <c r="V105" s="1">
+      <c r="V128" s="15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W105" s="1">
+      <c r="W128" s="15">
         <v>1.8782E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C106" s="15" t="s">
+    <row r="129" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C129" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D129" s="15">
         <v>0.81472699999999998</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E129" s="15">
         <v>0.93972599999999995</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F129" s="15">
         <v>0.87277400000000005</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G129" s="15">
         <v>0.81024700000000005</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H129" s="15">
         <v>1.8440999999999999E-2</v>
       </c>
-      <c r="I106" s="15">
+      <c r="I129" s="15">
         <v>1.2269E-2</v>
       </c>
-      <c r="J106" s="15">
+      <c r="J129" s="15">
         <v>1.2231000000000001E-2</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K129" s="1">
         <v>1.6563000000000001E-2</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="O129" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P129" s="1">
         <v>0.77272700000000005</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q129" s="1">
         <v>0.91242900000000005</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R129" s="1">
         <v>0.83678799999999998</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S129" s="15">
         <v>0.75581399999999999</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T129" s="15">
         <v>2.0566999999999998E-2</v>
       </c>
-      <c r="U106" s="1">
+      <c r="U129" s="15">
         <v>1.5426E-2</v>
       </c>
-      <c r="V106" s="1">
+      <c r="V129" s="15">
         <v>1.444E-2</v>
       </c>
-      <c r="W106" s="1">
+      <c r="W129" s="15">
         <v>1.8862E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C107" s="15" t="s">
+    <row r="130" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C130" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D130" s="15">
         <v>0.84732799999999997</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E130" s="15">
         <v>0.91232899999999995</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F130" s="15">
         <v>0.87862799999999996</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G130" s="15">
         <v>0.82542700000000002</v>
       </c>
-      <c r="H107" s="15">
+      <c r="H130" s="15">
         <v>1.7676000000000001E-2</v>
       </c>
-      <c r="I107" s="15">
+      <c r="I130" s="15">
         <v>1.4754E-2</v>
       </c>
-      <c r="J107" s="15">
+      <c r="J130" s="15">
         <v>1.2088E-2</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K130" s="1">
         <v>1.5987000000000001E-2</v>
       </c>
-      <c r="O107" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P107" s="1">
+      <c r="P130" s="1">
         <v>0.82519299999999995</v>
       </c>
-      <c r="Q107" s="1">
+      <c r="Q130" s="1">
         <v>0.90678000000000003</v>
       </c>
-      <c r="R107" s="1">
+      <c r="R130" s="1">
         <v>0.86406499999999997</v>
       </c>
-      <c r="S107" s="1">
+      <c r="S130" s="15">
         <v>0.80426399999999998</v>
       </c>
-      <c r="T107" s="1">
+      <c r="T130" s="15">
         <v>1.9195E-2</v>
       </c>
-      <c r="U107" s="1">
+      <c r="U130" s="15">
         <v>1.5093000000000001E-2</v>
       </c>
-      <c r="V107" s="1">
+      <c r="V130" s="15">
         <v>1.3531E-2</v>
       </c>
-      <c r="W107" s="1">
+      <c r="W130" s="15">
         <v>1.7541999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C108" s="15" t="s">
+    <row r="131" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C131" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D131" s="15">
         <v>0.84892100000000004</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E131" s="15">
         <v>0.96986300000000003</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F131" s="15">
         <v>0.90537100000000004</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G131" s="15">
         <v>0.85958299999999999</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H131" s="15">
         <v>1.7892999999999999E-2</v>
       </c>
-      <c r="I108" s="15">
+      <c r="I131" s="15">
         <v>8.7229999999999999E-3</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J131" s="15">
         <v>1.0961E-2</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K131" s="1">
         <v>1.5285E-2</v>
       </c>
-      <c r="O108" s="1" t="s">
+      <c r="O131" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P108" s="1">
+      <c r="P131" s="1">
         <v>0.80284999999999995</v>
       </c>
-      <c r="Q108" s="1">
+      <c r="Q131" s="1">
         <v>0.95480200000000004</v>
       </c>
-      <c r="R108" s="1">
+      <c r="R131" s="1">
         <v>0.87225799999999998</v>
       </c>
-      <c r="S108" s="1">
+      <c r="S131" s="15">
         <v>0.80813999999999997</v>
       </c>
-      <c r="T108" s="1">
+      <c r="T131" s="15">
         <v>1.9130999999999999E-2</v>
       </c>
-      <c r="U108" s="1">
+      <c r="U131" s="15">
         <v>1.1013E-2</v>
       </c>
-      <c r="V108" s="1">
+      <c r="V131" s="15">
         <v>1.2787E-2</v>
       </c>
-      <c r="W108" s="1">
+      <c r="W131" s="15">
         <v>1.7297E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C109" s="15" t="s">
+    <row r="132" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C132" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D132" s="15">
         <v>0.88040700000000005</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E132" s="15">
         <v>0.94794500000000004</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F132" s="15">
         <v>0.91292899999999999</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G132" s="15">
         <v>0.87476299999999996</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H132" s="15">
         <v>1.6677999999999998E-2</v>
       </c>
-      <c r="I109" s="15">
+      <c r="I132" s="15">
         <v>1.1419E-2</v>
       </c>
-      <c r="J109" s="15">
+      <c r="J132" s="15">
         <v>1.0782E-2</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K132" s="1">
         <v>1.4569E-2</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="O132" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P109" s="1">
+      <c r="P132" s="1">
         <v>0.84</v>
       </c>
-      <c r="Q109" s="1">
+      <c r="Q132" s="1">
         <v>0.88983100000000004</v>
       </c>
-      <c r="R109" s="1">
+      <c r="R132" s="1">
         <v>0.86419800000000002</v>
       </c>
-      <c r="S109" s="1">
+      <c r="S132" s="15">
         <v>0.80813999999999997</v>
       </c>
-      <c r="T109" s="1">
+      <c r="T132" s="15">
         <v>1.8702E-2</v>
       </c>
-      <c r="U109" s="1">
+      <c r="U132" s="15">
         <v>1.6843E-2</v>
       </c>
-      <c r="V109" s="1">
+      <c r="V132" s="15">
         <v>1.3646999999999999E-2</v>
       </c>
-      <c r="W109" s="1">
+      <c r="W132" s="15">
         <v>1.7448000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C110" s="15" t="s">
+    <row r="133" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C133" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D133" s="15">
         <v>0.85406700000000002</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E133" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F133" s="15">
         <v>0.91187700000000005</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G133" s="15">
         <v>0.86907000000000001</v>
       </c>
-      <c r="H110" s="15">
+      <c r="H133" s="15">
         <v>1.7148E-2</v>
       </c>
-      <c r="I110" s="15">
+      <c r="I133" s="15">
         <v>7.6239999999999997E-3</v>
       </c>
-      <c r="J110" s="15">
+      <c r="J133" s="15">
         <v>1.04E-2</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K133" s="1">
         <v>1.4586999999999999E-2</v>
       </c>
-      <c r="O110" s="1" t="s">
+      <c r="O133" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P110" s="1">
+      <c r="P133" s="1">
         <v>0.82382100000000003</v>
       </c>
-      <c r="Q110" s="1">
+      <c r="Q133" s="1">
         <v>0.93785300000000005</v>
       </c>
-      <c r="R110" s="1">
+      <c r="R133" s="1">
         <v>0.87714700000000001</v>
       </c>
-      <c r="S110" s="1">
+      <c r="S133" s="15">
         <v>0.81976700000000002</v>
       </c>
-      <c r="T110" s="1">
+      <c r="T133" s="15">
         <v>1.8634999999999999E-2</v>
       </c>
-      <c r="U110" s="1">
+      <c r="U133" s="15">
         <v>1.2437E-2</v>
       </c>
-      <c r="V110" s="1">
+      <c r="V133" s="15">
         <v>1.2481000000000001E-2</v>
       </c>
-      <c r="W110" s="1">
+      <c r="W133" s="15">
         <v>1.6500999999999998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C111" s="15" t="s">
+    <row r="134" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C134" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D134" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E134" s="15">
         <v>1</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F134" s="15">
         <v>0.81838599999999995</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G134" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="H111" s="15">
+      <c r="H134" s="15">
         <v>1.9567000000000001E-2</v>
       </c>
-      <c r="I111" s="15">
+      <c r="I134" s="15">
         <v>0</v>
       </c>
-      <c r="J111" s="15">
+      <c r="J134" s="15">
         <v>1.3687E-2</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K134" s="1">
         <v>1.9567000000000001E-2</v>
       </c>
-      <c r="O111" s="1" t="s">
+      <c r="O134" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P111" s="1">
+      <c r="P134" s="1">
         <v>0.68604699999999996</v>
       </c>
-      <c r="Q111" s="1">
+      <c r="Q134" s="1">
         <v>1</v>
       </c>
-      <c r="R111" s="1">
+      <c r="R134" s="1">
         <v>0.81379299999999999</v>
       </c>
-      <c r="S111" s="1">
+      <c r="S134" s="15">
         <v>0.68604699999999996</v>
       </c>
-      <c r="T111" s="1">
+      <c r="T134" s="15">
         <v>2.0544E-2</v>
       </c>
-      <c r="U111" s="1">
+      <c r="U134" s="15">
         <v>0</v>
       </c>
-      <c r="V111" s="1">
+      <c r="V134" s="15">
         <v>1.4482999999999999E-2</v>
       </c>
-      <c r="W111" s="1">
+      <c r="W134" s="15">
         <v>2.0544E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C112" s="15" t="s">
+    <row r="135" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C135" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D135" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E135" s="15">
         <v>1</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F135" s="15">
         <v>0.81838599999999995</v>
       </c>
-      <c r="G112" s="15">
+      <c r="G135" s="15">
         <v>0.69259999999999999</v>
       </c>
-      <c r="H112" s="15">
+      <c r="H135" s="15">
         <v>1.9567000000000001E-2</v>
       </c>
-      <c r="I112" s="15">
+      <c r="I135" s="15">
         <v>0</v>
       </c>
-      <c r="J112" s="15">
+      <c r="J135" s="15">
         <v>1.3687E-2</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K135" s="1">
         <v>1.9567000000000001E-2</v>
       </c>
-      <c r="O112" s="1" t="s">
+      <c r="O135" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P112" s="1">
+      <c r="P135" s="1">
         <v>0.68604699999999996</v>
       </c>
-      <c r="Q112" s="1">
+      <c r="Q135" s="1">
         <v>1</v>
       </c>
-      <c r="R112" s="1">
+      <c r="R135" s="1">
         <v>0.81379299999999999</v>
       </c>
-      <c r="S112" s="1">
+      <c r="S135" s="15">
         <v>0.68604699999999996</v>
       </c>
-      <c r="T112" s="1">
+      <c r="T135" s="15">
         <v>2.0544E-2</v>
       </c>
-      <c r="U112" s="1">
+      <c r="U135" s="15">
         <v>0</v>
       </c>
-      <c r="V112" s="1">
+      <c r="V135" s="15">
         <v>1.4482999999999999E-2</v>
       </c>
-      <c r="W112" s="1">
+      <c r="W135" s="15">
         <v>2.0544E-2</v>
       </c>
     </row>
-    <row r="113" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C113" s="15" t="s">
+    <row r="136" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C136" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D136" s="15">
         <v>0.80405400000000005</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E136" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F136" s="15">
         <v>0.88257099999999999</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G136" s="15">
         <v>0.81973399999999996</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H136" s="15">
         <v>1.8896E-2</v>
       </c>
-      <c r="I113" s="15">
+      <c r="I136" s="15">
         <v>7.7450000000000001E-3</v>
       </c>
-      <c r="J113" s="15">
+      <c r="J136" s="15">
         <v>1.1920999999999999E-2</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K136" s="1">
         <v>1.6754000000000002E-2</v>
       </c>
-      <c r="O113" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P113" s="1">
+      <c r="P136" s="1">
         <v>0.77397300000000002</v>
       </c>
-      <c r="Q113" s="1">
+      <c r="Q136" s="1">
         <v>0.95762700000000001</v>
       </c>
-      <c r="R113" s="1">
+      <c r="R136" s="1">
         <v>0.85606099999999996</v>
       </c>
-      <c r="S113" s="1">
+      <c r="S136" s="15">
         <v>0.77907000000000004</v>
       </c>
-      <c r="T113" s="1">
+      <c r="T136" s="15">
         <v>1.9833E-2</v>
       </c>
-      <c r="U113" s="1">
+      <c r="U136" s="15">
         <v>1.1106E-2</v>
       </c>
-      <c r="V113" s="1">
+      <c r="V136" s="15">
         <v>1.3469999999999999E-2</v>
       </c>
-      <c r="W113" s="1">
+      <c r="W136" s="15">
         <v>1.8155000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C114" s="15" t="s">
+    <row r="137" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C137" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D137" s="15">
         <v>0.81693400000000005</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E137" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F137" s="15">
         <v>0.89027400000000001</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G137" s="15">
         <v>0.83301700000000001</v>
       </c>
-      <c r="H114" s="15">
+      <c r="H137" s="15">
         <v>1.8579999999999999E-2</v>
       </c>
-      <c r="I114" s="15">
+      <c r="I137" s="15">
         <v>7.6229999999999996E-3</v>
       </c>
-      <c r="J114" s="15">
+      <c r="J137" s="15">
         <v>1.1611E-2</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K137" s="1">
         <v>1.6322E-2</v>
       </c>
-      <c r="O114" s="1" t="s">
+      <c r="O137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P114" s="1">
+      <c r="P137" s="1">
         <v>0.77930999999999995</v>
       </c>
-      <c r="Q114" s="1">
+      <c r="Q137" s="1">
         <v>0.95762700000000001</v>
       </c>
-      <c r="R114" s="1">
+      <c r="R137" s="1">
         <v>0.85931599999999997</v>
       </c>
-      <c r="S114" s="1">
+      <c r="S137" s="15">
         <v>0.78488400000000003</v>
       </c>
-      <c r="T114" s="1">
+      <c r="T137" s="15">
         <v>1.9637999999999999E-2</v>
       </c>
-      <c r="U114" s="1">
+      <c r="U137" s="15">
         <v>1.1047E-2</v>
       </c>
-      <c r="V114" s="1">
+      <c r="V137" s="15">
         <v>1.3309E-2</v>
       </c>
-      <c r="W114" s="1">
+      <c r="W137" s="15">
         <v>1.7911E-2</v>
       </c>
     </row>
-    <row r="115" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C115" s="15" t="s">
+    <row r="138" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C138" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D138" s="15">
         <v>0.81050199999999994</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E138" s="15">
         <v>0.972603</v>
       </c>
-      <c r="F115" s="15">
+      <c r="F138" s="15">
         <v>0.88418399999999997</v>
       </c>
-      <c r="G115" s="15">
+      <c r="G138" s="15">
         <v>0.82352899999999996</v>
       </c>
-      <c r="H115" s="15">
+      <c r="H138" s="15">
         <v>1.8780999999999999E-2</v>
       </c>
-      <c r="I115" s="15">
+      <c r="I138" s="15">
         <v>8.2970000000000006E-3</v>
       </c>
-      <c r="J115" s="15">
+      <c r="J138" s="15">
         <v>1.1864E-2</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K138" s="1">
         <v>1.6632000000000001E-2</v>
       </c>
-      <c r="O115" s="1" t="s">
+      <c r="O138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P115" s="1">
+      <c r="P138" s="1">
         <v>0.78688499999999995</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="Q138" s="1">
         <v>0.94915300000000002</v>
       </c>
-      <c r="R115" s="1">
+      <c r="R138" s="1">
         <v>0.86043499999999995</v>
       </c>
-      <c r="S115" s="1">
+      <c r="S138" s="15">
         <v>0.78876000000000002</v>
       </c>
-      <c r="T115" s="1">
+      <c r="T138" s="15">
         <v>2.0232E-2</v>
       </c>
-      <c r="U115" s="1">
+      <c r="U138" s="15">
         <v>1.1311E-2</v>
       </c>
-      <c r="V115" s="1">
+      <c r="V138" s="15">
         <v>1.3434E-2</v>
       </c>
-      <c r="W115" s="1">
+      <c r="W138" s="15">
         <v>1.8173000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C116" s="15" t="s">
+    <row r="139" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C139" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D139" s="15">
         <v>0.81975299999999995</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E139" s="15">
         <v>0.90958899999999998</v>
       </c>
-      <c r="F116" s="15">
+      <c r="F139" s="15">
         <v>0.86233800000000005</v>
       </c>
-      <c r="G116" s="15">
+      <c r="G139" s="15">
         <v>0.79886100000000004</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H139" s="15">
         <v>1.8719E-2</v>
       </c>
-      <c r="I116" s="15">
+      <c r="I139" s="15">
         <v>1.4583E-2</v>
       </c>
-      <c r="J116" s="15">
+      <c r="J139" s="15">
         <v>1.2845000000000001E-2</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K139" s="1">
         <v>1.7003999999999998E-2</v>
       </c>
-      <c r="O116" s="1" t="s">
+      <c r="O139" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P116" s="1">
+      <c r="P139" s="1">
         <v>0.78227800000000003</v>
       </c>
-      <c r="Q116" s="1">
+      <c r="Q139" s="1">
         <v>0.87288100000000002</v>
       </c>
-      <c r="R116" s="1">
+      <c r="R139" s="1">
         <v>0.82509999999999994</v>
       </c>
-      <c r="S116" s="1">
+      <c r="S139" s="15">
         <v>0.74612400000000001</v>
       </c>
-      <c r="T116" s="1">
+      <c r="T139" s="15">
         <v>2.0864000000000001E-2</v>
       </c>
-      <c r="U116" s="1">
+      <c r="U139" s="15">
         <v>1.8238000000000001E-2</v>
       </c>
-      <c r="V116" s="1">
+      <c r="V139" s="15">
         <v>1.506E-2</v>
       </c>
-      <c r="W116" s="1">
+      <c r="W139" s="15">
         <v>1.8973E-2</v>
       </c>
     </row>
-    <row r="117" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C117" s="15" t="s">
+    <row r="140" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C140" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D140" s="15">
         <v>0.80481899999999995</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E140" s="15">
         <v>0.91506799999999999</v>
       </c>
-      <c r="F117" s="15">
+      <c r="F140" s="15">
         <v>0.85641</v>
       </c>
-      <c r="G117" s="15">
+      <c r="G140" s="15">
         <v>0.78747599999999995</v>
       </c>
-      <c r="H117" s="15">
+      <c r="H140" s="15">
         <v>1.9047000000000001E-2</v>
       </c>
-      <c r="I117" s="15">
+      <c r="I140" s="15">
         <v>1.4428E-2</v>
       </c>
-      <c r="J117" s="15">
+      <c r="J140" s="15">
         <v>1.2961E-2</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K140" s="1">
         <v>1.7257000000000002E-2</v>
       </c>
-      <c r="O117" s="1" t="s">
+      <c r="O140" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P117" s="1">
+      <c r="P140" s="1">
         <v>0.78717899999999996</v>
       </c>
-      <c r="Q117" s="1">
+      <c r="Q140" s="1">
         <v>0.867232</v>
       </c>
-      <c r="R117" s="1">
+      <c r="R140" s="1">
         <v>0.82526900000000003</v>
       </c>
-      <c r="S117" s="1">
+      <c r="S140" s="15">
         <v>0.748062</v>
       </c>
-      <c r="T117" s="1">
+      <c r="T140" s="15">
         <v>2.0539999999999999E-2</v>
       </c>
-      <c r="U117" s="1">
+      <c r="U140" s="15">
         <v>1.8696000000000001E-2</v>
       </c>
-      <c r="V117" s="1">
+      <c r="V140" s="15">
         <v>1.5096E-2</v>
       </c>
-      <c r="W117" s="1">
+      <c r="W140" s="15">
         <v>1.8862E-2</v>
       </c>
     </row>
-    <row r="118" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C118" s="15" t="s">
+    <row r="141" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C141" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D141" s="15">
         <v>0.82640599999999997</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E141" s="15">
         <v>0.92602700000000004</v>
       </c>
-      <c r="F118" s="15">
+      <c r="F141" s="15">
         <v>0.87338499999999997</v>
       </c>
-      <c r="G118" s="15">
+      <c r="G141" s="15">
         <v>0.81404200000000004</v>
       </c>
-      <c r="H118" s="15">
+      <c r="H141" s="15">
         <v>1.8457000000000001E-2</v>
       </c>
-      <c r="I118" s="15">
+      <c r="I141" s="15">
         <v>1.3977E-2</v>
       </c>
-      <c r="J118" s="15">
+      <c r="J141" s="15">
         <v>1.2739E-2</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K141" s="1">
         <v>1.7058E-2</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="O141" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P118" s="1">
+      <c r="P141" s="1">
         <v>0.79545500000000002</v>
       </c>
-      <c r="Q118" s="1">
+      <c r="Q141" s="1">
         <v>0.88983100000000004</v>
       </c>
-      <c r="R118" s="1">
+      <c r="R141" s="1">
         <v>0.84</v>
       </c>
-      <c r="S118" s="1">
+      <c r="S141" s="15">
         <v>0.76744199999999996</v>
       </c>
-      <c r="T118" s="1">
+      <c r="T141" s="15">
         <v>2.0038E-2</v>
       </c>
-      <c r="U118" s="1">
+      <c r="U141" s="15">
         <v>1.5984000000000002E-2</v>
       </c>
-      <c r="V118" s="1">
+      <c r="V141" s="15">
         <v>1.4017E-2</v>
       </c>
-      <c r="W118" s="1">
+      <c r="W141" s="15">
         <v>1.8141999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C119" s="15" t="s">
+    <row r="142" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C142" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D142" s="15">
         <v>0.81384199999999995</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E142" s="15">
         <v>0.93424700000000005</v>
       </c>
-      <c r="F119" s="15">
+      <c r="F142" s="15">
         <v>0.86989799999999995</v>
       </c>
-      <c r="G119" s="15">
+      <c r="G142" s="15">
         <v>0.80645199999999995</v>
       </c>
-      <c r="H119" s="15">
+      <c r="H142" s="15">
         <v>1.8950000000000002E-2</v>
       </c>
-      <c r="I119" s="15">
+      <c r="I142" s="15">
         <v>1.2536E-2</v>
       </c>
-      <c r="J119" s="15">
+      <c r="J142" s="15">
         <v>1.2623000000000001E-2</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K142" s="1">
         <v>1.7023E-2</v>
       </c>
-      <c r="O119" s="1" t="s">
+      <c r="O142" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P119" s="1">
+      <c r="P142" s="1">
         <v>0.78817700000000002</v>
       </c>
-      <c r="Q119" s="1">
+      <c r="Q142" s="1">
         <v>0.90395499999999995</v>
       </c>
-      <c r="R119" s="1">
+      <c r="R142" s="1">
         <v>0.84210499999999999</v>
       </c>
-      <c r="S119" s="1">
+      <c r="S142" s="15">
         <v>0.76744199999999996</v>
       </c>
-      <c r="T119" s="1">
+      <c r="T142" s="15">
         <v>2.0122000000000001E-2</v>
       </c>
-      <c r="U119" s="1">
+      <c r="U142" s="15">
         <v>1.5790999999999999E-2</v>
       </c>
-      <c r="V119" s="1">
+      <c r="V142" s="15">
         <v>1.4341E-2</v>
       </c>
-      <c r="W119" s="1">
+      <c r="W142" s="15">
         <v>1.8558000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C120" s="15" t="s">
+    <row r="143" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C143" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D143" s="15">
         <v>0.81922200000000001</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E143" s="15">
         <v>0.98082199999999997</v>
       </c>
-      <c r="F120" s="15">
+      <c r="F143" s="15">
         <v>0.89276800000000001</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G143" s="15">
         <v>0.836812</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H143" s="15">
         <v>1.8763999999999999E-2</v>
       </c>
-      <c r="I120" s="15">
+      <c r="I143" s="15">
         <v>7.0829999999999999E-3</v>
       </c>
-      <c r="J120" s="15">
+      <c r="J143" s="15">
         <v>1.1693E-2</v>
       </c>
-      <c r="K120" s="1">
+      <c r="K143" s="1">
         <v>1.6494000000000002E-2</v>
       </c>
-      <c r="O120" s="1" t="s">
+      <c r="O143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P143" s="1">
         <v>0.79196200000000005</v>
       </c>
-      <c r="Q120" s="1">
+      <c r="Q143" s="1">
         <v>0.94632799999999995</v>
       </c>
-      <c r="R120" s="1">
+      <c r="R143" s="1">
         <v>0.86229100000000003</v>
       </c>
-      <c r="S120" s="1">
+      <c r="S143" s="15">
         <v>0.79263600000000001</v>
       </c>
-      <c r="T120" s="1">
+      <c r="T143" s="15">
         <v>1.9883000000000001E-2</v>
       </c>
-      <c r="U120" s="1">
+      <c r="U143" s="15">
         <v>1.2087000000000001E-2</v>
       </c>
-      <c r="V120" s="1">
+      <c r="V143" s="15">
         <v>1.3417E-2</v>
       </c>
-      <c r="W120" s="1">
+      <c r="W143" s="15">
         <v>1.7977E-2</v>
       </c>
     </row>
-    <row r="121" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C121" s="15" t="s">
+    <row r="144" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C144" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D144" s="15">
         <v>0.84412500000000001</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E144" s="15">
         <v>0.96438400000000002</v>
       </c>
-      <c r="F121" s="15">
+      <c r="F144" s="15">
         <v>0.90025599999999995</v>
       </c>
-      <c r="G121" s="15">
+      <c r="G144" s="15">
         <v>0.85199199999999997</v>
       </c>
-      <c r="H121" s="15">
+      <c r="H144" s="15">
         <v>1.7943000000000001E-2</v>
       </c>
-      <c r="I121" s="15">
+      <c r="I144" s="15">
         <v>9.5060000000000006E-3</v>
       </c>
-      <c r="J121" s="15">
+      <c r="J144" s="15">
         <v>1.1183E-2</v>
       </c>
-      <c r="K121" s="1">
+      <c r="K144" s="1">
         <v>1.5491E-2</v>
       </c>
-      <c r="O121" s="1" t="s">
+      <c r="O144" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P144" s="1">
         <v>0.81067999999999996</v>
       </c>
-      <c r="Q121" s="1">
+      <c r="Q144" s="1">
         <v>0.94350299999999998</v>
       </c>
-      <c r="R121" s="1">
+      <c r="R144" s="1">
         <v>0.87206300000000003</v>
       </c>
-      <c r="S121" s="1">
+      <c r="S144" s="15">
         <v>0.81007799999999996</v>
       </c>
-      <c r="T121" s="1">
+      <c r="T144" s="15">
         <v>1.883E-2</v>
       </c>
-      <c r="U121" s="1">
+      <c r="U144" s="15">
         <v>1.2348E-2</v>
       </c>
-      <c r="V121" s="1">
+      <c r="V144" s="15">
         <v>1.2671999999999999E-2</v>
       </c>
-      <c r="W121" s="1">
+      <c r="W144" s="15">
         <v>1.6840999999999998E-2</v>
       </c>
     </row>
-    <row r="122" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C122" s="15" t="s">
+    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C145" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D145" s="15">
         <v>0.81506800000000001</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E145" s="15">
         <v>0.97808200000000001</v>
       </c>
-      <c r="F122" s="15">
+      <c r="F145" s="15">
         <v>0.88916600000000001</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G145" s="15">
         <v>0.83111999999999997</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H145" s="15">
         <v>1.8676000000000002E-2</v>
       </c>
-      <c r="I122" s="15">
+      <c r="I145" s="15">
         <v>7.6229999999999996E-3</v>
       </c>
-      <c r="J122" s="15">
+      <c r="J145" s="15">
         <v>1.1688E-2</v>
       </c>
-      <c r="K122" s="1">
+      <c r="K145" s="1">
         <v>1.6442999999999999E-2</v>
       </c>
-      <c r="O122" s="1" t="s">
+      <c r="O145" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P145" s="1">
         <v>0.77701100000000001</v>
       </c>
-      <c r="Q122" s="1">
+      <c r="Q145" s="1">
         <v>0.95480200000000004</v>
       </c>
-      <c r="R122" s="1">
+      <c r="R145" s="1">
         <v>0.85678100000000001</v>
       </c>
-      <c r="S122" s="1">
+      <c r="S145" s="15">
         <v>0.78100800000000004</v>
       </c>
-      <c r="T122" s="1">
+      <c r="T145" s="15">
         <v>1.9709999999999998E-2</v>
       </c>
-      <c r="U122" s="1">
+      <c r="U145" s="15">
         <v>1.1509999999999999E-2</v>
       </c>
-      <c r="V122" s="1">
+      <c r="V145" s="15">
         <v>1.3445E-2</v>
       </c>
-      <c r="W122" s="1">
+      <c r="W145" s="15">
         <v>1.8061000000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C123" s="15" t="s">
+    <row r="146" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C146" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D146" s="15">
         <v>0.81093400000000004</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E146" s="15">
         <v>0.97534200000000004</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F146" s="15">
         <v>0.88557200000000003</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G146" s="15">
         <v>0.82542700000000002</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H146" s="15">
         <v>1.8513000000000002E-2</v>
       </c>
-      <c r="I123" s="15">
+      <c r="I146" s="15">
         <v>7.9729999999999992E-3</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J146" s="15">
         <v>1.1714E-2</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K146" s="1">
         <v>1.6428000000000002E-2</v>
       </c>
-      <c r="O123" s="1" t="s">
+      <c r="O146" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P123" s="1">
+      <c r="P146" s="1">
         <v>0.76887899999999998</v>
       </c>
-      <c r="Q123" s="1">
+      <c r="Q146" s="1">
         <v>0.94915300000000002</v>
       </c>
-      <c r="R123" s="1">
+      <c r="R146" s="1">
         <v>0.84955800000000004</v>
       </c>
-      <c r="S123" s="1">
+      <c r="S146" s="15">
         <v>0.76937999999999995</v>
       </c>
-      <c r="T123" s="1">
+      <c r="T146" s="15">
         <v>1.9848999999999999E-2</v>
       </c>
-      <c r="U123" s="1">
+      <c r="U146" s="15">
         <v>1.1915E-2</v>
       </c>
-      <c r="V123" s="1">
+      <c r="V146" s="15">
         <v>1.3611E-2</v>
       </c>
-      <c r="W123" s="1">
+      <c r="W146" s="15">
         <v>1.8245000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C124" s="15" t="s">
+    <row r="147" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C147" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D147" s="15">
         <v>0.81797200000000003</v>
       </c>
-      <c r="E124" s="15">
+      <c r="E147" s="15">
         <v>0.972603</v>
       </c>
-      <c r="F124" s="15">
+      <c r="F147" s="15">
         <v>0.88861100000000004</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G147" s="15">
         <v>0.83111999999999997</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H147" s="15">
         <v>1.8504E-2</v>
       </c>
-      <c r="I124" s="15">
+      <c r="I147" s="15">
         <v>8.3099999999999997E-3</v>
       </c>
-      <c r="J124" s="15">
+      <c r="J147" s="15">
         <v>1.1642E-2</v>
       </c>
-      <c r="K124" s="1">
+      <c r="K147" s="1">
         <v>1.6278999999999998E-2</v>
       </c>
-      <c r="O124" s="1" t="s">
+      <c r="O147" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P124" s="1">
+      <c r="P147" s="1">
         <v>0.78271000000000002</v>
       </c>
-      <c r="Q124" s="1">
+      <c r="Q147" s="1">
         <v>0.94632799999999995</v>
       </c>
-      <c r="R124" s="1">
+      <c r="R147" s="1">
         <v>0.85677700000000001</v>
       </c>
-      <c r="S124" s="1">
+      <c r="S147" s="15">
         <v>0.78294600000000003</v>
       </c>
-      <c r="T124" s="1">
+      <c r="T147" s="15">
         <v>1.9637000000000002E-2</v>
       </c>
-      <c r="U124" s="1">
+      <c r="U147" s="15">
         <v>1.2073E-2</v>
       </c>
-      <c r="V124" s="1">
+      <c r="V147" s="15">
         <v>1.338E-2</v>
       </c>
-      <c r="W124" s="1">
+      <c r="W147" s="15">
         <v>1.7850000000000001E-2</v>
       </c>
     </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-    </row>
-    <row r="160" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -12310,43 +16018,154 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+    <row r="183" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="C144:L153">
-    <sortCondition ref="L144"/>
+  <sortState ref="AH103:AL114">
+    <sortCondition ref="AH103"/>
   </sortState>
-  <mergeCells count="17">
+  <mergeCells count="28">
+    <mergeCell ref="C92:F92"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="O36:R36"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S35:Z35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K92:N92"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="K1:R1"/>
@@ -12362,6 +16181,7 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/F1_charts.xlsx
+++ b/results/F1_charts.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\majikthise\MLP_Group_Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C81D5D79-3D80-48F0-9D20-AA1EE6A762F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0EB0037C-9DA7-4547-BA2B-76F3540B288D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{2F3F741A-CBA9-4CBB-A57F-C0FAE37D0066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="124">
   <si>
     <t>precision</t>
   </si>
@@ -216,6 +218,15 @@
     <t>Results</t>
   </si>
   <si>
+    <t>COLA DEV</t>
+  </si>
+  <si>
+    <t>COLA TEST</t>
+  </si>
+  <si>
+    <t>HATE DEV</t>
+  </si>
+  <si>
     <t>TWITTER (BALANCED)</t>
   </si>
   <si>
@@ -245,15 +256,161 @@
   <si>
     <t>Results (aggregated)</t>
   </si>
+  <si>
+    <t>bert_medium_rand_agg</t>
+  </si>
+  <si>
+    <t>bert_rand_agg</t>
+  </si>
+  <si>
+    <t>roberta_rand_agg</t>
+  </si>
+  <si>
+    <t>p-value for inter_wtd_avg being better than straight_avg_baseline: 0.234</t>
+  </si>
+  <si>
+    <t>p-value for inter_modal_vote being better than majority_baseline: 0.915</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_dev_agg</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_dev_agg</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_dev_agg</t>
+  </si>
+  <si>
+    <t>HATE TEST</t>
+  </si>
+  <si>
+    <t>p-value for inter_modal_vote being better than majority_baseline: 0.944</t>
+  </si>
+  <si>
+    <t>p-value for inter_wtd_avg being better than straight_avg_baseline: 0.868</t>
+  </si>
+  <si>
+    <t>cola_bert_medium_rand_test_agg</t>
+  </si>
+  <si>
+    <t>cola_bert_rand_test_agg</t>
+  </si>
+  <si>
+    <t>cola_roberta_rand_test_agg</t>
+  </si>
+  <si>
+    <t>p-value for inter_modal_vote being better than majority_baseline: 0.991</t>
+  </si>
+  <si>
+    <t>p-value for inter_wtd_avg being better than straight_avg_baseline: 0.278</t>
+  </si>
+  <si>
+    <t>comb_inter_modal_vote</t>
+  </si>
+  <si>
+    <t>comb_inter_wtd_avg</t>
+  </si>
+  <si>
+    <t>inter modal</t>
+  </si>
+  <si>
+    <t>inter wtd avg</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Bert med 1</t>
+  </si>
+  <si>
+    <t>Bert med 2</t>
+  </si>
+  <si>
+    <t>Bert med 3</t>
+  </si>
+  <si>
+    <t>Roberta 1</t>
+  </si>
+  <si>
+    <t>Roberta 2</t>
+  </si>
+  <si>
+    <t>Roberta 3</t>
+  </si>
+  <si>
+    <t>Bert 1</t>
+  </si>
+  <si>
+    <t>Bert 2</t>
+  </si>
+  <si>
+    <t>Bert 3</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Correct?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>UNIFICATION</t>
+  </si>
+  <si>
+    <t>BERT:</t>
+  </si>
+  <si>
+    <t>RoBERTa:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode=";;;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +433,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +496,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +849,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,6 +938,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9848,6 +10162,474 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33341</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5033967</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>649629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE77072-FFC5-43D5-81F4-3D6D7720CF49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214691" y="1687854"/>
+          <a:ext cx="5000626" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33341</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5014916</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>678206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7257951A-8235-4FEB-97DC-1EB8B9443A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214691" y="2421281"/>
+          <a:ext cx="4981575" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52390</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5005390</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>652526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6D5195-41B9-4B78-A5C7-1FD6273E4CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3233740" y="3843401"/>
+          <a:ext cx="4953000" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5038727</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>649631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE7EE9B-F585-417E-834F-932284CA26DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228976" y="3145181"/>
+          <a:ext cx="4991101" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33341</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5014916</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>643000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3F8A13-7C7A-4AC6-A667-4C8EBC5CCC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214691" y="4557775"/>
+          <a:ext cx="4981575" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42866</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5024441</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A12412-8641-4132-8EAF-07CF9A236E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4214816" y="1161624"/>
+          <a:ext cx="4981575" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42866</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5005391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>616766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0BA726-6019-4BEC-B8DE-C2B9DB69E630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3224216" y="5979341"/>
+          <a:ext cx="4962525" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5010150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>654454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E49393B-5A43-4F3B-BCFB-6DD97255030D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1892704"/>
+          <a:ext cx="4972050" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5057775" cy="657225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F286E0-967B-44C4-9388-5498C24CF1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4205290" y="6838950"/>
+          <a:ext cx="5057775" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Arrow: Down 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F1C967-EFE6-44A8-B0E9-89D737AB8C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439650" y="10763250"/>
+          <a:ext cx="257175" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="44000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10148,10 +10930,10 @@
   <dimension ref="A1:AO204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="1" bestFit="1" customWidth="1"/>
@@ -10166,7 +10948,7 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="C1" s="38" t="s">
         <v>62</v>
       </c>
@@ -10188,7 +10970,7 @@
       <c r="Q1" s="39"/>
       <c r="R1" s="40"/>
       <c r="S1" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" s="39"/>
       <c r="U1" s="39"/>
@@ -10198,7 +10980,7 @@
       <c r="Y1" s="39"/>
       <c r="Z1" s="40"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
@@ -10239,7 +11021,7 @@
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -10313,7 +11095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -10377,7 +11159,7 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="44"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
@@ -10439,7 +11221,7 @@
       <c r="Y5" s="53"/>
       <c r="Z5" s="54"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="34"/>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -10501,7 +11283,7 @@
       <c r="Y6" s="53"/>
       <c r="Z6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
@@ -10563,7 +11345,7 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="49"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -10625,7 +11407,7 @@
       <c r="Y8" s="53"/>
       <c r="Z8" s="54"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="34"/>
       <c r="B9" s="7" t="s">
         <v>5</v>
@@ -10687,7 +11469,7 @@
       <c r="Y9" s="53"/>
       <c r="Z9" s="54"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -10749,7 +11531,7 @@
       <c r="Y10" s="48"/>
       <c r="Z10" s="49"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -10811,7 +11593,7 @@
       <c r="Y11" s="53"/>
       <c r="Z11" s="54"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="34"/>
       <c r="B12" s="11" t="s">
         <v>6</v>
@@ -10873,7 +11655,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="57"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
@@ -10929,7 +11711,7 @@
         <v>2.6325000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="34"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
@@ -10967,7 +11749,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="35"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
@@ -11021,7 +11803,7 @@
         <v>2.5812000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="36" t="s">
         <v>11</v>
       </c>
@@ -11077,7 +11859,7 @@
         <v>2.7033999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="31"/>
       <c r="B17" s="7" t="s">
         <v>14</v>
@@ -11131,7 +11913,7 @@
         <v>2.6856999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="31"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -11185,7 +11967,7 @@
         <v>2.7206000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="31"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
@@ -11239,7 +12021,7 @@
         <v>2.7005999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>17</v>
@@ -11293,7 +12075,7 @@
         <v>2.7727000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="31" t="s">
         <v>12</v>
       </c>
@@ -11349,7 +12131,7 @@
         <v>2.5895000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="31"/>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -11403,7 +12185,7 @@
         <v>2.4805000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="31"/>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -11457,7 +12239,7 @@
         <v>2.5812000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="31"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
@@ -11511,7 +12293,7 @@
         <v>2.5786E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="32"/>
       <c r="B25" s="11" t="s">
         <v>17</v>
@@ -11565,7 +12347,7 @@
         <v>2.5829999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -11575,7 +12357,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -11585,7 +12367,7 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -11595,7 +12377,7 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -11605,7 +12387,7 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -11615,7 +12397,7 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -11625,7 +12407,7 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
@@ -11635,7 +12417,7 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -11645,7 +12427,7 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -11655,7 +12437,7 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="C35" s="38" t="s">
         <v>62</v>
       </c>
@@ -11677,7 +12459,7 @@
       <c r="Q35" s="39"/>
       <c r="R35" s="40"/>
       <c r="S35" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T35" s="39"/>
       <c r="U35" s="39"/>
@@ -11687,7 +12469,7 @@
       <c r="Y35" s="39"/>
       <c r="Z35" s="40"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="24" t="s">
         <v>22</v>
       </c>
@@ -11728,7 +12510,7 @@
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -11802,7 +12584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="18" t="s">
         <v>9</v>
       </c>
@@ -11866,7 +12648,7 @@
       <c r="Y38" s="43"/>
       <c r="Z38" s="44"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="20"/>
       <c r="B39" s="7" t="s">
         <v>4</v>
@@ -11928,7 +12710,7 @@
       <c r="Y39" s="53"/>
       <c r="Z39" s="54"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="20"/>
       <c r="B40" s="7" t="s">
         <v>4</v>
@@ -11990,7 +12772,7 @@
       <c r="Y40" s="53"/>
       <c r="Z40" s="54"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="20"/>
       <c r="B41" s="7" t="s">
         <v>5</v>
@@ -12052,7 +12834,7 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="49"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
         <v>5</v>
@@ -12114,7 +12896,7 @@
       <c r="Y42" s="53"/>
       <c r="Z42" s="54"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="20"/>
       <c r="B43" s="7" t="s">
         <v>5</v>
@@ -12176,7 +12958,7 @@
       <c r="Y43" s="53"/>
       <c r="Z43" s="54"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="20"/>
       <c r="B44" s="7" t="s">
         <v>6</v>
@@ -12238,7 +13020,7 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="49"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="20"/>
       <c r="B45" s="7" t="s">
         <v>6</v>
@@ -12300,7 +13082,7 @@
       <c r="Y45" s="53"/>
       <c r="Z45" s="54"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="20"/>
       <c r="B46" s="7" t="s">
         <v>6</v>
@@ -12362,7 +13144,7 @@
       <c r="Y46" s="56"/>
       <c r="Z46" s="57"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="18" t="s">
         <v>10</v>
       </c>
@@ -12418,7 +13200,7 @@
         <v>1.8155000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="21"/>
       <c r="B48" s="11" t="s">
         <v>8</v>
@@ -12472,7 +13254,7 @@
         <v>1.7911E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="18" t="s">
         <v>11</v>
       </c>
@@ -12528,7 +13310,7 @@
         <v>1.8405000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>14</v>
@@ -12582,7 +13364,7 @@
         <v>1.8973E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>15</v>
@@ -12636,7 +13418,7 @@
         <v>1.8862E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>16</v>
@@ -12690,7 +13472,7 @@
         <v>1.8141999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="21"/>
       <c r="B53" s="21" t="s">
         <v>17</v>
@@ -12744,7 +13526,7 @@
         <v>1.8547000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="18" t="s">
         <v>12</v>
       </c>
@@ -12800,7 +13582,7 @@
         <v>1.8096999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>14</v>
@@ -12854,7 +13636,7 @@
         <v>1.6840999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>15</v>
@@ -12908,7 +13690,7 @@
         <v>1.8061000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>16</v>
@@ -12962,7 +13744,7 @@
         <v>1.8245000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="21"/>
       <c r="B58" s="21" t="s">
         <v>17</v>
@@ -13016,7 +13798,7 @@
         <v>1.7784000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="24" t="s">
         <v>44</v>
       </c>
@@ -13033,13 +13815,13 @@
       <c r="I64" s="29"/>
       <c r="J64" s="30"/>
       <c r="K64" s="38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="40"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="C65" s="22" t="s">
         <v>0</v>
       </c>
@@ -13077,7 +13859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -13117,7 +13899,7 @@
       <c r="Q66" s="41"/>
       <c r="R66" s="41"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="20"/>
       <c r="B67" s="7" t="s">
         <v>4</v>
@@ -13151,7 +13933,7 @@
       <c r="M67" s="45"/>
       <c r="N67" s="46"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="20"/>
       <c r="B68" s="7" t="s">
         <v>4</v>
@@ -13185,7 +13967,7 @@
       <c r="M68" s="45"/>
       <c r="N68" s="46"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
         <v>5</v>
@@ -13219,7 +14001,7 @@
       <c r="M69" s="48"/>
       <c r="N69" s="49"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>5</v>
@@ -13253,7 +14035,7 @@
       <c r="M70" s="45"/>
       <c r="N70" s="46"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
         <v>5</v>
@@ -13287,7 +14069,7 @@
       <c r="M71" s="45"/>
       <c r="N71" s="46"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="20"/>
       <c r="B72" s="7" t="s">
         <v>6</v>
@@ -13321,7 +14103,7 @@
       <c r="M72" s="48"/>
       <c r="N72" s="49"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
         <v>6</v>
@@ -13355,7 +14137,7 @@
       <c r="M73" s="45"/>
       <c r="N73" s="46"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="21"/>
       <c r="B74" s="11" t="s">
         <v>6</v>
@@ -13389,7 +14171,7 @@
       <c r="M74" s="50"/>
       <c r="N74" s="51"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="18" t="s">
         <v>10</v>
       </c>
@@ -13421,7 +14203,7 @@
         <v>2.0160999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="21"/>
       <c r="B76" s="11" t="s">
         <v>8</v>
@@ -13451,7 +14233,7 @@
         <v>2.0034E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="18" t="s">
         <v>11</v>
       </c>
@@ -13483,7 +14265,7 @@
         <v>2.0455999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="20"/>
       <c r="B78" s="7" t="s">
         <v>14</v>
@@ -13513,7 +14295,7 @@
         <v>2.0728E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="20"/>
       <c r="B79" s="7" t="s">
         <v>15</v>
@@ -13544,7 +14326,7 @@
       </c>
       <c r="P79" s="23"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="20"/>
       <c r="B80" s="7" t="s">
         <v>16</v>
@@ -13575,7 +14357,7 @@
       </c>
       <c r="P80" s="23"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="21"/>
       <c r="B81" s="11" t="s">
         <v>17</v>
@@ -13606,7 +14388,7 @@
       </c>
       <c r="P81" s="23"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="18" t="s">
         <v>12</v>
       </c>
@@ -13639,7 +14421,7 @@
       </c>
       <c r="P82" s="23"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
         <v>14</v>
@@ -13670,7 +14452,7 @@
       </c>
       <c r="P83" s="23"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="20"/>
       <c r="B84" s="7" t="s">
         <v>15</v>
@@ -13701,7 +14483,7 @@
       </c>
       <c r="P84" s="23"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="20"/>
       <c r="B85" s="7" t="s">
         <v>16</v>
@@ -13732,7 +14514,7 @@
       </c>
       <c r="P85" s="23"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="21"/>
       <c r="B86" s="11" t="s">
         <v>17</v>
@@ -13763,26 +14545,26 @@
       </c>
       <c r="P86" s="23"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="K87" s="23"/>
       <c r="P87" s="23"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="C88" s="37"/>
       <c r="K88" s="23"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="C89" s="37"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="C90" s="37"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="C91" s="37"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>62</v>
@@ -13797,13 +14579,13 @@
       <c r="I92" s="29"/>
       <c r="J92" s="30"/>
       <c r="K92" s="38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L92" s="39"/>
       <c r="M92" s="39"/>
       <c r="N92" s="40"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="C93" s="22" t="s">
         <v>0</v>
       </c>
@@ -13841,7 +14623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="18" t="s">
         <v>9</v>
       </c>
@@ -13877,7 +14659,7 @@
       <c r="M94" s="43"/>
       <c r="N94" s="44"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="20"/>
       <c r="B95" s="7" t="s">
         <v>4</v>
@@ -13911,7 +14693,7 @@
       <c r="M95" s="45"/>
       <c r="N95" s="46"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="20"/>
       <c r="B96" s="7" t="s">
         <v>4</v>
@@ -13945,7 +14727,7 @@
       <c r="M96" s="45"/>
       <c r="N96" s="46"/>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41">
       <c r="A97" s="20"/>
       <c r="B97" s="7" t="s">
         <v>5</v>
@@ -13979,7 +14761,7 @@
       <c r="M97" s="48"/>
       <c r="N97" s="49"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41">
       <c r="A98" s="20"/>
       <c r="B98" s="7" t="s">
         <v>5</v>
@@ -14013,7 +14795,7 @@
       <c r="M98" s="45"/>
       <c r="N98" s="46"/>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41">
       <c r="A99" s="20"/>
       <c r="B99" s="7" t="s">
         <v>5</v>
@@ -14047,7 +14829,7 @@
       <c r="M99" s="45"/>
       <c r="N99" s="46"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41">
       <c r="A100" s="20"/>
       <c r="B100" s="7" t="s">
         <v>6</v>
@@ -14081,7 +14863,7 @@
       <c r="M100" s="48"/>
       <c r="N100" s="49"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41">
       <c r="A101" s="20"/>
       <c r="B101" s="7" t="s">
         <v>6</v>
@@ -14115,7 +14897,7 @@
       <c r="M101" s="45"/>
       <c r="N101" s="46"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41">
       <c r="A102" s="21"/>
       <c r="B102" s="11" t="s">
         <v>6</v>
@@ -14149,25 +14931,25 @@
       <c r="M102" s="50"/>
       <c r="N102" s="51"/>
       <c r="AJ102" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AM102" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AN102" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AO102" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
       <c r="A103" s="18" t="s">
         <v>10</v>
       </c>
@@ -14199,7 +14981,7 @@
         <v>4.2895000000000003E-2</v>
       </c>
       <c r="AI103" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AJ103" s="1">
         <v>0.67129167999999995</v>
@@ -14222,7 +15004,7 @@
         <v>8.4264320000000059E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41">
       <c r="A104" s="21"/>
       <c r="B104" s="11" t="s">
         <v>8</v>
@@ -14252,7 +15034,7 @@
         <v>4.3345000000000002E-2</v>
       </c>
       <c r="AI104" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ104" s="1">
         <v>0.66432055999999995</v>
@@ -14275,7 +15057,7 @@
         <v>8.5679440000000051E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41">
       <c r="A105" s="18" t="s">
         <v>11</v>
       </c>
@@ -14307,7 +15089,7 @@
         <v>4.5483999999999997E-2</v>
       </c>
       <c r="AI105" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AJ105" s="1">
         <v>0.61210735999999999</v>
@@ -14330,7 +15112,7 @@
         <v>9.189263999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41">
       <c r="A106" s="20"/>
       <c r="B106" s="7" t="s">
         <v>14</v>
@@ -14360,7 +15142,7 @@
         <v>4.3711E-2</v>
       </c>
       <c r="AI106" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ106" s="1">
         <v>0.69275344000000005</v>
@@ -14383,7 +15165,7 @@
         <v>8.0969559999999996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41">
       <c r="A107" s="20"/>
       <c r="B107" s="7" t="s">
         <v>15</v>
@@ -14413,7 +15195,7 @@
         <v>4.437E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41">
       <c r="A108" s="20"/>
       <c r="B108" s="7" t="s">
         <v>16</v>
@@ -14443,7 +15225,7 @@
         <v>4.3577999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41">
       <c r="A109" s="21"/>
       <c r="B109" s="11" t="s">
         <v>17</v>
@@ -14473,7 +15255,7 @@
         <v>4.2641999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41">
       <c r="A110" s="18" t="s">
         <v>12</v>
       </c>
@@ -14505,7 +15287,7 @@
         <v>4.4722999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41">
       <c r="A111" s="20"/>
       <c r="B111" s="7" t="s">
         <v>14</v>
@@ -14535,7 +15317,7 @@
         <v>4.4386000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41">
       <c r="A112" s="20"/>
       <c r="B112" s="7" t="s">
         <v>15</v>
@@ -14565,7 +15347,7 @@
         <v>4.3343E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23">
       <c r="A113" s="20"/>
       <c r="B113" s="7" t="s">
         <v>16</v>
@@ -14595,7 +15377,7 @@
         <v>3.9345999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23">
       <c r="A114" s="21"/>
       <c r="B114" s="11" t="s">
         <v>17</v>
@@ -14625,22 +15407,22 @@
         <v>4.2096000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23">
       <c r="C115" s="37"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23">
       <c r="C116" s="37"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23">
       <c r="C117" s="37"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23">
       <c r="C118" s="37"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23">
       <c r="C119" s="37"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23">
       <c r="A125" s="1" t="s">
         <v>61</v>
       </c>
@@ -14651,7 +15433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23">
       <c r="C126" s="1" t="s">
         <v>23</v>
       </c>
@@ -14707,7 +15489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23">
       <c r="C127" s="15" t="s">
         <v>24</v>
       </c>
@@ -14763,7 +15545,7 @@
         <v>1.9812E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23">
       <c r="C128" s="15" t="s">
         <v>25</v>
       </c>
@@ -14819,7 +15601,7 @@
         <v>1.8782E-2</v>
       </c>
     </row>
-    <row r="129" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:23">
       <c r="C129" s="15" t="s">
         <v>26</v>
       </c>
@@ -14875,7 +15657,7 @@
         <v>1.8862E-2</v>
       </c>
     </row>
-    <row r="130" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:23">
       <c r="C130" s="15" t="s">
         <v>27</v>
       </c>
@@ -14931,7 +15713,7 @@
         <v>1.7541999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:23">
       <c r="C131" s="15" t="s">
         <v>28</v>
       </c>
@@ -14987,7 +15769,7 @@
         <v>1.7297E-2</v>
       </c>
     </row>
-    <row r="132" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:23">
       <c r="C132" s="15" t="s">
         <v>29</v>
       </c>
@@ -15043,7 +15825,7 @@
         <v>1.7448000000000002E-2</v>
       </c>
     </row>
-    <row r="133" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:23">
       <c r="C133" s="15" t="s">
         <v>30</v>
       </c>
@@ -15099,7 +15881,7 @@
         <v>1.6500999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:23">
       <c r="C134" s="15" t="s">
         <v>31</v>
       </c>
@@ -15155,7 +15937,7 @@
         <v>2.0544E-2</v>
       </c>
     </row>
-    <row r="135" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:23">
       <c r="C135" s="15" t="s">
         <v>32</v>
       </c>
@@ -15211,7 +15993,7 @@
         <v>2.0544E-2</v>
       </c>
     </row>
-    <row r="136" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:23">
       <c r="C136" s="15" t="s">
         <v>33</v>
       </c>
@@ -15267,7 +16049,7 @@
         <v>1.8155000000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:23">
       <c r="C137" s="15" t="s">
         <v>34</v>
       </c>
@@ -15323,7 +16105,7 @@
         <v>1.7911E-2</v>
       </c>
     </row>
-    <row r="138" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:23">
       <c r="C138" s="15" t="s">
         <v>35</v>
       </c>
@@ -15379,7 +16161,7 @@
         <v>1.8173000000000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:23">
       <c r="C139" s="15" t="s">
         <v>37</v>
       </c>
@@ -15435,7 +16217,7 @@
         <v>1.8973E-2</v>
       </c>
     </row>
-    <row r="140" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:23">
       <c r="C140" s="15" t="s">
         <v>39</v>
       </c>
@@ -15491,7 +16273,7 @@
         <v>1.8862E-2</v>
       </c>
     </row>
-    <row r="141" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:23">
       <c r="C141" s="15" t="s">
         <v>41</v>
       </c>
@@ -15547,7 +16329,7 @@
         <v>1.8141999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:23">
       <c r="C142" s="15" t="s">
         <v>43</v>
       </c>
@@ -15603,7 +16385,7 @@
         <v>1.8558000000000002E-2</v>
       </c>
     </row>
-    <row r="143" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:23">
       <c r="C143" s="15" t="s">
         <v>36</v>
       </c>
@@ -15659,7 +16441,7 @@
         <v>1.7977E-2</v>
       </c>
     </row>
-    <row r="144" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:23">
       <c r="C144" s="15" t="s">
         <v>38</v>
       </c>
@@ -15715,7 +16497,7 @@
         <v>1.6840999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:23">
       <c r="C145" s="15" t="s">
         <v>40</v>
       </c>
@@ -15771,7 +16553,7 @@
         <v>1.8061000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:23">
       <c r="C146" s="15" t="s">
         <v>42</v>
       </c>
@@ -15827,7 +16609,7 @@
         <v>1.8245000000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:23">
       <c r="C147" s="15" t="s">
         <v>43</v>
       </c>
@@ -15883,267 +16665,267 @@
         <v>1.7850000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23">
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:23">
       <c r="C155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:23">
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:23">
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:23">
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:23">
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:23">
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:10">
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:10">
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:10">
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:10">
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:10">
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:10">
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:10">
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:10">
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:10">
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:10">
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:10">
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:10">
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:10">
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:10">
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:10">
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:10">
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="183" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:10">
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:10">
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:10">
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:10">
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:10">
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:10">
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:10">
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:10">
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:10">
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:10">
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:10">
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:10">
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:10">
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:10">
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:10">
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:10">
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:10">
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:10">
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:10">
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:10">
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:10">
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:10">
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -16187,4 +16969,2447 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB888B2-DBAA-4080-BE1A-8C279A96D120}">
+  <dimension ref="A5:L123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="58"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>0.17061000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.548512</v>
+      </c>
+      <c r="E9">
+        <v>0.25841599999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.69268600000000002</v>
+      </c>
+      <c r="G9">
+        <v>3.1074000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.123366</v>
+      </c>
+      <c r="I9">
+        <v>4.4451999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.4481999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>0.13571900000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.81946699999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.23169899999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.46012900000000001</v>
+      </c>
+      <c r="G10">
+        <v>2.0662E-2</v>
+      </c>
+      <c r="H10">
+        <v>9.3379000000000004E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.9829999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>7.9947000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0.15648200000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.86957899999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.26456099999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.52093400000000001</v>
+      </c>
+      <c r="G11">
+        <v>2.2779000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.4810000000000003E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.3196999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <v>4.4955000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>0.17832200000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.29565200000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G12">
+        <v>2.2585000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>4.5352999999999997E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.2042000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0.18021200000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.86440700000000004</v>
+      </c>
+      <c r="E13">
+        <v>0.29824600000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>2.2461999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.5005000000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.1709000000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.9629000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>0.16423399999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.76271199999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.27027000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G14">
+        <v>2.248E-2</v>
+      </c>
+      <c r="H14">
+        <v>5.6798000000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>3.2190000000000003E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.0209999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>0.18439700000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.88135600000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.30498500000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G15">
+        <v>2.2741000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>4.3339000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.1951E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.9733000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20">
+        <v>0.71333199999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.88758099999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.79027999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.76648700000000003</v>
+      </c>
+      <c r="G20">
+        <v>4.0982999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.0831999999999998E-2</v>
+      </c>
+      <c r="I20">
+        <v>3.0676999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>3.3315999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <v>0.75436700000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.85194599999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.79937800000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.78833299999999995</v>
+      </c>
+      <c r="G21">
+        <v>3.9045999999999997E-2</v>
+      </c>
+      <c r="H21">
+        <v>3.7879999999999997E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.9253000000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>2.8475E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>0.70602200000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.82227899999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.75905599999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.74160400000000004</v>
+      </c>
+      <c r="G22">
+        <v>3.8339999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>3.8341E-2</v>
+      </c>
+      <c r="I22">
+        <v>3.1447999999999997E-2</v>
+      </c>
+      <c r="J22">
+        <v>3.0359000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>0.75</v>
+      </c>
+      <c r="D23">
+        <v>0.88235300000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.81081099999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.79497899999999999</v>
+      </c>
+      <c r="G23">
+        <v>3.4916999999999997E-2</v>
+      </c>
+      <c r="H23">
+        <v>3.0952E-2</v>
+      </c>
+      <c r="I23">
+        <v>2.6811999999999999E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.6325000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>0.76428600000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.89915999999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.82625499999999996</v>
+      </c>
+      <c r="F24">
+        <v>0.81171499999999996</v>
+      </c>
+      <c r="G24">
+        <v>3.4907000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.5928E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.5812000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>0.69230800000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.90756300000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.78545500000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.75313799999999997</v>
+      </c>
+      <c r="G25">
+        <v>3.5693999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>2.751E-2</v>
+      </c>
+      <c r="I25">
+        <v>2.6959E-2</v>
+      </c>
+      <c r="J25">
+        <v>2.7727000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>0.753521</v>
+      </c>
+      <c r="D26">
+        <v>0.89915999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.81992299999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.80334700000000003</v>
+      </c>
+      <c r="G26">
+        <v>3.4483E-2</v>
+      </c>
+      <c r="H26">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.5853000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>2.5829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>0.76452399999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.90906399999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.74372700000000003</v>
+      </c>
+      <c r="G33">
+        <v>3.2365999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>3.3767999999999999E-2</v>
+      </c>
+      <c r="I33">
+        <v>1.5713999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>2.4294E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>0.82271099999999997</v>
+      </c>
+      <c r="D34">
+        <v>0.91708299999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.86668599999999996</v>
+      </c>
+      <c r="F34">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="G34">
+        <v>2.4447E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.1007E-2</v>
+      </c>
+      <c r="I34">
+        <v>1.3849E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.7534000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>0.73191799999999996</v>
+      </c>
+      <c r="D35">
+        <v>0.97926100000000005</v>
+      </c>
+      <c r="E35">
+        <v>0.83472900000000005</v>
+      </c>
+      <c r="F35">
+        <v>0.73055400000000004</v>
+      </c>
+      <c r="G35">
+        <v>6.7563999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>3.2709000000000002E-2</v>
+      </c>
+      <c r="J35">
+        <v>6.5531000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>0.77397300000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.85606099999999996</v>
+      </c>
+      <c r="F36">
+        <v>0.77907000000000004</v>
+      </c>
+      <c r="G36">
+        <v>1.9833E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.1106E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.8155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>0.77930999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.95762700000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.85931599999999997</v>
+      </c>
+      <c r="F37">
+        <v>0.78488400000000003</v>
+      </c>
+      <c r="G37">
+        <v>1.9637999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.1047E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.3309E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.7911E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0.77512000000000003</v>
+      </c>
+      <c r="D38">
+        <v>0.91525400000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.83937799999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.75968999999999998</v>
+      </c>
+      <c r="G38">
+        <v>2.0240999999999999E-2</v>
+      </c>
+      <c r="H38">
+        <v>1.5179E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.4246999999999999E-2</v>
+      </c>
+      <c r="J38">
+        <v>1.8547000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.78554800000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.95197699999999996</v>
+      </c>
+      <c r="E39">
+        <v>0.860792</v>
+      </c>
+      <c r="F39">
+        <v>0.78876000000000002</v>
+      </c>
+      <c r="G39">
+        <v>1.9536000000000001E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.1631000000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>1.3228E-2</v>
+      </c>
+      <c r="J39">
+        <v>1.7784000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>0.77373199999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.86883200000000005</v>
+      </c>
+      <c r="E43">
+        <v>0.81774800000000003</v>
+      </c>
+      <c r="F43">
+        <v>0.80549199999999999</v>
+      </c>
+      <c r="G43">
+        <v>3.8107000000000002E-2</v>
+      </c>
+      <c r="H43">
+        <v>3.2694000000000001E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.5975999999999999E-2</v>
+      </c>
+      <c r="J43">
+        <v>2.6338E-2</v>
+      </c>
+      <c r="K43" t="str">
+        <f>ROUND(100*C43,2)&amp;" &amp; "&amp;ROUND(100*D43,2)&amp;" &amp; "&amp;ROUND(100*E43,2)&amp;" &amp; "&amp;ROUND(100*F43,2)</f>
+        <v>77.37 &amp; 86.88 &amp; 81.77 &amp; 80.55</v>
+      </c>
+      <c r="L43" t="str">
+        <f>"±"&amp;ROUND(100*G43,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*H43,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*I43,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J43,2)&amp;" &amp; "</f>
+        <v xml:space="preserve">±3.81 &amp; ±3.27 &amp; ±2.6 &amp; ±2.63 &amp; </v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>0.830677</v>
+      </c>
+      <c r="D44">
+        <v>0.82939300000000005</v>
+      </c>
+      <c r="E44">
+        <v>0.82923400000000003</v>
+      </c>
+      <c r="F44">
+        <v>0.82859300000000002</v>
+      </c>
+      <c r="G44">
+        <v>3.6523E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.7617999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>2.6814000000000001E-2</v>
+      </c>
+      <c r="J44">
+        <v>2.5034000000000001E-2</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" ref="K44:K58" si="0">ROUND(100*C44,2)&amp;" &amp; "&amp;ROUND(100*D44,2)&amp;" &amp; "&amp;ROUND(100*E44,2)&amp;" &amp; "&amp;ROUND(100*F44,2)</f>
+        <v>83.07 &amp; 82.94 &amp; 82.92 &amp; 82.86</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" ref="L44:L45" si="1">"±"&amp;ROUND(100*G44,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*H44,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*I44,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J44,2)&amp;" &amp; "</f>
+        <v xml:space="preserve">±3.65 &amp; ±3.76 &amp; ±2.68 &amp; ±2.5 &amp; </v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>0.78370600000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.78024300000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.78070700000000004</v>
+      </c>
+      <c r="F45">
+        <v>0.78007899999999997</v>
+      </c>
+      <c r="G45">
+        <v>4.2410000000000003E-2</v>
+      </c>
+      <c r="H45">
+        <v>4.4082000000000003E-2</v>
+      </c>
+      <c r="I45">
+        <v>2.9974000000000001E-2</v>
+      </c>
+      <c r="J45">
+        <v>2.7650000000000001E-2</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>78.37 &amp; 78.02 &amp; 78.07 &amp; 78.01</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">±4.24 &amp; ±4.41 &amp; ±3 &amp; ±2.77 &amp; </v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>0.80769199999999997</v>
+      </c>
+      <c r="D46">
+        <v>0.875</v>
+      </c>
+      <c r="E46">
+        <v>0.84</v>
+      </c>
+      <c r="F46">
+        <v>0.83263600000000004</v>
+      </c>
+      <c r="G46">
+        <v>3.3951000000000002E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="I46">
+        <v>2.5044E-2</v>
+      </c>
+      <c r="J46">
+        <v>2.4527E-2</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>80.77 &amp; 87.5 &amp; 84 &amp; 83.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="D47">
+        <v>0.4083</v>
+      </c>
+      <c r="E47">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="F47">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="G47">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="H47">
+        <v>0.437</v>
+      </c>
+      <c r="I47">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J47">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>85.96 &amp; 40.83 &amp; 55.37 &amp; 66.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="D48">
+        <v>0.875</v>
+      </c>
+      <c r="E48">
+        <v>0.82352899999999996</v>
+      </c>
+      <c r="F48">
+        <v>0.81171499999999996</v>
+      </c>
+      <c r="G48">
+        <v>3.5455E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="I48">
+        <v>2.5895000000000001E-2</v>
+      </c>
+      <c r="J48">
+        <v>2.5566999999999999E-2</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>77.78 &amp; 87.5 &amp; 82.35 &amp; 81.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>0.75362300000000004</v>
+      </c>
+      <c r="D49">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E49">
+        <v>0.80620199999999997</v>
+      </c>
+      <c r="F49">
+        <v>0.79079500000000003</v>
+      </c>
+      <c r="G49">
+        <v>3.6201999999999998E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.1022000000000001E-2</v>
+      </c>
+      <c r="I49">
+        <v>2.6891999999999999E-2</v>
+      </c>
+      <c r="J49">
+        <v>2.6301000000000001E-2</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>75.36 &amp; 86.67 &amp; 80.62 &amp; 79.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>0.77443600000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.85833300000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.81422899999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.80334700000000003</v>
+      </c>
+      <c r="G50">
+        <v>3.6311999999999997E-2</v>
+      </c>
+      <c r="H50">
+        <v>3.2538999999999998E-2</v>
+      </c>
+      <c r="I50">
+        <v>2.6582000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <v>2.5902000000000001E-2</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>77.44 &amp; 85.83 &amp; 81.42 &amp; 80.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>0.76642299999999997</v>
+      </c>
+      <c r="D51">
+        <v>0.875</v>
+      </c>
+      <c r="E51">
+        <v>0.81712099999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.80334700000000003</v>
+      </c>
+      <c r="G51">
+        <v>3.5869999999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>3.0109E-2</v>
+      </c>
+      <c r="I51">
+        <v>2.5298000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>2.5307E-2</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>76.64 &amp; 87.5 &amp; 81.71 &amp; 80.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52">
+        <v>0.76056299999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.9</v>
+      </c>
+      <c r="E52">
+        <v>0.82442700000000002</v>
+      </c>
+      <c r="F52">
+        <v>0.807531</v>
+      </c>
+      <c r="G52">
+        <v>3.5653999999999998E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.7942999999999999E-2</v>
+      </c>
+      <c r="I52">
+        <v>2.5146000000000002E-2</v>
+      </c>
+      <c r="J52">
+        <v>2.5718000000000001E-2</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>76.06 &amp; 90 &amp; 82.44 &amp; 80.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>0.76865700000000003</v>
+      </c>
+      <c r="D53">
+        <v>0.85833300000000001</v>
+      </c>
+      <c r="E53">
+        <v>0.81102399999999997</v>
+      </c>
+      <c r="F53">
+        <v>0.79916299999999996</v>
+      </c>
+      <c r="G53">
+        <v>3.4948E-2</v>
+      </c>
+      <c r="H53">
+        <v>3.2558999999999998E-2</v>
+      </c>
+      <c r="I53">
+        <v>2.6037000000000001E-2</v>
+      </c>
+      <c r="J53">
+        <v>2.6109E-2</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>76.87 &amp; 85.83 &amp; 81.1 &amp; 79.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>0.77372300000000005</v>
+      </c>
+      <c r="D54">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="E54">
+        <v>0.82490300000000005</v>
+      </c>
+      <c r="F54">
+        <v>0.81171499999999996</v>
+      </c>
+      <c r="G54">
+        <v>3.5411999999999999E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.9596000000000001E-2</v>
+      </c>
+      <c r="I54">
+        <v>2.5725000000000001E-2</v>
+      </c>
+      <c r="J54">
+        <v>2.5569000000000001E-2</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>77.37 &amp; 88.33 &amp; 82.49 &amp; 81.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>0.78030299999999997</v>
+      </c>
+      <c r="D55">
+        <v>0.85833300000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.81745999999999996</v>
+      </c>
+      <c r="F55">
+        <v>0.807531</v>
+      </c>
+      <c r="G55">
+        <v>3.5876999999999999E-2</v>
+      </c>
+      <c r="H55">
+        <v>3.2558999999999998E-2</v>
+      </c>
+      <c r="I55">
+        <v>2.6527999999999999E-2</v>
+      </c>
+      <c r="J55">
+        <v>2.5846000000000001E-2</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>78.03 &amp; 85.83 &amp; 81.75 &amp; 80.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="D56">
+        <v>0.875</v>
+      </c>
+      <c r="E56">
+        <v>0.82352899999999996</v>
+      </c>
+      <c r="F56">
+        <v>0.81171499999999996</v>
+      </c>
+      <c r="G56">
+        <v>3.5312000000000003E-2</v>
+      </c>
+      <c r="H56">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>2.5755E-2</v>
+      </c>
+      <c r="J56">
+        <v>2.5361000000000002E-2</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>77.78 &amp; 87.5 &amp; 82.35 &amp; 81.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>0.78195499999999996</v>
+      </c>
+      <c r="D57">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E57">
+        <v>0.82213400000000003</v>
+      </c>
+      <c r="F57">
+        <v>0.81171499999999996</v>
+      </c>
+      <c r="G57">
+        <v>3.5638000000000003E-2</v>
+      </c>
+      <c r="H57">
+        <v>3.1489999999999997E-2</v>
+      </c>
+      <c r="I57">
+        <v>2.6148999999999999E-2</v>
+      </c>
+      <c r="J57">
+        <v>2.5694000000000002E-2</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>78.2 &amp; 86.67 &amp; 82.21 &amp; 81.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>0.77205900000000005</v>
+      </c>
+      <c r="D58">
+        <v>0.875</v>
+      </c>
+      <c r="E58">
+        <v>0.82031200000000004</v>
+      </c>
+      <c r="F58">
+        <v>0.807531</v>
+      </c>
+      <c r="G58">
+        <v>3.5612999999999999E-2</v>
+      </c>
+      <c r="H58">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="I58">
+        <v>2.6047000000000001E-2</v>
+      </c>
+      <c r="J58">
+        <v>2.5786E-2</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>77.21 &amp; 87.5 &amp; 82.03 &amp; 80.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>0.79967100000000002</v>
+      </c>
+      <c r="D61">
+        <v>0.93657999999999997</v>
+      </c>
+      <c r="E61">
+        <v>0.86192000000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.79234300000000002</v>
+      </c>
+      <c r="G61">
+        <v>3.1294000000000002E-2</v>
+      </c>
+      <c r="H61">
+        <v>2.7442999999999999E-2</v>
+      </c>
+      <c r="I61">
+        <v>1.5023E-2</v>
+      </c>
+      <c r="J61">
+        <v>2.3973000000000001E-2</v>
+      </c>
+      <c r="K61" t="str">
+        <f>ROUND(100*C61,2)&amp;" &amp; "&amp;ROUND(100*D61,2)&amp;" &amp; "&amp;ROUND(100*E61,2)&amp;" &amp; "&amp;ROUND(100*F61,2)</f>
+        <v>79.97 &amp; 93.66 &amp; 86.19 &amp; 79.23</v>
+      </c>
+      <c r="L61" t="str">
+        <f>"±"&amp;ROUND(100*G61,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*H61,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*I61,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J61,2)&amp;" &amp; "</f>
+        <v xml:space="preserve">±3.13 &amp; ±2.74 &amp; ±1.5 &amp; ±2.4 &amp; </v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62">
+        <v>0.85869899999999999</v>
+      </c>
+      <c r="D62">
+        <v>0.94362199999999996</v>
+      </c>
+      <c r="E62">
+        <v>0.89885899999999996</v>
+      </c>
+      <c r="F62">
+        <v>0.85332300000000005</v>
+      </c>
+      <c r="G62">
+        <v>2.3261E-2</v>
+      </c>
+      <c r="H62">
+        <v>2.6377000000000001E-2</v>
+      </c>
+      <c r="I62">
+        <v>1.8484E-2</v>
+      </c>
+      <c r="J62">
+        <v>2.5592E-2</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" ref="K61:K75" si="2">ROUND(100*C62,2)&amp;" &amp; "&amp;ROUND(100*D62,2)&amp;" &amp; "&amp;ROUND(100*E62,2)&amp;" &amp; "&amp;ROUND(100*F62,2)</f>
+        <v>85.87 &amp; 94.36 &amp; 89.89 &amp; 85.33</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" ref="L61:L63" si="3">"±"&amp;ROUND(100*G62,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*H62,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*I62,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J62,2)&amp;" &amp; "</f>
+        <v xml:space="preserve">±2.33 &amp; ±2.64 &amp; ±1.85 &amp; ±2.56 &amp; </v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63">
+        <v>0.74594000000000005</v>
+      </c>
+      <c r="D63">
+        <v>0.99268699999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.84908099999999997</v>
+      </c>
+      <c r="F63">
+        <v>0.75097100000000006</v>
+      </c>
+      <c r="G63">
+        <v>7.8570000000000001E-2</v>
+      </c>
+      <c r="H63">
+        <v>1.124E-2</v>
+      </c>
+      <c r="I63">
+        <v>4.6011000000000003E-2</v>
+      </c>
+      <c r="J63">
+        <v>8.5337999999999997E-2</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>74.59 &amp; 99.27 &amp; 84.91 &amp; 75.1</v>
+      </c>
+      <c r="L63" t="str">
+        <f>"±"&amp;ROUND(100*G63,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*H63,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*I63,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J63,2)&amp;" &amp; "</f>
+        <v xml:space="preserve">±7.86 &amp; ±1.12 &amp; ±4.6 &amp; ±8.53 &amp; </v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>0.80405400000000005</v>
+      </c>
+      <c r="D64">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E64">
+        <v>0.88257099999999999</v>
+      </c>
+      <c r="F64">
+        <v>0.81973399999999996</v>
+      </c>
+      <c r="G64">
+        <v>1.8896E-2</v>
+      </c>
+      <c r="H64">
+        <v>7.7450000000000001E-3</v>
+      </c>
+      <c r="I64">
+        <v>1.1920999999999999E-2</v>
+      </c>
+      <c r="J64">
+        <v>1.6754000000000002E-2</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>80.41 &amp; 97.81 &amp; 88.26 &amp; 81.97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65">
+        <v>0.81693400000000005</v>
+      </c>
+      <c r="D65">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E65">
+        <v>0.89027400000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.83301700000000001</v>
+      </c>
+      <c r="G65">
+        <v>1.8579999999999999E-2</v>
+      </c>
+      <c r="H65">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="I65">
+        <v>1.1611E-2</v>
+      </c>
+      <c r="J65">
+        <v>1.6322E-2</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>81.69 &amp; 97.81 &amp; 89.03 &amp; 83.3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.96712299999999995</v>
+      </c>
+      <c r="E66">
+        <v>0.87376200000000004</v>
+      </c>
+      <c r="F66">
+        <v>0.80645199999999995</v>
+      </c>
+      <c r="G66">
+        <v>1.9352000000000001E-2</v>
+      </c>
+      <c r="H66">
+        <v>9.0209999999999995E-3</v>
+      </c>
+      <c r="I66">
+        <v>1.2638999999999999E-2</v>
+      </c>
+      <c r="J66">
+        <v>1.7696E-2</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="2"/>
+        <v>79.68 &amp; 96.71 &amp; 87.38 &amp; 80.65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <v>0.80855900000000003</v>
+      </c>
+      <c r="D67">
+        <v>0.98356200000000005</v>
+      </c>
+      <c r="E67">
+        <v>0.88751500000000005</v>
+      </c>
+      <c r="F67">
+        <v>0.82732399999999995</v>
+      </c>
+      <c r="G67">
+        <v>1.8742000000000002E-2</v>
+      </c>
+      <c r="H67">
+        <v>6.411E-3</v>
+      </c>
+      <c r="I67">
+        <v>1.1783E-2</v>
+      </c>
+      <c r="J67">
+        <v>1.6617E-2</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="2"/>
+        <v>80.86 &amp; 98.36 &amp; 88.75 &amp; 82.73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>0.81975299999999995</v>
+      </c>
+      <c r="D68">
+        <v>0.90958899999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.86233800000000005</v>
+      </c>
+      <c r="F68">
+        <v>0.79886100000000004</v>
+      </c>
+      <c r="G68">
+        <v>1.8719E-2</v>
+      </c>
+      <c r="H68">
+        <v>1.4583E-2</v>
+      </c>
+      <c r="I68">
+        <v>1.2845000000000001E-2</v>
+      </c>
+      <c r="J68">
+        <v>1.7003999999999998E-2</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="2"/>
+        <v>81.98 &amp; 90.96 &amp; 86.23 &amp; 79.89</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>0.84412500000000001</v>
+      </c>
+      <c r="D69">
+        <v>0.96438400000000002</v>
+      </c>
+      <c r="E69">
+        <v>0.90025599999999995</v>
+      </c>
+      <c r="F69">
+        <v>0.85199199999999997</v>
+      </c>
+      <c r="G69">
+        <v>1.7943000000000001E-2</v>
+      </c>
+      <c r="H69">
+        <v>9.5060000000000006E-3</v>
+      </c>
+      <c r="I69">
+        <v>1.1183E-2</v>
+      </c>
+      <c r="J69">
+        <v>1.5491E-2</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="2"/>
+        <v>84.41 &amp; 96.44 &amp; 90.03 &amp; 85.2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>0.80481899999999995</v>
+      </c>
+      <c r="D70">
+        <v>0.91506799999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.85641</v>
+      </c>
+      <c r="F70">
+        <v>0.78747599999999995</v>
+      </c>
+      <c r="G70">
+        <v>1.9047000000000001E-2</v>
+      </c>
+      <c r="H70">
+        <v>1.4428E-2</v>
+      </c>
+      <c r="I70">
+        <v>1.2961E-2</v>
+      </c>
+      <c r="J70">
+        <v>1.7257000000000002E-2</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="2"/>
+        <v>80.48 &amp; 91.51 &amp; 85.64 &amp; 78.75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>0.81506800000000001</v>
+      </c>
+      <c r="D71">
+        <v>0.97808200000000001</v>
+      </c>
+      <c r="E71">
+        <v>0.88916600000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.83111999999999997</v>
+      </c>
+      <c r="G71">
+        <v>1.8676000000000002E-2</v>
+      </c>
+      <c r="H71">
+        <v>7.6229999999999996E-3</v>
+      </c>
+      <c r="I71">
+        <v>1.1688E-2</v>
+      </c>
+      <c r="J71">
+        <v>1.6442999999999999E-2</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="2"/>
+        <v>81.51 &amp; 97.81 &amp; 88.92 &amp; 83.11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>0.82640599999999997</v>
+      </c>
+      <c r="D72">
+        <v>0.92602700000000004</v>
+      </c>
+      <c r="E72">
+        <v>0.87338499999999997</v>
+      </c>
+      <c r="F72">
+        <v>0.81404200000000004</v>
+      </c>
+      <c r="G72">
+        <v>1.8457000000000001E-2</v>
+      </c>
+      <c r="H72">
+        <v>1.3977E-2</v>
+      </c>
+      <c r="I72">
+        <v>1.2739E-2</v>
+      </c>
+      <c r="J72">
+        <v>1.7058E-2</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="2"/>
+        <v>82.64 &amp; 92.6 &amp; 87.34 &amp; 81.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>0.81093400000000004</v>
+      </c>
+      <c r="D73">
+        <v>0.97534200000000004</v>
+      </c>
+      <c r="E73">
+        <v>0.88557200000000003</v>
+      </c>
+      <c r="F73">
+        <v>0.82542700000000002</v>
+      </c>
+      <c r="G73">
+        <v>1.8513000000000002E-2</v>
+      </c>
+      <c r="H73">
+        <v>7.9729999999999992E-3</v>
+      </c>
+      <c r="I73">
+        <v>1.1714E-2</v>
+      </c>
+      <c r="J73">
+        <v>1.6428000000000002E-2</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="2"/>
+        <v>81.09 &amp; 97.53 &amp; 88.56 &amp; 82.54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74">
+        <v>0.817967</v>
+      </c>
+      <c r="D74">
+        <v>0.94794500000000004</v>
+      </c>
+      <c r="E74">
+        <v>0.87817299999999998</v>
+      </c>
+      <c r="F74">
+        <v>0.81783700000000004</v>
+      </c>
+      <c r="G74">
+        <v>1.8751E-2</v>
+      </c>
+      <c r="H74">
+        <v>1.1336000000000001E-2</v>
+      </c>
+      <c r="I74">
+        <v>1.2371E-2</v>
+      </c>
+      <c r="J74">
+        <v>1.6903000000000001E-2</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="2"/>
+        <v>81.8 &amp; 94.79 &amp; 87.82 &amp; 81.78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>0.81609200000000004</v>
+      </c>
+      <c r="D75">
+        <v>0.972603</v>
+      </c>
+      <c r="E75">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F75">
+        <v>0.82922200000000001</v>
+      </c>
+      <c r="G75">
+        <v>1.8603999999999999E-2</v>
+      </c>
+      <c r="H75">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="I75">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="J75">
+        <v>1.6407000000000001E-2</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="2"/>
+        <v>81.61 &amp; 97.26 &amp; 88.75 &amp; 82.92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="58"/>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="58"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="58"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86">
+        <v>0.79027999999999998</v>
+      </c>
+      <c r="D86">
+        <v>0.25841599999999998</v>
+      </c>
+      <c r="E86">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="F86" t="str">
+        <f>ROUND(100*C86,2)&amp;" &amp; "&amp;ROUND(100*D86,2)&amp;" &amp; "&amp;ROUND(100*E86,2)</f>
+        <v>79.03 &amp; 25.84 &amp; 82.95</v>
+      </c>
+      <c r="I86">
+        <v>3.0676999999999999E-2</v>
+      </c>
+      <c r="J86">
+        <v>4.4451999999999998E-2</v>
+      </c>
+      <c r="K86">
+        <v>1.5713999999999999E-2</v>
+      </c>
+      <c r="L86" t="str">
+        <f>"±"&amp;ROUND(100*I86,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J86,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*K86,2)</f>
+        <v>±3.07 &amp; ±4.45 &amp; ±1.57</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87">
+        <v>0.79937800000000003</v>
+      </c>
+      <c r="D87">
+        <v>0.23169899999999999</v>
+      </c>
+      <c r="E87">
+        <v>0.86668599999999996</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" ref="F87:F92" si="4">ROUND(100*C87,2)&amp;" &amp; "&amp;ROUND(100*D87,2)&amp;" &amp; "&amp;ROUND(100*E87,2)</f>
+        <v>79.94 &amp; 23.17 &amp; 86.67</v>
+      </c>
+      <c r="I87">
+        <v>2.9253000000000001E-2</v>
+      </c>
+      <c r="J87">
+        <v>2.9829999999999999E-2</v>
+      </c>
+      <c r="K87">
+        <v>1.3849E-2</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" ref="L87:L92" si="5">"±"&amp;ROUND(100*I87,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*J87,2)&amp;" &amp; "&amp;"±"&amp;ROUND(100*K87,2)</f>
+        <v>±2.93 &amp; ±2.98 &amp; ±1.38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <v>0.75905599999999995</v>
+      </c>
+      <c r="D88">
+        <v>0.26456099999999999</v>
+      </c>
+      <c r="E88">
+        <v>0.83472900000000005</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="4"/>
+        <v>75.91 &amp; 26.46 &amp; 83.47</v>
+      </c>
+      <c r="I88">
+        <v>3.1447999999999997E-2</v>
+      </c>
+      <c r="J88">
+        <v>3.3196999999999997E-2</v>
+      </c>
+      <c r="K88">
+        <v>3.2709000000000002E-2</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="5"/>
+        <v>±3.14 &amp; ±3.32 &amp; ±3.27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>0.81081099999999995</v>
+      </c>
+      <c r="D89">
+        <v>0.29565200000000003</v>
+      </c>
+      <c r="E89">
+        <v>0.85606099999999996</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="4"/>
+        <v>81.08 &amp; 29.57 &amp; 85.61</v>
+      </c>
+      <c r="I89">
+        <v>2.6811999999999999E-2</v>
+      </c>
+      <c r="J89">
+        <v>3.2042000000000001E-2</v>
+      </c>
+      <c r="K89">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="5"/>
+        <v>±2.68 &amp; ±3.2 &amp; ±1.35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90">
+        <v>0.82625499999999996</v>
+      </c>
+      <c r="D90">
+        <v>0.29824600000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.85931599999999997</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="4"/>
+        <v>82.63 &amp; 29.82 &amp; 85.93</v>
+      </c>
+      <c r="I90">
+        <v>2.5928E-2</v>
+      </c>
+      <c r="J90">
+        <v>3.1709000000000001E-2</v>
+      </c>
+      <c r="K90">
+        <v>1.3309E-2</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="5"/>
+        <v>±2.59 &amp; ±3.17 &amp; ±1.33</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>0.78545500000000001</v>
+      </c>
+      <c r="D91">
+        <v>0.27027000000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.83937799999999996</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="4"/>
+        <v>78.55 &amp; 27.03 &amp; 83.94</v>
+      </c>
+      <c r="I91">
+        <v>2.6959E-2</v>
+      </c>
+      <c r="J91">
+        <v>3.2190000000000003E-2</v>
+      </c>
+      <c r="K91">
+        <v>1.4246999999999999E-2</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="5"/>
+        <v>±2.7 &amp; ±3.22 &amp; ±1.42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0.81992299999999996</v>
+      </c>
+      <c r="D92">
+        <v>0.30498500000000001</v>
+      </c>
+      <c r="E92">
+        <v>0.860792</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="4"/>
+        <v>81.99 &amp; 30.5 &amp; 86.08</v>
+      </c>
+      <c r="I92">
+        <v>2.5853000000000001E-2</v>
+      </c>
+      <c r="J92">
+        <v>3.1951E-2</v>
+      </c>
+      <c r="K92">
+        <v>1.3228E-2</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="5"/>
+        <v>±2.59 &amp; ±3.2 &amp; ±1.32</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="58"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="58"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="58"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB895FFE-6536-4EAC-B914-C85C88DFE9DC}">
+  <dimension ref="B3:V26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="10" max="22" width="3.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="34.5" customHeight="1">
+      <c r="B3" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="59"/>
+    </row>
+    <row r="5" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B5" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B6" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B7" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="2:4" ht="56.25" customHeight="1">
+      <c r="B12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="19" spans="9:22" ht="21">
+      <c r="J19" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="O19" s="71"/>
+      <c r="P19" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="V19" s="75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22">
+      <c r="I20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="62">
+        <v>0.63826708035866753</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65">
+        <v>0.27367775512601966</v>
+      </c>
+      <c r="N20" s="85">
+        <v>0.8278668561120397</v>
+      </c>
+      <c r="O20" s="72"/>
+      <c r="P20" s="62">
+        <v>0.87206772016543099</v>
+      </c>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="64"/>
+    </row>
+    <row r="21" spans="9:22">
+      <c r="I21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="62">
+        <v>0.26241805102987859</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="64"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="U21" s="63"/>
+      <c r="V21" s="64"/>
+    </row>
+    <row r="22" spans="9:22">
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+    </row>
+    <row r="23" spans="9:22" ht="19.5">
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+    </row>
+    <row r="24" spans="9:22">
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+    </row>
+    <row r="25" spans="9:22">
+      <c r="J25" s="68">
+        <v>0.63826708035866753</v>
+      </c>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="80">
+        <v>1.1015446112380594</v>
+      </c>
+      <c r="N25" s="81"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="62">
+        <f>P20</f>
+        <v>0.87206772016543099</v>
+      </c>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="64"/>
+    </row>
+    <row r="26" spans="9:22">
+      <c r="J26" s="77">
+        <v>0.26241805102987859</v>
+      </c>
+      <c r="K26" s="79"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="64"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="82">
+        <f>SUM(P21:V21)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="P25:V25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P26:V26"/>
+    <mergeCell ref="O25:O26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J26:N26 P26:V26 J20:N21 P20:V21 J22:V25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>